--- a/2.詳細設計/2-4_詳細設計_顧客情報更新画面.xlsx
+++ b/2.詳細設計/2-4_詳細設計_顧客情報更新画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\2.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E32C897-7FE1-42D9-97C1-7FF661F465C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3382058D-FBAD-4DDB-A77D-D2DE1D75012B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="780" windowWidth="19530" windowHeight="15420" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="270" windowWidth="16050" windowHeight="15105" tabRatio="747" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.表紙" sheetId="1" r:id="rId1"/>
@@ -2065,48 +2065,6 @@
   </si>
   <si>
     <r>
-      <t>　4-2-1)</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>画面項目と取得データが一致した場合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> → 『4-3)生年月日の日付矛盾チェック』の処理を行う。</t>
-    </r>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
       <t>　4-3-1)</t>
     </r>
     <r>
@@ -2806,6 +2764,48 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>　4-2-1)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>画面項目と取得データが一致した場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> → 『4-3)画面必須項目の記述チェック』の処理を行う。</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3609,27 +3609,6 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3657,29 +3636,42 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3696,24 +3688,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3723,7 +3715,10 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="20" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3736,18 +3731,11 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3756,6 +3744,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3766,7 +3766,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3775,14 +3778,26 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="56" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="56" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3794,6 +3809,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3802,17 +3826,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3832,47 +3847,41 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3886,6 +3895,15 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3897,24 +3915,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7231,7 +7231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -7572,28 +7572,28 @@
       <c r="E10" s="78"/>
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
-      <c r="H10" s="97" t="s">
+      <c r="H10" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="99"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="92"/>
       <c r="AB10" s="79"/>
       <c r="AC10" s="79"/>
       <c r="AD10" s="79"/>
@@ -7610,26 +7610,26 @@
       <c r="E11" s="78"/>
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="101"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="101"/>
-      <c r="Z11" s="101"/>
-      <c r="AA11" s="102"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="95"/>
       <c r="AB11" s="79"/>
       <c r="AC11" s="79"/>
       <c r="AD11" s="79"/>
@@ -7646,26 +7646,26 @@
       <c r="E12" s="78"/>
       <c r="F12" s="78"/>
       <c r="G12" s="78"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="101"/>
-      <c r="V12" s="101"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="101"/>
-      <c r="AA12" s="102"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="95"/>
       <c r="AB12" s="79"/>
       <c r="AC12" s="79"/>
       <c r="AD12" s="79"/>
@@ -7682,28 +7682,28 @@
       <c r="E13" s="78"/>
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
-      <c r="H13" s="100" t="s">
+      <c r="H13" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="101"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="102"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="95"/>
       <c r="AB13" s="79"/>
       <c r="AC13" s="79"/>
       <c r="AD13" s="79"/>
@@ -7720,26 +7720,26 @@
       <c r="E14" s="78"/>
       <c r="F14" s="78"/>
       <c r="G14" s="78"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="102"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="95"/>
       <c r="AB14" s="79"/>
       <c r="AC14" s="79"/>
       <c r="AD14" s="79"/>
@@ -7756,26 +7756,26 @@
       <c r="E15" s="78"/>
       <c r="F15" s="78"/>
       <c r="G15" s="78"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="104"/>
-      <c r="U15" s="104"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="105"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="97"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="98"/>
       <c r="AB15" s="79"/>
       <c r="AC15" s="79"/>
       <c r="AD15" s="79"/>
@@ -8045,28 +8045,28 @@
       <c r="F23" s="78"/>
       <c r="G23" s="78"/>
       <c r="H23" s="78"/>
-      <c r="I23" s="90" t="s">
+      <c r="I23" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="90" t="s">
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="91"/>
-      <c r="T23" s="91"/>
-      <c r="U23" s="91"/>
-      <c r="V23" s="91"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="91"/>
-      <c r="Y23" s="91"/>
-      <c r="Z23" s="92"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="100"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="100"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="101"/>
       <c r="AA23" s="78"/>
       <c r="AB23" s="79"/>
       <c r="AC23" s="79"/>
@@ -8085,24 +8085,24 @@
       <c r="F24" s="78"/>
       <c r="G24" s="78"/>
       <c r="H24" s="78"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-      <c r="T24" s="94"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="95"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="103"/>
+      <c r="Z24" s="104"/>
       <c r="AA24" s="78"/>
       <c r="AB24" s="79"/>
       <c r="AC24" s="79"/>
@@ -8121,28 +8121,28 @@
       <c r="F25" s="78"/>
       <c r="G25" s="78"/>
       <c r="H25" s="78"/>
-      <c r="I25" s="90" t="s">
+      <c r="I25" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="90" t="s">
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="91"/>
-      <c r="T25" s="91"/>
-      <c r="U25" s="91"/>
-      <c r="V25" s="91"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="91"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="92"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
+      <c r="V25" s="100"/>
+      <c r="W25" s="100"/>
+      <c r="X25" s="100"/>
+      <c r="Y25" s="100"/>
+      <c r="Z25" s="101"/>
       <c r="AA25" s="78"/>
       <c r="AB25" s="79"/>
       <c r="AC25" s="79"/>
@@ -8161,24 +8161,24 @@
       <c r="F26" s="78"/>
       <c r="G26" s="78"/>
       <c r="H26" s="78"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="94"/>
-      <c r="Z26" s="95"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="103"/>
+      <c r="W26" s="103"/>
+      <c r="X26" s="103"/>
+      <c r="Y26" s="103"/>
+      <c r="Z26" s="104"/>
       <c r="AA26" s="78"/>
       <c r="AB26" s="79"/>
       <c r="AC26" s="79"/>
@@ -8197,28 +8197,28 @@
       <c r="F27" s="78"/>
       <c r="G27" s="78"/>
       <c r="H27" s="78"/>
-      <c r="I27" s="90" t="s">
+      <c r="I27" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="90" t="s">
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="91"/>
-      <c r="U27" s="91"/>
-      <c r="V27" s="91"/>
-      <c r="W27" s="91"/>
-      <c r="X27" s="91"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="92"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="100"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="101"/>
       <c r="AA27" s="78"/>
       <c r="AB27" s="79"/>
       <c r="AC27" s="79"/>
@@ -8237,24 +8237,24 @@
       <c r="F28" s="78"/>
       <c r="G28" s="78"/>
       <c r="H28" s="78"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="95"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="103"/>
+      <c r="V28" s="103"/>
+      <c r="W28" s="103"/>
+      <c r="X28" s="103"/>
+      <c r="Y28" s="103"/>
+      <c r="Z28" s="104"/>
       <c r="AA28" s="78"/>
       <c r="AB28" s="79"/>
       <c r="AC28" s="79"/>
@@ -8273,28 +8273,28 @@
       <c r="F29" s="78"/>
       <c r="G29" s="78"/>
       <c r="H29" s="78"/>
-      <c r="I29" s="90" t="s">
+      <c r="I29" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="96">
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="105">
         <v>44539</v>
       </c>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="91"/>
-      <c r="T29" s="91"/>
-      <c r="U29" s="91"/>
-      <c r="V29" s="91"/>
-      <c r="W29" s="91"/>
-      <c r="X29" s="91"/>
-      <c r="Y29" s="91"/>
-      <c r="Z29" s="92"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="100"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="100"/>
+      <c r="W29" s="100"/>
+      <c r="X29" s="100"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="101"/>
       <c r="AA29" s="78"/>
       <c r="AB29" s="79"/>
       <c r="AC29" s="79"/>
@@ -8313,24 +8313,24 @@
       <c r="F30" s="78"/>
       <c r="G30" s="78"/>
       <c r="H30" s="78"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="95"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="103"/>
+      <c r="W30" s="103"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="103"/>
+      <c r="Z30" s="104"/>
       <c r="AA30" s="78"/>
       <c r="AB30" s="79"/>
       <c r="AC30" s="79"/>
@@ -8349,28 +8349,28 @@
       <c r="F31" s="78"/>
       <c r="G31" s="78"/>
       <c r="H31" s="78"/>
-      <c r="I31" s="90" t="s">
+      <c r="I31" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="90" t="s">
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="91"/>
-      <c r="T31" s="91"/>
-      <c r="U31" s="91"/>
-      <c r="V31" s="91"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="92"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="100"/>
+      <c r="W31" s="100"/>
+      <c r="X31" s="100"/>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="101"/>
       <c r="AA31" s="78"/>
       <c r="AB31" s="79"/>
       <c r="AC31" s="79"/>
@@ -8389,24 +8389,24 @@
       <c r="F32" s="78"/>
       <c r="G32" s="78"/>
       <c r="H32" s="78"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="95"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="103"/>
+      <c r="V32" s="103"/>
+      <c r="W32" s="103"/>
+      <c r="X32" s="103"/>
+      <c r="Y32" s="103"/>
+      <c r="Z32" s="104"/>
       <c r="AA32" s="78"/>
       <c r="AB32" s="79"/>
       <c r="AC32" s="79"/>
@@ -8425,28 +8425,28 @@
       <c r="F33" s="78"/>
       <c r="G33" s="78"/>
       <c r="H33" s="78"/>
-      <c r="I33" s="90" t="s">
+      <c r="I33" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="96">
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="105">
         <v>44537</v>
       </c>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="91"/>
-      <c r="U33" s="91"/>
-      <c r="V33" s="91"/>
-      <c r="W33" s="91"/>
-      <c r="X33" s="91"/>
-      <c r="Y33" s="91"/>
-      <c r="Z33" s="92"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="100"/>
+      <c r="T33" s="100"/>
+      <c r="U33" s="100"/>
+      <c r="V33" s="100"/>
+      <c r="W33" s="100"/>
+      <c r="X33" s="100"/>
+      <c r="Y33" s="100"/>
+      <c r="Z33" s="101"/>
       <c r="AA33" s="78"/>
       <c r="AB33" s="79"/>
       <c r="AC33" s="79"/>
@@ -8465,24 +8465,24 @@
       <c r="F34" s="78"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="95"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="102"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="103"/>
+      <c r="V34" s="103"/>
+      <c r="W34" s="103"/>
+      <c r="X34" s="103"/>
+      <c r="Y34" s="103"/>
+      <c r="Z34" s="104"/>
       <c r="AA34" s="78"/>
       <c r="AB34" s="79"/>
       <c r="AC34" s="79"/>
@@ -8710,12 +8710,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -8724,6 +8718,12 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8747,127 +8747,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="113" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="117" t="str">
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="115" t="str">
         <f>'0.表紙'!O25</f>
         <v>顧客情報更新画面</v>
       </c>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="117"/>
-      <c r="AB1" s="117"/>
-      <c r="AC1" s="117"/>
-      <c r="AD1" s="117"/>
-      <c r="AE1" s="117"/>
-      <c r="AF1" s="117"/>
-      <c r="AG1" s="117"/>
-      <c r="AH1" s="117"/>
-      <c r="AI1" s="117"/>
-      <c r="AJ1" s="117"/>
-      <c r="AK1" s="115" t="s">
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
+      <c r="AH1" s="115"/>
+      <c r="AI1" s="115"/>
+      <c r="AJ1" s="115"/>
+      <c r="AK1" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="115"/>
-      <c r="AM1" s="115"/>
-      <c r="AN1" s="115"/>
-      <c r="AO1" s="115"/>
-      <c r="AP1" s="115"/>
-      <c r="AQ1" s="115"/>
-      <c r="AR1" s="114" t="str">
+      <c r="AL1" s="113"/>
+      <c r="AM1" s="113"/>
+      <c r="AN1" s="113"/>
+      <c r="AO1" s="113"/>
+      <c r="AP1" s="113"/>
+      <c r="AQ1" s="113"/>
+      <c r="AR1" s="112" t="str">
         <f>'0.表紙'!O31</f>
         <v>山城</v>
       </c>
-      <c r="AS1" s="114"/>
-      <c r="AT1" s="114"/>
-      <c r="AU1" s="114"/>
-      <c r="AV1" s="114"/>
-      <c r="AW1" s="114"/>
-      <c r="AX1" s="114"/>
+      <c r="AS1" s="112"/>
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112"/>
     </row>
     <row r="2" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="113" t="s">
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="114"/>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="114"/>
-      <c r="AH2" s="114"/>
-      <c r="AI2" s="114"/>
-      <c r="AJ2" s="114"/>
-      <c r="AK2" s="115" t="s">
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="AL2" s="115"/>
-      <c r="AM2" s="115"/>
-      <c r="AN2" s="115"/>
-      <c r="AO2" s="115"/>
-      <c r="AP2" s="115"/>
-      <c r="AQ2" s="115"/>
-      <c r="AR2" s="116">
+      <c r="AL2" s="113"/>
+      <c r="AM2" s="113"/>
+      <c r="AN2" s="113"/>
+      <c r="AO2" s="113"/>
+      <c r="AP2" s="113"/>
+      <c r="AQ2" s="113"/>
+      <c r="AR2" s="114">
         <f>'0.表紙'!O33</f>
         <v>44537</v>
       </c>
-      <c r="AS2" s="116"/>
-      <c r="AT2" s="116"/>
-      <c r="AU2" s="116"/>
-      <c r="AV2" s="116"/>
-      <c r="AW2" s="116"/>
-      <c r="AX2" s="116"/>
+      <c r="AS2" s="114"/>
+      <c r="AT2" s="114"/>
+      <c r="AU2" s="114"/>
+      <c r="AV2" s="114"/>
+      <c r="AW2" s="114"/>
+      <c r="AX2" s="114"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A3" s="52"/>
@@ -8890,77 +8890,77 @@
       <c r="R3" s="52"/>
     </row>
     <row r="4" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119" t="s">
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119" t="s">
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="120" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="120"/>
-      <c r="W4" s="120"/>
-      <c r="X4" s="120"/>
-      <c r="Y4" s="120"/>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="120"/>
-      <c r="AB4" s="120"/>
-      <c r="AC4" s="120"/>
-      <c r="AD4" s="120"/>
-      <c r="AE4" s="120"/>
-      <c r="AF4" s="120"/>
-      <c r="AG4" s="120"/>
-      <c r="AH4" s="120"/>
-      <c r="AI4" s="120"/>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120"/>
-      <c r="AL4" s="120"/>
-      <c r="AM4" s="120"/>
-      <c r="AN4" s="120"/>
-      <c r="AO4" s="120"/>
-      <c r="AP4" s="120"/>
-      <c r="AQ4" s="120"/>
-      <c r="AR4" s="120"/>
-      <c r="AS4" s="120"/>
-      <c r="AT4" s="120"/>
-      <c r="AU4" s="120"/>
-      <c r="AV4" s="120"/>
-      <c r="AW4" s="120"/>
-      <c r="AX4" s="120"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="118"/>
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="118"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
+      <c r="AK4" s="118"/>
+      <c r="AL4" s="118"/>
+      <c r="AM4" s="118"/>
+      <c r="AN4" s="118"/>
+      <c r="AO4" s="118"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="118"/>
+      <c r="AR4" s="118"/>
+      <c r="AS4" s="118"/>
+      <c r="AT4" s="118"/>
+      <c r="AU4" s="118"/>
+      <c r="AV4" s="118"/>
+      <c r="AW4" s="118"/>
+      <c r="AX4" s="118"/>
     </row>
     <row r="5" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="110">
+      <c r="A5" s="111">
         <v>1</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="112">
+      <c r="B5" s="111"/>
+      <c r="C5" s="117">
         <v>44537</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="108" t="s">
         <v>5</v>
       </c>
@@ -8980,49 +8980,49 @@
       <c r="R5" s="108"/>
       <c r="S5" s="108"/>
       <c r="T5" s="108"/>
-      <c r="U5" s="109" t="s">
+      <c r="U5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="109"/>
-      <c r="W5" s="109"/>
-      <c r="X5" s="109"/>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="109"/>
-      <c r="AA5" s="109"/>
-      <c r="AB5" s="109"/>
-      <c r="AC5" s="109"/>
-      <c r="AD5" s="109"/>
-      <c r="AE5" s="109"/>
-      <c r="AF5" s="109"/>
-      <c r="AG5" s="109"/>
-      <c r="AH5" s="109"/>
-      <c r="AI5" s="109"/>
-      <c r="AJ5" s="109"/>
-      <c r="AK5" s="109"/>
-      <c r="AL5" s="109"/>
-      <c r="AM5" s="109"/>
-      <c r="AN5" s="109"/>
-      <c r="AO5" s="109"/>
-      <c r="AP5" s="109"/>
-      <c r="AQ5" s="109"/>
-      <c r="AR5" s="109"/>
-      <c r="AS5" s="109"/>
-      <c r="AT5" s="109"/>
-      <c r="AU5" s="109"/>
-      <c r="AV5" s="109"/>
-      <c r="AW5" s="109"/>
-      <c r="AX5" s="109"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="119"/>
+      <c r="AH5" s="119"/>
+      <c r="AI5" s="119"/>
+      <c r="AJ5" s="119"/>
+      <c r="AK5" s="119"/>
+      <c r="AL5" s="119"/>
+      <c r="AM5" s="119"/>
+      <c r="AN5" s="119"/>
+      <c r="AO5" s="119"/>
+      <c r="AP5" s="119"/>
+      <c r="AQ5" s="119"/>
+      <c r="AR5" s="119"/>
+      <c r="AS5" s="119"/>
+      <c r="AT5" s="119"/>
+      <c r="AU5" s="119"/>
+      <c r="AV5" s="119"/>
+      <c r="AW5" s="119"/>
+      <c r="AX5" s="119"/>
     </row>
     <row r="6" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="110">
+      <c r="A6" s="111">
         <v>2</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="112">
+      <c r="B6" s="111"/>
+      <c r="C6" s="117">
         <v>44539</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
       <c r="F6" s="108" t="s">
         <v>5</v>
       </c>
@@ -9031,7 +9031,7 @@
       <c r="I6" s="108"/>
       <c r="J6" s="108"/>
       <c r="K6" s="108" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L6" s="108"/>
       <c r="M6" s="108"/>
@@ -9042,45 +9042,45 @@
       <c r="R6" s="108"/>
       <c r="S6" s="108"/>
       <c r="T6" s="108"/>
-      <c r="U6" s="109" t="s">
-        <v>230</v>
-      </c>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="109"/>
-      <c r="Z6" s="109"/>
-      <c r="AA6" s="109"/>
-      <c r="AB6" s="109"/>
-      <c r="AC6" s="109"/>
-      <c r="AD6" s="109"/>
-      <c r="AE6" s="109"/>
-      <c r="AF6" s="109"/>
-      <c r="AG6" s="109"/>
-      <c r="AH6" s="109"/>
-      <c r="AI6" s="109"/>
-      <c r="AJ6" s="109"/>
-      <c r="AK6" s="109"/>
-      <c r="AL6" s="109"/>
-      <c r="AM6" s="109"/>
-      <c r="AN6" s="109"/>
-      <c r="AO6" s="109"/>
-      <c r="AP6" s="109"/>
-      <c r="AQ6" s="109"/>
-      <c r="AR6" s="109"/>
-      <c r="AS6" s="109"/>
-      <c r="AT6" s="109"/>
-      <c r="AU6" s="109"/>
-      <c r="AV6" s="109"/>
-      <c r="AW6" s="109"/>
-      <c r="AX6" s="109"/>
+      <c r="U6" s="119" t="s">
+        <v>229</v>
+      </c>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="119"/>
+      <c r="AJ6" s="119"/>
+      <c r="AK6" s="119"/>
+      <c r="AL6" s="119"/>
+      <c r="AM6" s="119"/>
+      <c r="AN6" s="119"/>
+      <c r="AO6" s="119"/>
+      <c r="AP6" s="119"/>
+      <c r="AQ6" s="119"/>
+      <c r="AR6" s="119"/>
+      <c r="AS6" s="119"/>
+      <c r="AT6" s="119"/>
+      <c r="AU6" s="119"/>
+      <c r="AV6" s="119"/>
+      <c r="AW6" s="119"/>
+      <c r="AX6" s="119"/>
     </row>
     <row r="7" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="110">
+      <c r="A7" s="111">
         <v>3</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="112"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="108"/>
       <c r="E7" s="108"/>
       <c r="F7" s="108"/>
@@ -9098,43 +9098,43 @@
       <c r="R7" s="108"/>
       <c r="S7" s="108"/>
       <c r="T7" s="108"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109"/>
-      <c r="AB7" s="109"/>
-      <c r="AC7" s="109"/>
-      <c r="AD7" s="109"/>
-      <c r="AE7" s="109"/>
-      <c r="AF7" s="109"/>
-      <c r="AG7" s="109"/>
-      <c r="AH7" s="109"/>
-      <c r="AI7" s="109"/>
-      <c r="AJ7" s="109"/>
-      <c r="AK7" s="109"/>
-      <c r="AL7" s="109"/>
-      <c r="AM7" s="109"/>
-      <c r="AN7" s="109"/>
-      <c r="AO7" s="109"/>
-      <c r="AP7" s="109"/>
-      <c r="AQ7" s="109"/>
-      <c r="AR7" s="109"/>
-      <c r="AS7" s="109"/>
-      <c r="AT7" s="109"/>
-      <c r="AU7" s="109"/>
-      <c r="AV7" s="109"/>
-      <c r="AW7" s="109"/>
-      <c r="AX7" s="109"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119"/>
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="119"/>
+      <c r="AO7" s="119"/>
+      <c r="AP7" s="119"/>
+      <c r="AQ7" s="119"/>
+      <c r="AR7" s="119"/>
+      <c r="AS7" s="119"/>
+      <c r="AT7" s="119"/>
+      <c r="AU7" s="119"/>
+      <c r="AV7" s="119"/>
+      <c r="AW7" s="119"/>
+      <c r="AX7" s="119"/>
     </row>
     <row r="8" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="110">
+      <c r="A8" s="111">
         <v>4</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="112"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="108"/>
       <c r="E8" s="108"/>
       <c r="F8" s="108"/>
@@ -9142,7 +9142,7 @@
       <c r="H8" s="108"/>
       <c r="I8" s="108"/>
       <c r="J8" s="108"/>
-      <c r="K8" s="111"/>
+      <c r="K8" s="120"/>
       <c r="L8" s="108"/>
       <c r="M8" s="108"/>
       <c r="N8" s="108"/>
@@ -9152,43 +9152,43 @@
       <c r="R8" s="108"/>
       <c r="S8" s="108"/>
       <c r="T8" s="108"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="109"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="109"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="109"/>
-      <c r="AF8" s="109"/>
-      <c r="AG8" s="109"/>
-      <c r="AH8" s="109"/>
-      <c r="AI8" s="109"/>
-      <c r="AJ8" s="109"/>
-      <c r="AK8" s="109"/>
-      <c r="AL8" s="109"/>
-      <c r="AM8" s="109"/>
-      <c r="AN8" s="109"/>
-      <c r="AO8" s="109"/>
-      <c r="AP8" s="109"/>
-      <c r="AQ8" s="109"/>
-      <c r="AR8" s="109"/>
-      <c r="AS8" s="109"/>
-      <c r="AT8" s="109"/>
-      <c r="AU8" s="109"/>
-      <c r="AV8" s="109"/>
-      <c r="AW8" s="109"/>
-      <c r="AX8" s="109"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="119"/>
+      <c r="AF8" s="119"/>
+      <c r="AG8" s="119"/>
+      <c r="AH8" s="119"/>
+      <c r="AI8" s="119"/>
+      <c r="AJ8" s="119"/>
+      <c r="AK8" s="119"/>
+      <c r="AL8" s="119"/>
+      <c r="AM8" s="119"/>
+      <c r="AN8" s="119"/>
+      <c r="AO8" s="119"/>
+      <c r="AP8" s="119"/>
+      <c r="AQ8" s="119"/>
+      <c r="AR8" s="119"/>
+      <c r="AS8" s="119"/>
+      <c r="AT8" s="119"/>
+      <c r="AU8" s="119"/>
+      <c r="AV8" s="119"/>
+      <c r="AW8" s="119"/>
+      <c r="AX8" s="119"/>
     </row>
     <row r="9" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="110">
+      <c r="A9" s="111">
         <v>5</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="112"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="108"/>
       <c r="E9" s="108"/>
       <c r="F9" s="108"/>
@@ -9196,7 +9196,7 @@
       <c r="H9" s="108"/>
       <c r="I9" s="108"/>
       <c r="J9" s="108"/>
-      <c r="K9" s="111"/>
+      <c r="K9" s="120"/>
       <c r="L9" s="108"/>
       <c r="M9" s="108"/>
       <c r="N9" s="108"/>
@@ -9206,42 +9206,42 @@
       <c r="R9" s="108"/>
       <c r="S9" s="108"/>
       <c r="T9" s="108"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="109"/>
-      <c r="AB9" s="109"/>
-      <c r="AC9" s="109"/>
-      <c r="AD9" s="109"/>
-      <c r="AE9" s="109"/>
-      <c r="AF9" s="109"/>
-      <c r="AG9" s="109"/>
-      <c r="AH9" s="109"/>
-      <c r="AI9" s="109"/>
-      <c r="AJ9" s="109"/>
-      <c r="AK9" s="109"/>
-      <c r="AL9" s="109"/>
-      <c r="AM9" s="109"/>
-      <c r="AN9" s="109"/>
-      <c r="AO9" s="109"/>
-      <c r="AP9" s="109"/>
-      <c r="AQ9" s="109"/>
-      <c r="AR9" s="109"/>
-      <c r="AS9" s="109"/>
-      <c r="AT9" s="109"/>
-      <c r="AU9" s="109"/>
-      <c r="AV9" s="109"/>
-      <c r="AW9" s="109"/>
-      <c r="AX9" s="109"/>
+      <c r="U9" s="119"/>
+      <c r="V9" s="119"/>
+      <c r="W9" s="119"/>
+      <c r="X9" s="119"/>
+      <c r="Y9" s="119"/>
+      <c r="Z9" s="119"/>
+      <c r="AA9" s="119"/>
+      <c r="AB9" s="119"/>
+      <c r="AC9" s="119"/>
+      <c r="AD9" s="119"/>
+      <c r="AE9" s="119"/>
+      <c r="AF9" s="119"/>
+      <c r="AG9" s="119"/>
+      <c r="AH9" s="119"/>
+      <c r="AI9" s="119"/>
+      <c r="AJ9" s="119"/>
+      <c r="AK9" s="119"/>
+      <c r="AL9" s="119"/>
+      <c r="AM9" s="119"/>
+      <c r="AN9" s="119"/>
+      <c r="AO9" s="119"/>
+      <c r="AP9" s="119"/>
+      <c r="AQ9" s="119"/>
+      <c r="AR9" s="119"/>
+      <c r="AS9" s="119"/>
+      <c r="AT9" s="119"/>
+      <c r="AU9" s="119"/>
+      <c r="AV9" s="119"/>
+      <c r="AW9" s="119"/>
+      <c r="AX9" s="119"/>
     </row>
     <row r="10" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="110">
+      <c r="A10" s="111">
         <v>6</v>
       </c>
-      <c r="B10" s="110"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="108"/>
       <c r="D10" s="108"/>
       <c r="E10" s="108"/>
@@ -9260,42 +9260,42 @@
       <c r="R10" s="108"/>
       <c r="S10" s="108"/>
       <c r="T10" s="108"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="109"/>
-      <c r="X10" s="109"/>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="109"/>
-      <c r="AA10" s="109"/>
-      <c r="AB10" s="109"/>
-      <c r="AC10" s="109"/>
-      <c r="AD10" s="109"/>
-      <c r="AE10" s="109"/>
-      <c r="AF10" s="109"/>
-      <c r="AG10" s="109"/>
-      <c r="AH10" s="109"/>
-      <c r="AI10" s="109"/>
-      <c r="AJ10" s="109"/>
-      <c r="AK10" s="109"/>
-      <c r="AL10" s="109"/>
-      <c r="AM10" s="109"/>
-      <c r="AN10" s="109"/>
-      <c r="AO10" s="109"/>
-      <c r="AP10" s="109"/>
-      <c r="AQ10" s="109"/>
-      <c r="AR10" s="109"/>
-      <c r="AS10" s="109"/>
-      <c r="AT10" s="109"/>
-      <c r="AU10" s="109"/>
-      <c r="AV10" s="109"/>
-      <c r="AW10" s="109"/>
-      <c r="AX10" s="109"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="119"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="119"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="119"/>
+      <c r="AG10" s="119"/>
+      <c r="AH10" s="119"/>
+      <c r="AI10" s="119"/>
+      <c r="AJ10" s="119"/>
+      <c r="AK10" s="119"/>
+      <c r="AL10" s="119"/>
+      <c r="AM10" s="119"/>
+      <c r="AN10" s="119"/>
+      <c r="AO10" s="119"/>
+      <c r="AP10" s="119"/>
+      <c r="AQ10" s="119"/>
+      <c r="AR10" s="119"/>
+      <c r="AS10" s="119"/>
+      <c r="AT10" s="119"/>
+      <c r="AU10" s="119"/>
+      <c r="AV10" s="119"/>
+      <c r="AW10" s="119"/>
+      <c r="AX10" s="119"/>
     </row>
     <row r="11" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="110">
+      <c r="A11" s="111">
         <v>7</v>
       </c>
-      <c r="B11" s="110"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="108"/>
       <c r="D11" s="108"/>
       <c r="E11" s="108"/>
@@ -9314,42 +9314,42 @@
       <c r="R11" s="108"/>
       <c r="S11" s="108"/>
       <c r="T11" s="108"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="109"/>
-      <c r="X11" s="109"/>
-      <c r="Y11" s="109"/>
-      <c r="Z11" s="109"/>
-      <c r="AA11" s="109"/>
-      <c r="AB11" s="109"/>
-      <c r="AC11" s="109"/>
-      <c r="AD11" s="109"/>
-      <c r="AE11" s="109"/>
-      <c r="AF11" s="109"/>
-      <c r="AG11" s="109"/>
-      <c r="AH11" s="109"/>
-      <c r="AI11" s="109"/>
-      <c r="AJ11" s="109"/>
-      <c r="AK11" s="109"/>
-      <c r="AL11" s="109"/>
-      <c r="AM11" s="109"/>
-      <c r="AN11" s="109"/>
-      <c r="AO11" s="109"/>
-      <c r="AP11" s="109"/>
-      <c r="AQ11" s="109"/>
-      <c r="AR11" s="109"/>
-      <c r="AS11" s="109"/>
-      <c r="AT11" s="109"/>
-      <c r="AU11" s="109"/>
-      <c r="AV11" s="109"/>
-      <c r="AW11" s="109"/>
-      <c r="AX11" s="109"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="119"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="119"/>
+      <c r="Y11" s="119"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="119"/>
+      <c r="AB11" s="119"/>
+      <c r="AC11" s="119"/>
+      <c r="AD11" s="119"/>
+      <c r="AE11" s="119"/>
+      <c r="AF11" s="119"/>
+      <c r="AG11" s="119"/>
+      <c r="AH11" s="119"/>
+      <c r="AI11" s="119"/>
+      <c r="AJ11" s="119"/>
+      <c r="AK11" s="119"/>
+      <c r="AL11" s="119"/>
+      <c r="AM11" s="119"/>
+      <c r="AN11" s="119"/>
+      <c r="AO11" s="119"/>
+      <c r="AP11" s="119"/>
+      <c r="AQ11" s="119"/>
+      <c r="AR11" s="119"/>
+      <c r="AS11" s="119"/>
+      <c r="AT11" s="119"/>
+      <c r="AU11" s="119"/>
+      <c r="AV11" s="119"/>
+      <c r="AW11" s="119"/>
+      <c r="AX11" s="119"/>
     </row>
     <row r="12" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="110">
+      <c r="A12" s="111">
         <v>8</v>
       </c>
-      <c r="B12" s="110"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="108"/>
       <c r="D12" s="108"/>
       <c r="E12" s="108"/>
@@ -9368,42 +9368,42 @@
       <c r="R12" s="108"/>
       <c r="S12" s="108"/>
       <c r="T12" s="108"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="109"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="109"/>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="109"/>
-      <c r="AC12" s="109"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="109"/>
-      <c r="AF12" s="109"/>
-      <c r="AG12" s="109"/>
-      <c r="AH12" s="109"/>
-      <c r="AI12" s="109"/>
-      <c r="AJ12" s="109"/>
-      <c r="AK12" s="109"/>
-      <c r="AL12" s="109"/>
-      <c r="AM12" s="109"/>
-      <c r="AN12" s="109"/>
-      <c r="AO12" s="109"/>
-      <c r="AP12" s="109"/>
-      <c r="AQ12" s="109"/>
-      <c r="AR12" s="109"/>
-      <c r="AS12" s="109"/>
-      <c r="AT12" s="109"/>
-      <c r="AU12" s="109"/>
-      <c r="AV12" s="109"/>
-      <c r="AW12" s="109"/>
-      <c r="AX12" s="109"/>
+      <c r="U12" s="119"/>
+      <c r="V12" s="119"/>
+      <c r="W12" s="119"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="119"/>
+      <c r="Z12" s="119"/>
+      <c r="AA12" s="119"/>
+      <c r="AB12" s="119"/>
+      <c r="AC12" s="119"/>
+      <c r="AD12" s="119"/>
+      <c r="AE12" s="119"/>
+      <c r="AF12" s="119"/>
+      <c r="AG12" s="119"/>
+      <c r="AH12" s="119"/>
+      <c r="AI12" s="119"/>
+      <c r="AJ12" s="119"/>
+      <c r="AK12" s="119"/>
+      <c r="AL12" s="119"/>
+      <c r="AM12" s="119"/>
+      <c r="AN12" s="119"/>
+      <c r="AO12" s="119"/>
+      <c r="AP12" s="119"/>
+      <c r="AQ12" s="119"/>
+      <c r="AR12" s="119"/>
+      <c r="AS12" s="119"/>
+      <c r="AT12" s="119"/>
+      <c r="AU12" s="119"/>
+      <c r="AV12" s="119"/>
+      <c r="AW12" s="119"/>
+      <c r="AX12" s="119"/>
     </row>
     <row r="13" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="110">
+      <c r="A13" s="111">
         <v>9</v>
       </c>
-      <c r="B13" s="110"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="108"/>
       <c r="D13" s="108"/>
       <c r="E13" s="108"/>
@@ -9422,42 +9422,42 @@
       <c r="R13" s="108"/>
       <c r="S13" s="108"/>
       <c r="T13" s="108"/>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="109"/>
-      <c r="X13" s="109"/>
-      <c r="Y13" s="109"/>
-      <c r="Z13" s="109"/>
-      <c r="AA13" s="109"/>
-      <c r="AB13" s="109"/>
-      <c r="AC13" s="109"/>
-      <c r="AD13" s="109"/>
-      <c r="AE13" s="109"/>
-      <c r="AF13" s="109"/>
-      <c r="AG13" s="109"/>
-      <c r="AH13" s="109"/>
-      <c r="AI13" s="109"/>
-      <c r="AJ13" s="109"/>
-      <c r="AK13" s="109"/>
-      <c r="AL13" s="109"/>
-      <c r="AM13" s="109"/>
-      <c r="AN13" s="109"/>
-      <c r="AO13" s="109"/>
-      <c r="AP13" s="109"/>
-      <c r="AQ13" s="109"/>
-      <c r="AR13" s="109"/>
-      <c r="AS13" s="109"/>
-      <c r="AT13" s="109"/>
-      <c r="AU13" s="109"/>
-      <c r="AV13" s="109"/>
-      <c r="AW13" s="109"/>
-      <c r="AX13" s="109"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="119"/>
+      <c r="AC13" s="119"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="119"/>
+      <c r="AF13" s="119"/>
+      <c r="AG13" s="119"/>
+      <c r="AH13" s="119"/>
+      <c r="AI13" s="119"/>
+      <c r="AJ13" s="119"/>
+      <c r="AK13" s="119"/>
+      <c r="AL13" s="119"/>
+      <c r="AM13" s="119"/>
+      <c r="AN13" s="119"/>
+      <c r="AO13" s="119"/>
+      <c r="AP13" s="119"/>
+      <c r="AQ13" s="119"/>
+      <c r="AR13" s="119"/>
+      <c r="AS13" s="119"/>
+      <c r="AT13" s="119"/>
+      <c r="AU13" s="119"/>
+      <c r="AV13" s="119"/>
+      <c r="AW13" s="119"/>
+      <c r="AX13" s="119"/>
     </row>
     <row r="14" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="110">
+      <c r="A14" s="111">
         <v>10</v>
       </c>
-      <c r="B14" s="110"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="108"/>
       <c r="D14" s="108"/>
       <c r="E14" s="108"/>
@@ -9476,42 +9476,42 @@
       <c r="R14" s="108"/>
       <c r="S14" s="108"/>
       <c r="T14" s="108"/>
-      <c r="U14" s="109"/>
-      <c r="V14" s="109"/>
-      <c r="W14" s="109"/>
-      <c r="X14" s="109"/>
-      <c r="Y14" s="109"/>
-      <c r="Z14" s="109"/>
-      <c r="AA14" s="109"/>
-      <c r="AB14" s="109"/>
-      <c r="AC14" s="109"/>
-      <c r="AD14" s="109"/>
-      <c r="AE14" s="109"/>
-      <c r="AF14" s="109"/>
-      <c r="AG14" s="109"/>
-      <c r="AH14" s="109"/>
-      <c r="AI14" s="109"/>
-      <c r="AJ14" s="109"/>
-      <c r="AK14" s="109"/>
-      <c r="AL14" s="109"/>
-      <c r="AM14" s="109"/>
-      <c r="AN14" s="109"/>
-      <c r="AO14" s="109"/>
-      <c r="AP14" s="109"/>
-      <c r="AQ14" s="109"/>
-      <c r="AR14" s="109"/>
-      <c r="AS14" s="109"/>
-      <c r="AT14" s="109"/>
-      <c r="AU14" s="109"/>
-      <c r="AV14" s="109"/>
-      <c r="AW14" s="109"/>
-      <c r="AX14" s="109"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="119"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="119"/>
+      <c r="AF14" s="119"/>
+      <c r="AG14" s="119"/>
+      <c r="AH14" s="119"/>
+      <c r="AI14" s="119"/>
+      <c r="AJ14" s="119"/>
+      <c r="AK14" s="119"/>
+      <c r="AL14" s="119"/>
+      <c r="AM14" s="119"/>
+      <c r="AN14" s="119"/>
+      <c r="AO14" s="119"/>
+      <c r="AP14" s="119"/>
+      <c r="AQ14" s="119"/>
+      <c r="AR14" s="119"/>
+      <c r="AS14" s="119"/>
+      <c r="AT14" s="119"/>
+      <c r="AU14" s="119"/>
+      <c r="AV14" s="119"/>
+      <c r="AW14" s="119"/>
+      <c r="AX14" s="119"/>
     </row>
     <row r="15" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="110">
+      <c r="A15" s="111">
         <v>11</v>
       </c>
-      <c r="B15" s="110"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="108"/>
       <c r="D15" s="108"/>
       <c r="E15" s="108"/>
@@ -9530,42 +9530,42 @@
       <c r="R15" s="108"/>
       <c r="S15" s="108"/>
       <c r="T15" s="108"/>
-      <c r="U15" s="109"/>
-      <c r="V15" s="109"/>
-      <c r="W15" s="109"/>
-      <c r="X15" s="109"/>
-      <c r="Y15" s="109"/>
-      <c r="Z15" s="109"/>
-      <c r="AA15" s="109"/>
-      <c r="AB15" s="109"/>
-      <c r="AC15" s="109"/>
-      <c r="AD15" s="109"/>
-      <c r="AE15" s="109"/>
-      <c r="AF15" s="109"/>
-      <c r="AG15" s="109"/>
-      <c r="AH15" s="109"/>
-      <c r="AI15" s="109"/>
-      <c r="AJ15" s="109"/>
-      <c r="AK15" s="109"/>
-      <c r="AL15" s="109"/>
-      <c r="AM15" s="109"/>
-      <c r="AN15" s="109"/>
-      <c r="AO15" s="109"/>
-      <c r="AP15" s="109"/>
-      <c r="AQ15" s="109"/>
-      <c r="AR15" s="109"/>
-      <c r="AS15" s="109"/>
-      <c r="AT15" s="109"/>
-      <c r="AU15" s="109"/>
-      <c r="AV15" s="109"/>
-      <c r="AW15" s="109"/>
-      <c r="AX15" s="109"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="119"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="119"/>
+      <c r="Z15" s="119"/>
+      <c r="AA15" s="119"/>
+      <c r="AB15" s="119"/>
+      <c r="AC15" s="119"/>
+      <c r="AD15" s="119"/>
+      <c r="AE15" s="119"/>
+      <c r="AF15" s="119"/>
+      <c r="AG15" s="119"/>
+      <c r="AH15" s="119"/>
+      <c r="AI15" s="119"/>
+      <c r="AJ15" s="119"/>
+      <c r="AK15" s="119"/>
+      <c r="AL15" s="119"/>
+      <c r="AM15" s="119"/>
+      <c r="AN15" s="119"/>
+      <c r="AO15" s="119"/>
+      <c r="AP15" s="119"/>
+      <c r="AQ15" s="119"/>
+      <c r="AR15" s="119"/>
+      <c r="AS15" s="119"/>
+      <c r="AT15" s="119"/>
+      <c r="AU15" s="119"/>
+      <c r="AV15" s="119"/>
+      <c r="AW15" s="119"/>
+      <c r="AX15" s="119"/>
     </row>
     <row r="16" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="110">
+      <c r="A16" s="111">
         <v>12</v>
       </c>
-      <c r="B16" s="110"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="108"/>
       <c r="D16" s="108"/>
       <c r="E16" s="108"/>
@@ -9584,42 +9584,42 @@
       <c r="R16" s="108"/>
       <c r="S16" s="108"/>
       <c r="T16" s="108"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="109"/>
-      <c r="X16" s="109"/>
-      <c r="Y16" s="109"/>
-      <c r="Z16" s="109"/>
-      <c r="AA16" s="109"/>
-      <c r="AB16" s="109"/>
-      <c r="AC16" s="109"/>
-      <c r="AD16" s="109"/>
-      <c r="AE16" s="109"/>
-      <c r="AF16" s="109"/>
-      <c r="AG16" s="109"/>
-      <c r="AH16" s="109"/>
-      <c r="AI16" s="109"/>
-      <c r="AJ16" s="109"/>
-      <c r="AK16" s="109"/>
-      <c r="AL16" s="109"/>
-      <c r="AM16" s="109"/>
-      <c r="AN16" s="109"/>
-      <c r="AO16" s="109"/>
-      <c r="AP16" s="109"/>
-      <c r="AQ16" s="109"/>
-      <c r="AR16" s="109"/>
-      <c r="AS16" s="109"/>
-      <c r="AT16" s="109"/>
-      <c r="AU16" s="109"/>
-      <c r="AV16" s="109"/>
-      <c r="AW16" s="109"/>
-      <c r="AX16" s="109"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="119"/>
+      <c r="Z16" s="119"/>
+      <c r="AA16" s="119"/>
+      <c r="AB16" s="119"/>
+      <c r="AC16" s="119"/>
+      <c r="AD16" s="119"/>
+      <c r="AE16" s="119"/>
+      <c r="AF16" s="119"/>
+      <c r="AG16" s="119"/>
+      <c r="AH16" s="119"/>
+      <c r="AI16" s="119"/>
+      <c r="AJ16" s="119"/>
+      <c r="AK16" s="119"/>
+      <c r="AL16" s="119"/>
+      <c r="AM16" s="119"/>
+      <c r="AN16" s="119"/>
+      <c r="AO16" s="119"/>
+      <c r="AP16" s="119"/>
+      <c r="AQ16" s="119"/>
+      <c r="AR16" s="119"/>
+      <c r="AS16" s="119"/>
+      <c r="AT16" s="119"/>
+      <c r="AU16" s="119"/>
+      <c r="AV16" s="119"/>
+      <c r="AW16" s="119"/>
+      <c r="AX16" s="119"/>
     </row>
     <row r="17" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="110">
+      <c r="A17" s="111">
         <v>13</v>
       </c>
-      <c r="B17" s="110"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="108"/>
       <c r="D17" s="108"/>
       <c r="E17" s="108"/>
@@ -9638,42 +9638,42 @@
       <c r="R17" s="108"/>
       <c r="S17" s="108"/>
       <c r="T17" s="108"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="109"/>
-      <c r="W17" s="109"/>
-      <c r="X17" s="109"/>
-      <c r="Y17" s="109"/>
-      <c r="Z17" s="109"/>
-      <c r="AA17" s="109"/>
-      <c r="AB17" s="109"/>
-      <c r="AC17" s="109"/>
-      <c r="AD17" s="109"/>
-      <c r="AE17" s="109"/>
-      <c r="AF17" s="109"/>
-      <c r="AG17" s="109"/>
-      <c r="AH17" s="109"/>
-      <c r="AI17" s="109"/>
-      <c r="AJ17" s="109"/>
-      <c r="AK17" s="109"/>
-      <c r="AL17" s="109"/>
-      <c r="AM17" s="109"/>
-      <c r="AN17" s="109"/>
-      <c r="AO17" s="109"/>
-      <c r="AP17" s="109"/>
-      <c r="AQ17" s="109"/>
-      <c r="AR17" s="109"/>
-      <c r="AS17" s="109"/>
-      <c r="AT17" s="109"/>
-      <c r="AU17" s="109"/>
-      <c r="AV17" s="109"/>
-      <c r="AW17" s="109"/>
-      <c r="AX17" s="109"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="119"/>
+      <c r="W17" s="119"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="119"/>
+      <c r="Z17" s="119"/>
+      <c r="AA17" s="119"/>
+      <c r="AB17" s="119"/>
+      <c r="AC17" s="119"/>
+      <c r="AD17" s="119"/>
+      <c r="AE17" s="119"/>
+      <c r="AF17" s="119"/>
+      <c r="AG17" s="119"/>
+      <c r="AH17" s="119"/>
+      <c r="AI17" s="119"/>
+      <c r="AJ17" s="119"/>
+      <c r="AK17" s="119"/>
+      <c r="AL17" s="119"/>
+      <c r="AM17" s="119"/>
+      <c r="AN17" s="119"/>
+      <c r="AO17" s="119"/>
+      <c r="AP17" s="119"/>
+      <c r="AQ17" s="119"/>
+      <c r="AR17" s="119"/>
+      <c r="AS17" s="119"/>
+      <c r="AT17" s="119"/>
+      <c r="AU17" s="119"/>
+      <c r="AV17" s="119"/>
+      <c r="AW17" s="119"/>
+      <c r="AX17" s="119"/>
     </row>
     <row r="18" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="110">
+      <c r="A18" s="111">
         <v>14</v>
       </c>
-      <c r="B18" s="110"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="108"/>
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
@@ -9692,42 +9692,42 @@
       <c r="R18" s="108"/>
       <c r="S18" s="108"/>
       <c r="T18" s="108"/>
-      <c r="U18" s="109"/>
-      <c r="V18" s="109"/>
-      <c r="W18" s="109"/>
-      <c r="X18" s="109"/>
-      <c r="Y18" s="109"/>
-      <c r="Z18" s="109"/>
-      <c r="AA18" s="109"/>
-      <c r="AB18" s="109"/>
-      <c r="AC18" s="109"/>
-      <c r="AD18" s="109"/>
-      <c r="AE18" s="109"/>
-      <c r="AF18" s="109"/>
-      <c r="AG18" s="109"/>
-      <c r="AH18" s="109"/>
-      <c r="AI18" s="109"/>
-      <c r="AJ18" s="109"/>
-      <c r="AK18" s="109"/>
-      <c r="AL18" s="109"/>
-      <c r="AM18" s="109"/>
-      <c r="AN18" s="109"/>
-      <c r="AO18" s="109"/>
-      <c r="AP18" s="109"/>
-      <c r="AQ18" s="109"/>
-      <c r="AR18" s="109"/>
-      <c r="AS18" s="109"/>
-      <c r="AT18" s="109"/>
-      <c r="AU18" s="109"/>
-      <c r="AV18" s="109"/>
-      <c r="AW18" s="109"/>
-      <c r="AX18" s="109"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="119"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="119"/>
+      <c r="Z18" s="119"/>
+      <c r="AA18" s="119"/>
+      <c r="AB18" s="119"/>
+      <c r="AC18" s="119"/>
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="119"/>
+      <c r="AF18" s="119"/>
+      <c r="AG18" s="119"/>
+      <c r="AH18" s="119"/>
+      <c r="AI18" s="119"/>
+      <c r="AJ18" s="119"/>
+      <c r="AK18" s="119"/>
+      <c r="AL18" s="119"/>
+      <c r="AM18" s="119"/>
+      <c r="AN18" s="119"/>
+      <c r="AO18" s="119"/>
+      <c r="AP18" s="119"/>
+      <c r="AQ18" s="119"/>
+      <c r="AR18" s="119"/>
+      <c r="AS18" s="119"/>
+      <c r="AT18" s="119"/>
+      <c r="AU18" s="119"/>
+      <c r="AV18" s="119"/>
+      <c r="AW18" s="119"/>
+      <c r="AX18" s="119"/>
     </row>
     <row r="19" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="110">
+      <c r="A19" s="111">
         <v>15</v>
       </c>
-      <c r="B19" s="110"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="108"/>
       <c r="D19" s="108"/>
       <c r="E19" s="108"/>
@@ -9746,42 +9746,42 @@
       <c r="R19" s="108"/>
       <c r="S19" s="108"/>
       <c r="T19" s="108"/>
-      <c r="U19" s="109"/>
-      <c r="V19" s="109"/>
-      <c r="W19" s="109"/>
-      <c r="X19" s="109"/>
-      <c r="Y19" s="109"/>
-      <c r="Z19" s="109"/>
-      <c r="AA19" s="109"/>
-      <c r="AB19" s="109"/>
-      <c r="AC19" s="109"/>
-      <c r="AD19" s="109"/>
-      <c r="AE19" s="109"/>
-      <c r="AF19" s="109"/>
-      <c r="AG19" s="109"/>
-      <c r="AH19" s="109"/>
-      <c r="AI19" s="109"/>
-      <c r="AJ19" s="109"/>
-      <c r="AK19" s="109"/>
-      <c r="AL19" s="109"/>
-      <c r="AM19" s="109"/>
-      <c r="AN19" s="109"/>
-      <c r="AO19" s="109"/>
-      <c r="AP19" s="109"/>
-      <c r="AQ19" s="109"/>
-      <c r="AR19" s="109"/>
-      <c r="AS19" s="109"/>
-      <c r="AT19" s="109"/>
-      <c r="AU19" s="109"/>
-      <c r="AV19" s="109"/>
-      <c r="AW19" s="109"/>
-      <c r="AX19" s="109"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="119"/>
+      <c r="Z19" s="119"/>
+      <c r="AA19" s="119"/>
+      <c r="AB19" s="119"/>
+      <c r="AC19" s="119"/>
+      <c r="AD19" s="119"/>
+      <c r="AE19" s="119"/>
+      <c r="AF19" s="119"/>
+      <c r="AG19" s="119"/>
+      <c r="AH19" s="119"/>
+      <c r="AI19" s="119"/>
+      <c r="AJ19" s="119"/>
+      <c r="AK19" s="119"/>
+      <c r="AL19" s="119"/>
+      <c r="AM19" s="119"/>
+      <c r="AN19" s="119"/>
+      <c r="AO19" s="119"/>
+      <c r="AP19" s="119"/>
+      <c r="AQ19" s="119"/>
+      <c r="AR19" s="119"/>
+      <c r="AS19" s="119"/>
+      <c r="AT19" s="119"/>
+      <c r="AU19" s="119"/>
+      <c r="AV19" s="119"/>
+      <c r="AW19" s="119"/>
+      <c r="AX19" s="119"/>
     </row>
     <row r="20" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="110">
+      <c r="A20" s="111">
         <v>16</v>
       </c>
-      <c r="B20" s="110"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="108"/>
       <c r="D20" s="108"/>
       <c r="E20" s="108"/>
@@ -9800,99 +9800,99 @@
       <c r="R20" s="108"/>
       <c r="S20" s="108"/>
       <c r="T20" s="108"/>
-      <c r="U20" s="109"/>
-      <c r="V20" s="109"/>
-      <c r="W20" s="109"/>
-      <c r="X20" s="109"/>
-      <c r="Y20" s="109"/>
-      <c r="Z20" s="109"/>
-      <c r="AA20" s="109"/>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="109"/>
-      <c r="AD20" s="109"/>
-      <c r="AE20" s="109"/>
-      <c r="AF20" s="109"/>
-      <c r="AG20" s="109"/>
-      <c r="AH20" s="109"/>
-      <c r="AI20" s="109"/>
-      <c r="AJ20" s="109"/>
-      <c r="AK20" s="109"/>
-      <c r="AL20" s="109"/>
-      <c r="AM20" s="109"/>
-      <c r="AN20" s="109"/>
-      <c r="AO20" s="109"/>
-      <c r="AP20" s="109"/>
-      <c r="AQ20" s="109"/>
-      <c r="AR20" s="109"/>
-      <c r="AS20" s="109"/>
-      <c r="AT20" s="109"/>
-      <c r="AU20" s="109"/>
-      <c r="AV20" s="109"/>
-      <c r="AW20" s="109"/>
-      <c r="AX20" s="109"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="119"/>
+      <c r="W20" s="119"/>
+      <c r="X20" s="119"/>
+      <c r="Y20" s="119"/>
+      <c r="Z20" s="119"/>
+      <c r="AA20" s="119"/>
+      <c r="AB20" s="119"/>
+      <c r="AC20" s="119"/>
+      <c r="AD20" s="119"/>
+      <c r="AE20" s="119"/>
+      <c r="AF20" s="119"/>
+      <c r="AG20" s="119"/>
+      <c r="AH20" s="119"/>
+      <c r="AI20" s="119"/>
+      <c r="AJ20" s="119"/>
+      <c r="AK20" s="119"/>
+      <c r="AL20" s="119"/>
+      <c r="AM20" s="119"/>
+      <c r="AN20" s="119"/>
+      <c r="AO20" s="119"/>
+      <c r="AP20" s="119"/>
+      <c r="AQ20" s="119"/>
+      <c r="AR20" s="119"/>
+      <c r="AS20" s="119"/>
+      <c r="AT20" s="119"/>
+      <c r="AU20" s="119"/>
+      <c r="AV20" s="119"/>
+      <c r="AW20" s="119"/>
+      <c r="AX20" s="119"/>
     </row>
     <row r="21" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="118">
+      <c r="A21" s="116">
         <v>17</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="106"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="107"/>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="107"/>
-      <c r="AD21" s="107"/>
-      <c r="AE21" s="107"/>
-      <c r="AF21" s="107"/>
-      <c r="AG21" s="107"/>
-      <c r="AH21" s="107"/>
-      <c r="AI21" s="107"/>
-      <c r="AJ21" s="107"/>
-      <c r="AK21" s="107"/>
-      <c r="AL21" s="107"/>
-      <c r="AM21" s="107"/>
-      <c r="AN21" s="107"/>
-      <c r="AO21" s="107"/>
-      <c r="AP21" s="107"/>
-      <c r="AQ21" s="107"/>
-      <c r="AR21" s="107"/>
-      <c r="AS21" s="107"/>
-      <c r="AT21" s="107"/>
-      <c r="AU21" s="107"/>
-      <c r="AV21" s="107"/>
-      <c r="AW21" s="107"/>
-      <c r="AX21" s="107"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="121"/>
+      <c r="R21" s="121"/>
+      <c r="S21" s="121"/>
+      <c r="T21" s="121"/>
+      <c r="U21" s="122"/>
+      <c r="V21" s="122"/>
+      <c r="W21" s="122"/>
+      <c r="X21" s="122"/>
+      <c r="Y21" s="122"/>
+      <c r="Z21" s="122"/>
+      <c r="AA21" s="122"/>
+      <c r="AB21" s="122"/>
+      <c r="AC21" s="122"/>
+      <c r="AD21" s="122"/>
+      <c r="AE21" s="122"/>
+      <c r="AF21" s="122"/>
+      <c r="AG21" s="122"/>
+      <c r="AH21" s="122"/>
+      <c r="AI21" s="122"/>
+      <c r="AJ21" s="122"/>
+      <c r="AK21" s="122"/>
+      <c r="AL21" s="122"/>
+      <c r="AM21" s="122"/>
+      <c r="AN21" s="122"/>
+      <c r="AO21" s="122"/>
+      <c r="AP21" s="122"/>
+      <c r="AQ21" s="122"/>
+      <c r="AR21" s="122"/>
+      <c r="AS21" s="122"/>
+      <c r="AT21" s="122"/>
+      <c r="AU21" s="122"/>
+      <c r="AV21" s="122"/>
+      <c r="AW21" s="122"/>
+      <c r="AX21" s="122"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="121"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -9905,13 +9905,13 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K24" s="121"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="121"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -9924,13 +9924,13 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="121"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -9943,13 +9943,13 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="121"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -9962,13 +9962,13 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="121"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -9981,13 +9981,13 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="121"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="106"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -10000,13 +10000,13 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="121"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -10019,13 +10019,13 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="121"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="106"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -10038,13 +10038,13 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -10057,13 +10057,13 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K32" s="121"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="121"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="121"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="106"/>
+      <c r="N32" s="106"/>
+      <c r="O32" s="106"/>
+      <c r="P32" s="106"/>
+      <c r="Q32" s="106"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -10076,13 +10076,13 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K33" s="121"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="121"/>
-      <c r="O33" s="121"/>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="121"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="106"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -10095,13 +10095,13 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K34" s="121"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="121"/>
-      <c r="N34" s="121"/>
-      <c r="O34" s="121"/>
-      <c r="P34" s="121"/>
-      <c r="Q34" s="121"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="106"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -10114,13 +10114,13 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K35" s="121"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="121"/>
-      <c r="N35" s="121"/>
-      <c r="O35" s="121"/>
-      <c r="P35" s="121"/>
-      <c r="Q35" s="121"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="106"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -10133,13 +10133,13 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K36" s="121"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="121"/>
-      <c r="N36" s="121"/>
-      <c r="O36" s="121"/>
-      <c r="P36" s="121"/>
-      <c r="Q36" s="121"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="106"/>
+      <c r="P36" s="106"/>
+      <c r="Q36" s="106"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -10152,13 +10152,13 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K37" s="121"/>
-      <c r="L37" s="121"/>
-      <c r="M37" s="121"/>
-      <c r="N37" s="121"/>
-      <c r="O37" s="121"/>
-      <c r="P37" s="121"/>
-      <c r="Q37" s="121"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="106"/>
+      <c r="M37" s="106"/>
+      <c r="N37" s="106"/>
+      <c r="O37" s="106"/>
+      <c r="P37" s="106"/>
+      <c r="Q37" s="106"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -10171,13 +10171,13 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K38" s="121"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="121"/>
-      <c r="N38" s="121"/>
-      <c r="O38" s="121"/>
-      <c r="P38" s="121"/>
-      <c r="Q38" s="121"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="106"/>
+      <c r="M38" s="106"/>
+      <c r="N38" s="106"/>
+      <c r="O38" s="106"/>
+      <c r="P38" s="106"/>
+      <c r="Q38" s="106"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -10190,13 +10190,13 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K39" s="121"/>
-      <c r="L39" s="121"/>
-      <c r="M39" s="121"/>
-      <c r="N39" s="121"/>
-      <c r="O39" s="121"/>
-      <c r="P39" s="121"/>
-      <c r="Q39" s="121"/>
+      <c r="K39" s="106"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="106"/>
+      <c r="O39" s="106"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="106"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -10209,13 +10209,13 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K40" s="121"/>
-      <c r="L40" s="121"/>
-      <c r="M40" s="121"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="121"/>
-      <c r="P40" s="121"/>
-      <c r="Q40" s="121"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="106"/>
+      <c r="M40" s="106"/>
+      <c r="N40" s="106"/>
+      <c r="O40" s="106"/>
+      <c r="P40" s="106"/>
+      <c r="Q40" s="106"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -10229,46 +10229,95 @@
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U21:AX21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U19:AX19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AX20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AX17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AX18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AX15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AX16"/>
+    <mergeCell ref="U13:AX13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AX14"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AX11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AX12"/>
+    <mergeCell ref="U5:AX5"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AX6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AX8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AX10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AX7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AX9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="AR1:AX1"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="AR2:AX2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="S1:AJ1"/>
+    <mergeCell ref="S2:AJ2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="U4:AX4"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="O40:Q40"/>
@@ -10293,95 +10342,46 @@
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="AR1:AX1"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="AR2:AX2"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="S1:AJ1"/>
-    <mergeCell ref="S2:AJ2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="U4:AX4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="U5:AX5"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AX6"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AX8"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AX10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U7:AX7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AX9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AX13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AX14"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AX11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AX12"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AX17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AX18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AX15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AX16"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U21:AX21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U19:AX19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AX20"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:T5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10413,133 +10413,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="127" t="s">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="128" t="str">
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="138" t="str">
         <f>'0.表紙'!O25</f>
         <v>顧客情報更新画面</v>
       </c>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="128"/>
-      <c r="AD1" s="128"/>
-      <c r="AE1" s="129" t="s">
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="129"/>
-      <c r="AG1" s="129"/>
-      <c r="AH1" s="130"/>
-      <c r="AI1" s="131" t="s">
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="128"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="132"/>
-      <c r="AK1" s="132"/>
-      <c r="AL1" s="132"/>
-      <c r="AM1" s="132"/>
-      <c r="AN1" s="133"/>
-      <c r="AO1" s="136" t="s">
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="124"/>
+      <c r="AM1" s="124"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" s="137"/>
-      <c r="AQ1" s="137"/>
-      <c r="AR1" s="138"/>
-      <c r="AS1" s="131" t="s">
+      <c r="AP1" s="132"/>
+      <c r="AQ1" s="132"/>
+      <c r="AR1" s="133"/>
+      <c r="AS1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="AT1" s="132"/>
-      <c r="AU1" s="132"/>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="132"/>
-      <c r="AX1" s="133"/>
+      <c r="AT1" s="124"/>
+      <c r="AU1" s="124"/>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="124"/>
+      <c r="AX1" s="125"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="125"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="127" t="s">
+      <c r="A2" s="136"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="129" t="s">
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="129"/>
-      <c r="AH2" s="130"/>
-      <c r="AI2" s="135">
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="129"/>
+      <c r="AI2" s="130">
         <v>44537</v>
       </c>
-      <c r="AJ2" s="132"/>
-      <c r="AK2" s="132"/>
-      <c r="AL2" s="132"/>
-      <c r="AM2" s="132"/>
-      <c r="AN2" s="133"/>
-      <c r="AO2" s="136" t="s">
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="124"/>
+      <c r="AL2" s="124"/>
+      <c r="AM2" s="124"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="137"/>
-      <c r="AQ2" s="137"/>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="135">
+      <c r="AP2" s="132"/>
+      <c r="AQ2" s="132"/>
+      <c r="AR2" s="133"/>
+      <c r="AS2" s="130">
         <v>44539</v>
       </c>
-      <c r="AT2" s="132"/>
-      <c r="AU2" s="132"/>
-      <c r="AV2" s="132"/>
-      <c r="AW2" s="132"/>
-      <c r="AX2" s="133"/>
+      <c r="AT2" s="124"/>
+      <c r="AU2" s="124"/>
+      <c r="AV2" s="124"/>
+      <c r="AW2" s="124"/>
+      <c r="AX2" s="125"/>
     </row>
     <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="81"/>
@@ -11979,6 +11979,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="AS1:AX1"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:AD2"/>
@@ -11987,11 +11992,6 @@
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12005,7 +12005,7 @@
   <dimension ref="A1:CO40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="BB3" sqref="BB3"/>
+      <selection activeCell="C23" sqref="C23:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12014,153 +12014,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:93" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="171" t="s">
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="151" t="str">
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="152" t="str">
         <f>'0.表紙'!O25</f>
         <v>顧客情報更新画面</v>
       </c>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="175" t="s">
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="152"/>
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="152"/>
+      <c r="AG1" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="175"/>
-      <c r="AJ1" s="175"/>
-      <c r="AK1" s="175"/>
-      <c r="AL1" s="175"/>
-      <c r="AM1" s="175"/>
-      <c r="AN1" s="151" t="s">
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="154"/>
+      <c r="AJ1" s="154"/>
+      <c r="AK1" s="154"/>
+      <c r="AL1" s="154"/>
+      <c r="AM1" s="154"/>
+      <c r="AN1" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="AO1" s="151"/>
-      <c r="AP1" s="151"/>
-      <c r="AQ1" s="151"/>
-      <c r="AR1" s="151"/>
-      <c r="AS1" s="151"/>
-      <c r="AT1" s="151"/>
-      <c r="AU1" s="175" t="s">
+      <c r="AO1" s="152"/>
+      <c r="AP1" s="152"/>
+      <c r="AQ1" s="152"/>
+      <c r="AR1" s="152"/>
+      <c r="AS1" s="152"/>
+      <c r="AT1" s="152"/>
+      <c r="AU1" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="AV1" s="175"/>
-      <c r="AW1" s="175"/>
-      <c r="AX1" s="175"/>
-      <c r="AY1" s="175"/>
-      <c r="AZ1" s="175"/>
-      <c r="BA1" s="175"/>
-      <c r="BB1" s="151" t="s">
+      <c r="AV1" s="154"/>
+      <c r="AW1" s="154"/>
+      <c r="AX1" s="154"/>
+      <c r="AY1" s="154"/>
+      <c r="AZ1" s="154"/>
+      <c r="BA1" s="154"/>
+      <c r="BB1" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="BC1" s="151"/>
-      <c r="BD1" s="151"/>
-      <c r="BE1" s="151"/>
-      <c r="BF1" s="151"/>
-      <c r="BG1" s="151"/>
-      <c r="BH1" s="151"/>
+      <c r="BC1" s="152"/>
+      <c r="BD1" s="152"/>
+      <c r="BE1" s="152"/>
+      <c r="BF1" s="152"/>
+      <c r="BG1" s="152"/>
+      <c r="BH1" s="152"/>
     </row>
     <row r="2" spans="1:93" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="178"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="171" t="s">
+      <c r="A2" s="158"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="151"/>
-      <c r="AC2" s="151"/>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="151"/>
-      <c r="AG2" s="176" t="s">
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="176"/>
-      <c r="AI2" s="176"/>
-      <c r="AJ2" s="176"/>
-      <c r="AK2" s="176"/>
-      <c r="AL2" s="176"/>
-      <c r="AM2" s="176"/>
-      <c r="AN2" s="174">
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="155"/>
+      <c r="AK2" s="155"/>
+      <c r="AL2" s="155"/>
+      <c r="AM2" s="155"/>
+      <c r="AN2" s="153">
         <v>44537</v>
       </c>
-      <c r="AO2" s="174"/>
-      <c r="AP2" s="174"/>
-      <c r="AQ2" s="174"/>
-      <c r="AR2" s="174"/>
-      <c r="AS2" s="174"/>
-      <c r="AT2" s="174"/>
-      <c r="AU2" s="176" t="s">
+      <c r="AO2" s="153"/>
+      <c r="AP2" s="153"/>
+      <c r="AQ2" s="153"/>
+      <c r="AR2" s="153"/>
+      <c r="AS2" s="153"/>
+      <c r="AT2" s="153"/>
+      <c r="AU2" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="AV2" s="176"/>
-      <c r="AW2" s="176"/>
-      <c r="AX2" s="176"/>
-      <c r="AY2" s="176"/>
-      <c r="AZ2" s="176"/>
-      <c r="BA2" s="176"/>
-      <c r="BB2" s="174">
+      <c r="AV2" s="155"/>
+      <c r="AW2" s="155"/>
+      <c r="AX2" s="155"/>
+      <c r="AY2" s="155"/>
+      <c r="AZ2" s="155"/>
+      <c r="BA2" s="155"/>
+      <c r="BB2" s="153">
         <v>44538</v>
       </c>
-      <c r="BC2" s="174"/>
-      <c r="BD2" s="174"/>
-      <c r="BE2" s="174"/>
-      <c r="BF2" s="174"/>
-      <c r="BG2" s="174"/>
-      <c r="BH2" s="174"/>
+      <c r="BC2" s="153"/>
+      <c r="BD2" s="153"/>
+      <c r="BE2" s="153"/>
+      <c r="BF2" s="153"/>
+      <c r="BG2" s="153"/>
+      <c r="BH2" s="153"/>
     </row>
     <row r="3" spans="1:93" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
@@ -12225,80 +12225,80 @@
       <c r="BH3" s="10"/>
     </row>
     <row r="4" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177" t="s">
+      <c r="B4" s="156"/>
+      <c r="C4" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
-      <c r="M4" s="177" t="s">
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="161" t="s">
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="161"/>
-      <c r="S4" s="161" t="s">
+      <c r="R4" s="149"/>
+      <c r="S4" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="161"/>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
-      <c r="AC4" s="161" t="s">
+      <c r="T4" s="149"/>
+      <c r="U4" s="149"/>
+      <c r="V4" s="149"/>
+      <c r="W4" s="149"/>
+      <c r="X4" s="149"/>
+      <c r="Y4" s="149"/>
+      <c r="Z4" s="149"/>
+      <c r="AA4" s="149"/>
+      <c r="AB4" s="149"/>
+      <c r="AC4" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="AD4" s="161"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="161"/>
-      <c r="AG4" s="161"/>
-      <c r="AH4" s="161"/>
-      <c r="AI4" s="161"/>
-      <c r="AJ4" s="161"/>
-      <c r="AK4" s="161"/>
-      <c r="AL4" s="161"/>
-      <c r="AM4" s="161"/>
-      <c r="AN4" s="161"/>
-      <c r="AO4" s="161"/>
-      <c r="AP4" s="161"/>
-      <c r="AQ4" s="161"/>
-      <c r="AR4" s="161"/>
-      <c r="AS4" s="173" t="s">
+      <c r="AD4" s="149"/>
+      <c r="AE4" s="149"/>
+      <c r="AF4" s="149"/>
+      <c r="AG4" s="149"/>
+      <c r="AH4" s="149"/>
+      <c r="AI4" s="149"/>
+      <c r="AJ4" s="149"/>
+      <c r="AK4" s="149"/>
+      <c r="AL4" s="149"/>
+      <c r="AM4" s="149"/>
+      <c r="AN4" s="149"/>
+      <c r="AO4" s="149"/>
+      <c r="AP4" s="149"/>
+      <c r="AQ4" s="149"/>
+      <c r="AR4" s="149"/>
+      <c r="AS4" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="AT4" s="173"/>
-      <c r="AU4" s="173"/>
-      <c r="AV4" s="173"/>
-      <c r="AW4" s="173"/>
-      <c r="AX4" s="173"/>
-      <c r="AY4" s="173"/>
-      <c r="AZ4" s="173"/>
-      <c r="BA4" s="173"/>
-      <c r="BB4" s="173"/>
-      <c r="BC4" s="173"/>
-      <c r="BD4" s="173"/>
-      <c r="BE4" s="173"/>
-      <c r="BF4" s="173"/>
-      <c r="BG4" s="173"/>
-      <c r="BH4" s="173"/>
+      <c r="AT4" s="150"/>
+      <c r="AU4" s="150"/>
+      <c r="AV4" s="150"/>
+      <c r="AW4" s="150"/>
+      <c r="AX4" s="150"/>
+      <c r="AY4" s="150"/>
+      <c r="AZ4" s="150"/>
+      <c r="BA4" s="150"/>
+      <c r="BB4" s="150"/>
+      <c r="BC4" s="150"/>
+      <c r="BD4" s="150"/>
+      <c r="BE4" s="150"/>
+      <c r="BF4" s="150"/>
+      <c r="BG4" s="150"/>
+      <c r="BH4" s="150"/>
       <c r="BJ4" s="18"/>
       <c r="BK4" s="18"/>
       <c r="BL4" s="18"/>
@@ -12333,76 +12333,76 @@
       <c r="CO4" s="18"/>
     </row>
     <row r="5" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="177"/>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177"/>
-      <c r="O5" s="177"/>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="161"/>
-      <c r="S5" s="172" t="s">
+      <c r="A5" s="156"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="149"/>
+      <c r="R5" s="149"/>
+      <c r="S5" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="161" t="s">
+      <c r="T5" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="161"/>
-      <c r="V5" s="161"/>
-      <c r="W5" s="161"/>
-      <c r="X5" s="161"/>
-      <c r="Y5" s="161" t="s">
+      <c r="U5" s="149"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
+      <c r="X5" s="149"/>
+      <c r="Y5" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="161"/>
-      <c r="AA5" s="161"/>
-      <c r="AB5" s="161"/>
-      <c r="AC5" s="161" t="s">
+      <c r="Z5" s="149"/>
+      <c r="AA5" s="149"/>
+      <c r="AB5" s="149"/>
+      <c r="AC5" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="161"/>
-      <c r="AE5" s="161"/>
-      <c r="AF5" s="161"/>
-      <c r="AG5" s="161"/>
-      <c r="AH5" s="161"/>
-      <c r="AI5" s="161"/>
-      <c r="AJ5" s="161"/>
-      <c r="AK5" s="161" t="s">
+      <c r="AD5" s="149"/>
+      <c r="AE5" s="149"/>
+      <c r="AF5" s="149"/>
+      <c r="AG5" s="149"/>
+      <c r="AH5" s="149"/>
+      <c r="AI5" s="149"/>
+      <c r="AJ5" s="149"/>
+      <c r="AK5" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="AL5" s="161"/>
-      <c r="AM5" s="161"/>
-      <c r="AN5" s="161"/>
-      <c r="AO5" s="161"/>
-      <c r="AP5" s="161"/>
-      <c r="AQ5" s="161"/>
-      <c r="AR5" s="161"/>
-      <c r="AS5" s="173"/>
-      <c r="AT5" s="173"/>
-      <c r="AU5" s="173"/>
-      <c r="AV5" s="173"/>
-      <c r="AW5" s="173"/>
-      <c r="AX5" s="173"/>
-      <c r="AY5" s="173"/>
-      <c r="AZ5" s="173"/>
-      <c r="BA5" s="173"/>
-      <c r="BB5" s="173"/>
-      <c r="BC5" s="173"/>
-      <c r="BD5" s="173"/>
-      <c r="BE5" s="173"/>
-      <c r="BF5" s="173"/>
-      <c r="BG5" s="173"/>
-      <c r="BH5" s="173"/>
+      <c r="AL5" s="149"/>
+      <c r="AM5" s="149"/>
+      <c r="AN5" s="149"/>
+      <c r="AO5" s="149"/>
+      <c r="AP5" s="149"/>
+      <c r="AQ5" s="149"/>
+      <c r="AR5" s="149"/>
+      <c r="AS5" s="150"/>
+      <c r="AT5" s="150"/>
+      <c r="AU5" s="150"/>
+      <c r="AV5" s="150"/>
+      <c r="AW5" s="150"/>
+      <c r="AX5" s="150"/>
+      <c r="AY5" s="150"/>
+      <c r="AZ5" s="150"/>
+      <c r="BA5" s="150"/>
+      <c r="BB5" s="150"/>
+      <c r="BC5" s="150"/>
+      <c r="BD5" s="150"/>
+      <c r="BE5" s="150"/>
+      <c r="BF5" s="150"/>
+      <c r="BG5" s="150"/>
+      <c r="BH5" s="150"/>
       <c r="BJ5" s="18"/>
       <c r="BK5" s="18"/>
       <c r="BL5" s="18"/>
@@ -12437,70 +12437,70 @@
       <c r="CO5" s="18"/>
     </row>
     <row r="6" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="177"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="177"/>
-      <c r="L6" s="177"/>
-      <c r="M6" s="177"/>
-      <c r="N6" s="177"/>
-      <c r="O6" s="177"/>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="161"/>
-      <c r="S6" s="172"/>
-      <c r="T6" s="161"/>
-      <c r="U6" s="161"/>
-      <c r="V6" s="161"/>
-      <c r="W6" s="161"/>
-      <c r="X6" s="161"/>
-      <c r="Y6" s="161" t="s">
+      <c r="A6" s="156"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="149"/>
+      <c r="R6" s="149"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="149"/>
+      <c r="U6" s="149"/>
+      <c r="V6" s="149"/>
+      <c r="W6" s="149"/>
+      <c r="X6" s="149"/>
+      <c r="Y6" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="161"/>
-      <c r="AA6" s="161" t="s">
+      <c r="Z6" s="149"/>
+      <c r="AA6" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="AB6" s="161"/>
-      <c r="AC6" s="161"/>
-      <c r="AD6" s="161"/>
-      <c r="AE6" s="161"/>
-      <c r="AF6" s="161"/>
-      <c r="AG6" s="161"/>
-      <c r="AH6" s="161"/>
-      <c r="AI6" s="161"/>
-      <c r="AJ6" s="161"/>
-      <c r="AK6" s="161"/>
-      <c r="AL6" s="161"/>
-      <c r="AM6" s="161"/>
-      <c r="AN6" s="161"/>
-      <c r="AO6" s="161"/>
-      <c r="AP6" s="161"/>
-      <c r="AQ6" s="161"/>
-      <c r="AR6" s="161"/>
-      <c r="AS6" s="173"/>
-      <c r="AT6" s="173"/>
-      <c r="AU6" s="173"/>
-      <c r="AV6" s="173"/>
-      <c r="AW6" s="173"/>
-      <c r="AX6" s="173"/>
-      <c r="AY6" s="173"/>
-      <c r="AZ6" s="173"/>
-      <c r="BA6" s="173"/>
-      <c r="BB6" s="173"/>
-      <c r="BC6" s="173"/>
-      <c r="BD6" s="173"/>
-      <c r="BE6" s="173"/>
-      <c r="BF6" s="173"/>
-      <c r="BG6" s="173"/>
-      <c r="BH6" s="173"/>
+      <c r="AB6" s="149"/>
+      <c r="AC6" s="149"/>
+      <c r="AD6" s="149"/>
+      <c r="AE6" s="149"/>
+      <c r="AF6" s="149"/>
+      <c r="AG6" s="149"/>
+      <c r="AH6" s="149"/>
+      <c r="AI6" s="149"/>
+      <c r="AJ6" s="149"/>
+      <c r="AK6" s="149"/>
+      <c r="AL6" s="149"/>
+      <c r="AM6" s="149"/>
+      <c r="AN6" s="149"/>
+      <c r="AO6" s="149"/>
+      <c r="AP6" s="149"/>
+      <c r="AQ6" s="149"/>
+      <c r="AR6" s="149"/>
+      <c r="AS6" s="150"/>
+      <c r="AT6" s="150"/>
+      <c r="AU6" s="150"/>
+      <c r="AV6" s="150"/>
+      <c r="AW6" s="150"/>
+      <c r="AX6" s="150"/>
+      <c r="AY6" s="150"/>
+      <c r="AZ6" s="150"/>
+      <c r="BA6" s="150"/>
+      <c r="BB6" s="150"/>
+      <c r="BC6" s="150"/>
+      <c r="BD6" s="150"/>
+      <c r="BE6" s="150"/>
+      <c r="BF6" s="150"/>
+      <c r="BG6" s="150"/>
+      <c r="BH6" s="150"/>
       <c r="BJ6" s="18"/>
       <c r="BK6" s="18"/>
       <c r="BL6" s="18"/>
@@ -12539,84 +12539,84 @@
         <v>1</v>
       </c>
       <c r="B7" s="142"/>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150" t="s">
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="151" t="s">
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="151"/>
+      <c r="R7" s="152"/>
       <c r="S7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="T7" s="151" t="s">
+      <c r="T7" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="U7" s="151"/>
-      <c r="V7" s="151"/>
-      <c r="W7" s="151"/>
-      <c r="X7" s="151"/>
-      <c r="Y7" s="151">
+      <c r="U7" s="152"/>
+      <c r="V7" s="152"/>
+      <c r="W7" s="152"/>
+      <c r="X7" s="152"/>
+      <c r="Y7" s="152">
         <v>6</v>
       </c>
-      <c r="Z7" s="151"/>
-      <c r="AA7" s="151" t="s">
+      <c r="Z7" s="152"/>
+      <c r="AA7" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="151"/>
-      <c r="AC7" s="151" t="s">
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="AD7" s="151"/>
-      <c r="AE7" s="151"/>
-      <c r="AF7" s="151"/>
-      <c r="AG7" s="151"/>
-      <c r="AH7" s="151"/>
-      <c r="AI7" s="151"/>
-      <c r="AJ7" s="151"/>
-      <c r="AK7" s="162" t="s">
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="152"/>
+      <c r="AF7" s="152"/>
+      <c r="AG7" s="152"/>
+      <c r="AH7" s="152"/>
+      <c r="AI7" s="152"/>
+      <c r="AJ7" s="152"/>
+      <c r="AK7" s="169" t="s">
         <v>78</v>
       </c>
-      <c r="AL7" s="162"/>
-      <c r="AM7" s="162"/>
-      <c r="AN7" s="162"/>
-      <c r="AO7" s="162"/>
-      <c r="AP7" s="162"/>
-      <c r="AQ7" s="162"/>
-      <c r="AR7" s="162"/>
-      <c r="AS7" s="149" t="s">
+      <c r="AL7" s="169"/>
+      <c r="AM7" s="169"/>
+      <c r="AN7" s="169"/>
+      <c r="AO7" s="169"/>
+      <c r="AP7" s="169"/>
+      <c r="AQ7" s="169"/>
+      <c r="AR7" s="169"/>
+      <c r="AS7" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AT7" s="149"/>
-      <c r="AU7" s="149"/>
-      <c r="AV7" s="149"/>
-      <c r="AW7" s="149"/>
-      <c r="AX7" s="149"/>
-      <c r="AY7" s="149"/>
-      <c r="AZ7" s="149"/>
-      <c r="BA7" s="149"/>
-      <c r="BB7" s="149"/>
-      <c r="BC7" s="149"/>
-      <c r="BD7" s="149"/>
-      <c r="BE7" s="149"/>
-      <c r="BF7" s="149"/>
-      <c r="BG7" s="149"/>
-      <c r="BH7" s="149"/>
+      <c r="AT7" s="176"/>
+      <c r="AU7" s="176"/>
+      <c r="AV7" s="176"/>
+      <c r="AW7" s="176"/>
+      <c r="AX7" s="176"/>
+      <c r="AY7" s="176"/>
+      <c r="AZ7" s="176"/>
+      <c r="BA7" s="176"/>
+      <c r="BB7" s="176"/>
+      <c r="BC7" s="176"/>
+      <c r="BD7" s="176"/>
+      <c r="BE7" s="176"/>
+      <c r="BF7" s="176"/>
+      <c r="BG7" s="176"/>
+      <c r="BH7" s="176"/>
       <c r="BI7" s="7"/>
       <c r="BJ7" s="18"/>
       <c r="BK7" s="18"/>
@@ -12656,24 +12656,24 @@
         <v>2</v>
       </c>
       <c r="B8" s="142"/>
-      <c r="C8" s="179" t="s">
+      <c r="C8" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="143" t="s">
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="145"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="141"/>
       <c r="Q8" s="146" t="s">
         <v>26</v>
       </c>
@@ -12706,34 +12706,34 @@
       <c r="AH8" s="148"/>
       <c r="AI8" s="148"/>
       <c r="AJ8" s="147"/>
-      <c r="AK8" s="165" t="s">
+      <c r="AK8" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="AL8" s="166"/>
-      <c r="AM8" s="166"/>
-      <c r="AN8" s="166"/>
-      <c r="AO8" s="166"/>
-      <c r="AP8" s="166"/>
-      <c r="AQ8" s="166"/>
-      <c r="AR8" s="167"/>
-      <c r="AS8" s="139" t="s">
+      <c r="AL8" s="171"/>
+      <c r="AM8" s="171"/>
+      <c r="AN8" s="171"/>
+      <c r="AO8" s="171"/>
+      <c r="AP8" s="171"/>
+      <c r="AQ8" s="171"/>
+      <c r="AR8" s="172"/>
+      <c r="AS8" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="AT8" s="140"/>
-      <c r="AU8" s="140"/>
-      <c r="AV8" s="140"/>
-      <c r="AW8" s="140"/>
-      <c r="AX8" s="140"/>
-      <c r="AY8" s="140"/>
-      <c r="AZ8" s="140"/>
-      <c r="BA8" s="140"/>
-      <c r="BB8" s="140"/>
-      <c r="BC8" s="140"/>
-      <c r="BD8" s="140"/>
-      <c r="BE8" s="140"/>
-      <c r="BF8" s="140"/>
-      <c r="BG8" s="140"/>
-      <c r="BH8" s="141"/>
+      <c r="AT8" s="164"/>
+      <c r="AU8" s="164"/>
+      <c r="AV8" s="164"/>
+      <c r="AW8" s="164"/>
+      <c r="AX8" s="164"/>
+      <c r="AY8" s="164"/>
+      <c r="AZ8" s="164"/>
+      <c r="BA8" s="164"/>
+      <c r="BB8" s="164"/>
+      <c r="BC8" s="164"/>
+      <c r="BD8" s="164"/>
+      <c r="BE8" s="164"/>
+      <c r="BF8" s="164"/>
+      <c r="BG8" s="164"/>
+      <c r="BH8" s="165"/>
       <c r="BI8" s="7"/>
       <c r="BJ8" s="18"/>
       <c r="BK8" s="18"/>
@@ -12773,24 +12773,24 @@
         <v>3</v>
       </c>
       <c r="B9" s="142"/>
-      <c r="C9" s="179" t="s">
+      <c r="C9" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="143" t="s">
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="145"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="141"/>
       <c r="Q9" s="146" t="s">
         <v>26</v>
       </c>
@@ -12823,34 +12823,34 @@
       <c r="AH9" s="148"/>
       <c r="AI9" s="148"/>
       <c r="AJ9" s="147"/>
-      <c r="AK9" s="165" t="s">
+      <c r="AK9" s="170" t="s">
         <v>81</v>
       </c>
-      <c r="AL9" s="166"/>
-      <c r="AM9" s="166"/>
-      <c r="AN9" s="166"/>
-      <c r="AO9" s="166"/>
-      <c r="AP9" s="166"/>
-      <c r="AQ9" s="166"/>
-      <c r="AR9" s="167"/>
-      <c r="AS9" s="139" t="s">
+      <c r="AL9" s="171"/>
+      <c r="AM9" s="171"/>
+      <c r="AN9" s="171"/>
+      <c r="AO9" s="171"/>
+      <c r="AP9" s="171"/>
+      <c r="AQ9" s="171"/>
+      <c r="AR9" s="172"/>
+      <c r="AS9" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="AT9" s="140"/>
-      <c r="AU9" s="140"/>
-      <c r="AV9" s="140"/>
-      <c r="AW9" s="140"/>
-      <c r="AX9" s="140"/>
-      <c r="AY9" s="140"/>
-      <c r="AZ9" s="140"/>
-      <c r="BA9" s="140"/>
-      <c r="BB9" s="140"/>
-      <c r="BC9" s="140"/>
-      <c r="BD9" s="140"/>
-      <c r="BE9" s="140"/>
-      <c r="BF9" s="140"/>
-      <c r="BG9" s="140"/>
-      <c r="BH9" s="141"/>
+      <c r="AT9" s="164"/>
+      <c r="AU9" s="164"/>
+      <c r="AV9" s="164"/>
+      <c r="AW9" s="164"/>
+      <c r="AX9" s="164"/>
+      <c r="AY9" s="164"/>
+      <c r="AZ9" s="164"/>
+      <c r="BA9" s="164"/>
+      <c r="BB9" s="164"/>
+      <c r="BC9" s="164"/>
+      <c r="BD9" s="164"/>
+      <c r="BE9" s="164"/>
+      <c r="BF9" s="164"/>
+      <c r="BG9" s="164"/>
+      <c r="BH9" s="165"/>
       <c r="BI9" s="7"/>
       <c r="BJ9" s="18"/>
       <c r="BK9" s="18"/>
@@ -12890,24 +12890,24 @@
         <v>4</v>
       </c>
       <c r="B10" s="142"/>
-      <c r="C10" s="179" t="s">
+      <c r="C10" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="143" t="s">
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="145"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="141"/>
       <c r="Q10" s="146" t="s">
         <v>26</v>
       </c>
@@ -12940,34 +12940,34 @@
       <c r="AH10" s="148"/>
       <c r="AI10" s="148"/>
       <c r="AJ10" s="147"/>
-      <c r="AK10" s="168" t="s">
+      <c r="AK10" s="173" t="s">
         <v>82</v>
       </c>
-      <c r="AL10" s="169"/>
-      <c r="AM10" s="169"/>
-      <c r="AN10" s="169"/>
-      <c r="AO10" s="169"/>
-      <c r="AP10" s="169"/>
-      <c r="AQ10" s="169"/>
-      <c r="AR10" s="170"/>
-      <c r="AS10" s="139" t="s">
+      <c r="AL10" s="174"/>
+      <c r="AM10" s="174"/>
+      <c r="AN10" s="174"/>
+      <c r="AO10" s="174"/>
+      <c r="AP10" s="174"/>
+      <c r="AQ10" s="174"/>
+      <c r="AR10" s="175"/>
+      <c r="AS10" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="AT10" s="140"/>
-      <c r="AU10" s="140"/>
-      <c r="AV10" s="140"/>
-      <c r="AW10" s="140"/>
-      <c r="AX10" s="140"/>
-      <c r="AY10" s="140"/>
-      <c r="AZ10" s="140"/>
-      <c r="BA10" s="140"/>
-      <c r="BB10" s="140"/>
-      <c r="BC10" s="140"/>
-      <c r="BD10" s="140"/>
-      <c r="BE10" s="140"/>
-      <c r="BF10" s="140"/>
-      <c r="BG10" s="140"/>
-      <c r="BH10" s="141"/>
+      <c r="AT10" s="164"/>
+      <c r="AU10" s="164"/>
+      <c r="AV10" s="164"/>
+      <c r="AW10" s="164"/>
+      <c r="AX10" s="164"/>
+      <c r="AY10" s="164"/>
+      <c r="AZ10" s="164"/>
+      <c r="BA10" s="164"/>
+      <c r="BB10" s="164"/>
+      <c r="BC10" s="164"/>
+      <c r="BD10" s="164"/>
+      <c r="BE10" s="164"/>
+      <c r="BF10" s="164"/>
+      <c r="BG10" s="164"/>
+      <c r="BH10" s="165"/>
       <c r="BI10" s="7"/>
       <c r="BJ10" s="18"/>
       <c r="BK10" s="18"/>
@@ -13007,24 +13007,24 @@
         <v>5</v>
       </c>
       <c r="B11" s="142"/>
-      <c r="C11" s="179" t="s">
+      <c r="C11" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="180"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="181"/>
-      <c r="M11" s="143" t="s">
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="145"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="141"/>
       <c r="Q11" s="146" t="s">
         <v>26</v>
       </c>
@@ -13057,34 +13057,34 @@
       <c r="AH11" s="148"/>
       <c r="AI11" s="148"/>
       <c r="AJ11" s="147"/>
-      <c r="AK11" s="165" t="s">
+      <c r="AK11" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="AL11" s="166"/>
-      <c r="AM11" s="166"/>
-      <c r="AN11" s="166"/>
-      <c r="AO11" s="166"/>
-      <c r="AP11" s="166"/>
-      <c r="AQ11" s="166"/>
-      <c r="AR11" s="167"/>
-      <c r="AS11" s="139" t="s">
+      <c r="AL11" s="171"/>
+      <c r="AM11" s="171"/>
+      <c r="AN11" s="171"/>
+      <c r="AO11" s="171"/>
+      <c r="AP11" s="171"/>
+      <c r="AQ11" s="171"/>
+      <c r="AR11" s="172"/>
+      <c r="AS11" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="AT11" s="140"/>
-      <c r="AU11" s="140"/>
-      <c r="AV11" s="140"/>
-      <c r="AW11" s="140"/>
-      <c r="AX11" s="140"/>
-      <c r="AY11" s="140"/>
-      <c r="AZ11" s="140"/>
-      <c r="BA11" s="140"/>
-      <c r="BB11" s="140"/>
-      <c r="BC11" s="140"/>
-      <c r="BD11" s="140"/>
-      <c r="BE11" s="140"/>
-      <c r="BF11" s="140"/>
-      <c r="BG11" s="140"/>
-      <c r="BH11" s="141"/>
+      <c r="AT11" s="164"/>
+      <c r="AU11" s="164"/>
+      <c r="AV11" s="164"/>
+      <c r="AW11" s="164"/>
+      <c r="AX11" s="164"/>
+      <c r="AY11" s="164"/>
+      <c r="AZ11" s="164"/>
+      <c r="BA11" s="164"/>
+      <c r="BB11" s="164"/>
+      <c r="BC11" s="164"/>
+      <c r="BD11" s="164"/>
+      <c r="BE11" s="164"/>
+      <c r="BF11" s="164"/>
+      <c r="BG11" s="164"/>
+      <c r="BH11" s="165"/>
       <c r="BI11" s="7"/>
       <c r="BJ11" s="18"/>
       <c r="BK11" s="18"/>
@@ -13124,24 +13124,24 @@
         <v>6</v>
       </c>
       <c r="B12" s="142"/>
-      <c r="C12" s="143" t="s">
+      <c r="C12" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="143" t="s">
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="145"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="141"/>
       <c r="Q12" s="146" t="s">
         <v>26</v>
       </c>
@@ -13174,34 +13174,34 @@
       <c r="AH12" s="148"/>
       <c r="AI12" s="148"/>
       <c r="AJ12" s="147"/>
-      <c r="AK12" s="155" t="s">
+      <c r="AK12" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="AL12" s="156"/>
-      <c r="AM12" s="156"/>
-      <c r="AN12" s="156"/>
-      <c r="AO12" s="156"/>
-      <c r="AP12" s="156"/>
-      <c r="AQ12" s="156"/>
-      <c r="AR12" s="157"/>
-      <c r="AS12" s="139" t="s">
+      <c r="AL12" s="161"/>
+      <c r="AM12" s="161"/>
+      <c r="AN12" s="161"/>
+      <c r="AO12" s="161"/>
+      <c r="AP12" s="161"/>
+      <c r="AQ12" s="161"/>
+      <c r="AR12" s="162"/>
+      <c r="AS12" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="AT12" s="140"/>
-      <c r="AU12" s="140"/>
-      <c r="AV12" s="140"/>
-      <c r="AW12" s="140"/>
-      <c r="AX12" s="140"/>
-      <c r="AY12" s="140"/>
-      <c r="AZ12" s="140"/>
-      <c r="BA12" s="140"/>
-      <c r="BB12" s="140"/>
-      <c r="BC12" s="140"/>
-      <c r="BD12" s="140"/>
-      <c r="BE12" s="140"/>
-      <c r="BF12" s="140"/>
-      <c r="BG12" s="140"/>
-      <c r="BH12" s="141"/>
+      <c r="AT12" s="164"/>
+      <c r="AU12" s="164"/>
+      <c r="AV12" s="164"/>
+      <c r="AW12" s="164"/>
+      <c r="AX12" s="164"/>
+      <c r="AY12" s="164"/>
+      <c r="AZ12" s="164"/>
+      <c r="BA12" s="164"/>
+      <c r="BB12" s="164"/>
+      <c r="BC12" s="164"/>
+      <c r="BD12" s="164"/>
+      <c r="BE12" s="164"/>
+      <c r="BF12" s="164"/>
+      <c r="BG12" s="164"/>
+      <c r="BH12" s="165"/>
       <c r="BI12" s="7"/>
       <c r="BJ12" s="18"/>
       <c r="BK12" s="18"/>
@@ -13241,24 +13241,24 @@
         <v>7</v>
       </c>
       <c r="B13" s="142"/>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="143" t="s">
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="145"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="141"/>
       <c r="Q13" s="146" t="s">
         <v>26</v>
       </c>
@@ -13291,34 +13291,34 @@
       <c r="AH13" s="148"/>
       <c r="AI13" s="148"/>
       <c r="AJ13" s="147"/>
-      <c r="AK13" s="155" t="s">
+      <c r="AK13" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="AL13" s="156"/>
-      <c r="AM13" s="156"/>
-      <c r="AN13" s="156"/>
-      <c r="AO13" s="156"/>
-      <c r="AP13" s="156"/>
-      <c r="AQ13" s="156"/>
-      <c r="AR13" s="157"/>
-      <c r="AS13" s="139" t="s">
+      <c r="AL13" s="161"/>
+      <c r="AM13" s="161"/>
+      <c r="AN13" s="161"/>
+      <c r="AO13" s="161"/>
+      <c r="AP13" s="161"/>
+      <c r="AQ13" s="161"/>
+      <c r="AR13" s="162"/>
+      <c r="AS13" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="AT13" s="140"/>
-      <c r="AU13" s="140"/>
-      <c r="AV13" s="140"/>
-      <c r="AW13" s="140"/>
-      <c r="AX13" s="140"/>
-      <c r="AY13" s="140"/>
-      <c r="AZ13" s="140"/>
-      <c r="BA13" s="140"/>
-      <c r="BB13" s="140"/>
-      <c r="BC13" s="140"/>
-      <c r="BD13" s="140"/>
-      <c r="BE13" s="140"/>
-      <c r="BF13" s="140"/>
-      <c r="BG13" s="140"/>
-      <c r="BH13" s="141"/>
+      <c r="AT13" s="164"/>
+      <c r="AU13" s="164"/>
+      <c r="AV13" s="164"/>
+      <c r="AW13" s="164"/>
+      <c r="AX13" s="164"/>
+      <c r="AY13" s="164"/>
+      <c r="AZ13" s="164"/>
+      <c r="BA13" s="164"/>
+      <c r="BB13" s="164"/>
+      <c r="BC13" s="164"/>
+      <c r="BD13" s="164"/>
+      <c r="BE13" s="164"/>
+      <c r="BF13" s="164"/>
+      <c r="BG13" s="164"/>
+      <c r="BH13" s="165"/>
       <c r="BI13" s="7"/>
       <c r="BJ13" s="18"/>
       <c r="BK13" s="18"/>
@@ -13358,24 +13358,24 @@
         <v>8</v>
       </c>
       <c r="B14" s="142"/>
-      <c r="C14" s="143" t="s">
+      <c r="C14" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="143" t="s">
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="145"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="141"/>
       <c r="Q14" s="146" t="s">
         <v>26</v>
       </c>
@@ -13408,34 +13408,34 @@
       <c r="AH14" s="148"/>
       <c r="AI14" s="148"/>
       <c r="AJ14" s="147"/>
-      <c r="AK14" s="155" t="s">
+      <c r="AK14" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="AL14" s="156"/>
-      <c r="AM14" s="156"/>
-      <c r="AN14" s="156"/>
-      <c r="AO14" s="156"/>
-      <c r="AP14" s="156"/>
-      <c r="AQ14" s="156"/>
-      <c r="AR14" s="157"/>
-      <c r="AS14" s="139" t="s">
+      <c r="AL14" s="161"/>
+      <c r="AM14" s="161"/>
+      <c r="AN14" s="161"/>
+      <c r="AO14" s="161"/>
+      <c r="AP14" s="161"/>
+      <c r="AQ14" s="161"/>
+      <c r="AR14" s="162"/>
+      <c r="AS14" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="AT14" s="140"/>
-      <c r="AU14" s="140"/>
-      <c r="AV14" s="140"/>
-      <c r="AW14" s="140"/>
-      <c r="AX14" s="140"/>
-      <c r="AY14" s="140"/>
-      <c r="AZ14" s="140"/>
-      <c r="BA14" s="140"/>
-      <c r="BB14" s="140"/>
-      <c r="BC14" s="140"/>
-      <c r="BD14" s="140"/>
-      <c r="BE14" s="140"/>
-      <c r="BF14" s="140"/>
-      <c r="BG14" s="140"/>
-      <c r="BH14" s="141"/>
+      <c r="AT14" s="164"/>
+      <c r="AU14" s="164"/>
+      <c r="AV14" s="164"/>
+      <c r="AW14" s="164"/>
+      <c r="AX14" s="164"/>
+      <c r="AY14" s="164"/>
+      <c r="AZ14" s="164"/>
+      <c r="BA14" s="164"/>
+      <c r="BB14" s="164"/>
+      <c r="BC14" s="164"/>
+      <c r="BD14" s="164"/>
+      <c r="BE14" s="164"/>
+      <c r="BF14" s="164"/>
+      <c r="BG14" s="164"/>
+      <c r="BH14" s="165"/>
       <c r="BI14" s="7"/>
       <c r="BJ14" s="18"/>
       <c r="BK14" s="18"/>
@@ -13475,24 +13475,24 @@
         <v>9</v>
       </c>
       <c r="B15" s="142"/>
-      <c r="C15" s="143" t="s">
+      <c r="C15" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="143" t="s">
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="N15" s="144"/>
-      <c r="O15" s="144"/>
-      <c r="P15" s="145"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="141"/>
       <c r="Q15" s="146" t="s">
         <v>26</v>
       </c>
@@ -13525,34 +13525,34 @@
       <c r="AH15" s="148"/>
       <c r="AI15" s="148"/>
       <c r="AJ15" s="147"/>
-      <c r="AK15" s="155" t="s">
+      <c r="AK15" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="AL15" s="156"/>
-      <c r="AM15" s="156"/>
-      <c r="AN15" s="156"/>
-      <c r="AO15" s="156"/>
-      <c r="AP15" s="156"/>
-      <c r="AQ15" s="156"/>
-      <c r="AR15" s="157"/>
-      <c r="AS15" s="158" t="s">
+      <c r="AL15" s="161"/>
+      <c r="AM15" s="161"/>
+      <c r="AN15" s="161"/>
+      <c r="AO15" s="161"/>
+      <c r="AP15" s="161"/>
+      <c r="AQ15" s="161"/>
+      <c r="AR15" s="162"/>
+      <c r="AS15" s="166" t="s">
         <v>109</v>
       </c>
-      <c r="AT15" s="159"/>
-      <c r="AU15" s="159"/>
-      <c r="AV15" s="159"/>
-      <c r="AW15" s="159"/>
-      <c r="AX15" s="159"/>
-      <c r="AY15" s="159"/>
-      <c r="AZ15" s="159"/>
-      <c r="BA15" s="159"/>
-      <c r="BB15" s="159"/>
-      <c r="BC15" s="159"/>
-      <c r="BD15" s="159"/>
-      <c r="BE15" s="159"/>
-      <c r="BF15" s="159"/>
-      <c r="BG15" s="159"/>
-      <c r="BH15" s="160"/>
+      <c r="AT15" s="167"/>
+      <c r="AU15" s="167"/>
+      <c r="AV15" s="167"/>
+      <c r="AW15" s="167"/>
+      <c r="AX15" s="167"/>
+      <c r="AY15" s="167"/>
+      <c r="AZ15" s="167"/>
+      <c r="BA15" s="167"/>
+      <c r="BB15" s="167"/>
+      <c r="BC15" s="167"/>
+      <c r="BD15" s="167"/>
+      <c r="BE15" s="167"/>
+      <c r="BF15" s="167"/>
+      <c r="BG15" s="167"/>
+      <c r="BH15" s="168"/>
       <c r="BJ15" s="18"/>
       <c r="BK15" s="18"/>
       <c r="BL15" s="18"/>
@@ -13591,24 +13591,24 @@
         <v>10</v>
       </c>
       <c r="B16" s="142"/>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="143" t="s">
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="145"/>
+      <c r="N16" s="140"/>
+      <c r="O16" s="140"/>
+      <c r="P16" s="141"/>
       <c r="Q16" s="146" t="s">
         <v>26</v>
       </c>
@@ -13641,34 +13641,34 @@
       <c r="AH16" s="148"/>
       <c r="AI16" s="148"/>
       <c r="AJ16" s="147"/>
-      <c r="AK16" s="155" t="s">
+      <c r="AK16" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="AL16" s="156"/>
-      <c r="AM16" s="156"/>
-      <c r="AN16" s="156"/>
-      <c r="AO16" s="156"/>
-      <c r="AP16" s="156"/>
-      <c r="AQ16" s="156"/>
-      <c r="AR16" s="157"/>
-      <c r="AS16" s="139" t="s">
+      <c r="AL16" s="161"/>
+      <c r="AM16" s="161"/>
+      <c r="AN16" s="161"/>
+      <c r="AO16" s="161"/>
+      <c r="AP16" s="161"/>
+      <c r="AQ16" s="161"/>
+      <c r="AR16" s="162"/>
+      <c r="AS16" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="AT16" s="140"/>
-      <c r="AU16" s="140"/>
-      <c r="AV16" s="140"/>
-      <c r="AW16" s="140"/>
-      <c r="AX16" s="140"/>
-      <c r="AY16" s="140"/>
-      <c r="AZ16" s="140"/>
-      <c r="BA16" s="140"/>
-      <c r="BB16" s="140"/>
-      <c r="BC16" s="140"/>
-      <c r="BD16" s="140"/>
-      <c r="BE16" s="140"/>
-      <c r="BF16" s="140"/>
-      <c r="BG16" s="140"/>
-      <c r="BH16" s="141"/>
+      <c r="AT16" s="164"/>
+      <c r="AU16" s="164"/>
+      <c r="AV16" s="164"/>
+      <c r="AW16" s="164"/>
+      <c r="AX16" s="164"/>
+      <c r="AY16" s="164"/>
+      <c r="AZ16" s="164"/>
+      <c r="BA16" s="164"/>
+      <c r="BB16" s="164"/>
+      <c r="BC16" s="164"/>
+      <c r="BD16" s="164"/>
+      <c r="BE16" s="164"/>
+      <c r="BF16" s="164"/>
+      <c r="BG16" s="164"/>
+      <c r="BH16" s="165"/>
       <c r="BJ16" s="18"/>
       <c r="BK16" s="18"/>
       <c r="BL16" s="18"/>
@@ -13707,24 +13707,24 @@
         <v>11</v>
       </c>
       <c r="B17" s="142"/>
-      <c r="C17" s="143" t="s">
+      <c r="C17" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="143" t="s">
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="145"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="141"/>
       <c r="Q17" s="146" t="s">
         <v>26</v>
       </c>
@@ -13757,34 +13757,34 @@
       <c r="AH17" s="148"/>
       <c r="AI17" s="148"/>
       <c r="AJ17" s="147"/>
-      <c r="AK17" s="152" t="s">
+      <c r="AK17" s="179" t="s">
         <v>181</v>
       </c>
-      <c r="AL17" s="153"/>
-      <c r="AM17" s="153"/>
-      <c r="AN17" s="153"/>
-      <c r="AO17" s="153"/>
-      <c r="AP17" s="153"/>
-      <c r="AQ17" s="153"/>
-      <c r="AR17" s="154"/>
-      <c r="AS17" s="158" t="s">
+      <c r="AL17" s="180"/>
+      <c r="AM17" s="180"/>
+      <c r="AN17" s="180"/>
+      <c r="AO17" s="180"/>
+      <c r="AP17" s="180"/>
+      <c r="AQ17" s="180"/>
+      <c r="AR17" s="181"/>
+      <c r="AS17" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="AT17" s="159"/>
-      <c r="AU17" s="159"/>
-      <c r="AV17" s="159"/>
-      <c r="AW17" s="159"/>
-      <c r="AX17" s="159"/>
-      <c r="AY17" s="159"/>
-      <c r="AZ17" s="159"/>
-      <c r="BA17" s="159"/>
-      <c r="BB17" s="159"/>
-      <c r="BC17" s="159"/>
-      <c r="BD17" s="159"/>
-      <c r="BE17" s="159"/>
-      <c r="BF17" s="159"/>
-      <c r="BG17" s="159"/>
-      <c r="BH17" s="160"/>
+      <c r="AT17" s="167"/>
+      <c r="AU17" s="167"/>
+      <c r="AV17" s="167"/>
+      <c r="AW17" s="167"/>
+      <c r="AX17" s="167"/>
+      <c r="AY17" s="167"/>
+      <c r="AZ17" s="167"/>
+      <c r="BA17" s="167"/>
+      <c r="BB17" s="167"/>
+      <c r="BC17" s="167"/>
+      <c r="BD17" s="167"/>
+      <c r="BE17" s="167"/>
+      <c r="BF17" s="167"/>
+      <c r="BG17" s="167"/>
+      <c r="BH17" s="168"/>
       <c r="BJ17" s="18"/>
       <c r="BK17" s="18"/>
       <c r="BL17" s="18"/>
@@ -13823,24 +13823,24 @@
         <v>12</v>
       </c>
       <c r="B18" s="142"/>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="143" t="s">
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="144"/>
-      <c r="O18" s="144"/>
-      <c r="P18" s="145"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="141"/>
       <c r="Q18" s="146" t="s">
         <v>26</v>
       </c>
@@ -13873,34 +13873,34 @@
       <c r="AH18" s="148"/>
       <c r="AI18" s="148"/>
       <c r="AJ18" s="147"/>
-      <c r="AK18" s="155" t="s">
+      <c r="AK18" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="AL18" s="156"/>
-      <c r="AM18" s="156"/>
-      <c r="AN18" s="156"/>
-      <c r="AO18" s="156"/>
-      <c r="AP18" s="156"/>
-      <c r="AQ18" s="156"/>
-      <c r="AR18" s="157"/>
-      <c r="AS18" s="139" t="s">
+      <c r="AL18" s="161"/>
+      <c r="AM18" s="161"/>
+      <c r="AN18" s="161"/>
+      <c r="AO18" s="161"/>
+      <c r="AP18" s="161"/>
+      <c r="AQ18" s="161"/>
+      <c r="AR18" s="162"/>
+      <c r="AS18" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="AT18" s="140"/>
-      <c r="AU18" s="140"/>
-      <c r="AV18" s="140"/>
-      <c r="AW18" s="140"/>
-      <c r="AX18" s="140"/>
-      <c r="AY18" s="140"/>
-      <c r="AZ18" s="140"/>
-      <c r="BA18" s="140"/>
-      <c r="BB18" s="140"/>
-      <c r="BC18" s="140"/>
-      <c r="BD18" s="140"/>
-      <c r="BE18" s="140"/>
-      <c r="BF18" s="140"/>
-      <c r="BG18" s="140"/>
-      <c r="BH18" s="141"/>
+      <c r="AT18" s="164"/>
+      <c r="AU18" s="164"/>
+      <c r="AV18" s="164"/>
+      <c r="AW18" s="164"/>
+      <c r="AX18" s="164"/>
+      <c r="AY18" s="164"/>
+      <c r="AZ18" s="164"/>
+      <c r="BA18" s="164"/>
+      <c r="BB18" s="164"/>
+      <c r="BC18" s="164"/>
+      <c r="BD18" s="164"/>
+      <c r="BE18" s="164"/>
+      <c r="BF18" s="164"/>
+      <c r="BG18" s="164"/>
+      <c r="BH18" s="165"/>
       <c r="BJ18" s="18"/>
       <c r="BK18" s="18"/>
       <c r="BL18" s="18"/>
@@ -13939,84 +13939,84 @@
         <v>13</v>
       </c>
       <c r="B19" s="142"/>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="150"/>
-      <c r="M19" s="150" t="s">
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="150"/>
-      <c r="O19" s="150"/>
-      <c r="P19" s="150"/>
-      <c r="Q19" s="151" t="s">
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="R19" s="151"/>
+      <c r="R19" s="152"/>
       <c r="S19" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="T19" s="151" t="s">
+      <c r="T19" s="152" t="s">
         <v>104</v>
       </c>
-      <c r="U19" s="151"/>
-      <c r="V19" s="151"/>
-      <c r="W19" s="151"/>
-      <c r="X19" s="151"/>
-      <c r="Y19" s="151">
+      <c r="U19" s="152"/>
+      <c r="V19" s="152"/>
+      <c r="W19" s="152"/>
+      <c r="X19" s="152"/>
+      <c r="Y19" s="152">
         <v>28</v>
       </c>
-      <c r="Z19" s="151"/>
-      <c r="AA19" s="151" t="s">
+      <c r="Z19" s="152"/>
+      <c r="AA19" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AB19" s="151"/>
-      <c r="AC19" s="151" t="s">
+      <c r="AB19" s="152"/>
+      <c r="AC19" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="AD19" s="151"/>
-      <c r="AE19" s="151"/>
-      <c r="AF19" s="151"/>
-      <c r="AG19" s="151"/>
-      <c r="AH19" s="151"/>
-      <c r="AI19" s="151"/>
-      <c r="AJ19" s="151"/>
-      <c r="AK19" s="155" t="s">
+      <c r="AD19" s="152"/>
+      <c r="AE19" s="152"/>
+      <c r="AF19" s="152"/>
+      <c r="AG19" s="152"/>
+      <c r="AH19" s="152"/>
+      <c r="AI19" s="152"/>
+      <c r="AJ19" s="152"/>
+      <c r="AK19" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="AL19" s="156"/>
-      <c r="AM19" s="156"/>
-      <c r="AN19" s="156"/>
-      <c r="AO19" s="156"/>
-      <c r="AP19" s="156"/>
-      <c r="AQ19" s="156"/>
-      <c r="AR19" s="157"/>
-      <c r="AS19" s="149" t="s">
+      <c r="AL19" s="161"/>
+      <c r="AM19" s="161"/>
+      <c r="AN19" s="161"/>
+      <c r="AO19" s="161"/>
+      <c r="AP19" s="161"/>
+      <c r="AQ19" s="161"/>
+      <c r="AR19" s="162"/>
+      <c r="AS19" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AT19" s="149"/>
-      <c r="AU19" s="149"/>
-      <c r="AV19" s="149"/>
-      <c r="AW19" s="149"/>
-      <c r="AX19" s="149"/>
-      <c r="AY19" s="149"/>
-      <c r="AZ19" s="149"/>
-      <c r="BA19" s="149"/>
-      <c r="BB19" s="149"/>
-      <c r="BC19" s="149"/>
-      <c r="BD19" s="149"/>
-      <c r="BE19" s="149"/>
-      <c r="BF19" s="149"/>
-      <c r="BG19" s="149"/>
-      <c r="BH19" s="149"/>
+      <c r="AT19" s="176"/>
+      <c r="AU19" s="176"/>
+      <c r="AV19" s="176"/>
+      <c r="AW19" s="176"/>
+      <c r="AX19" s="176"/>
+      <c r="AY19" s="176"/>
+      <c r="AZ19" s="176"/>
+      <c r="BA19" s="176"/>
+      <c r="BB19" s="176"/>
+      <c r="BC19" s="176"/>
+      <c r="BD19" s="176"/>
+      <c r="BE19" s="176"/>
+      <c r="BF19" s="176"/>
+      <c r="BG19" s="176"/>
+      <c r="BH19" s="176"/>
       <c r="BJ19" s="18"/>
       <c r="BK19" s="18"/>
       <c r="BL19" s="18"/>
@@ -14055,84 +14055,84 @@
         <v>14</v>
       </c>
       <c r="B20" s="142"/>
-      <c r="C20" s="150" t="s">
+      <c r="C20" s="151" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="150"/>
-      <c r="M20" s="150" t="s">
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="150"/>
-      <c r="O20" s="150"/>
-      <c r="P20" s="150"/>
-      <c r="Q20" s="151" t="s">
+      <c r="N20" s="151"/>
+      <c r="O20" s="151"/>
+      <c r="P20" s="151"/>
+      <c r="Q20" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="R20" s="151"/>
+      <c r="R20" s="152"/>
       <c r="S20" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="T20" s="151" t="s">
+      <c r="T20" s="152" t="s">
         <v>104</v>
       </c>
-      <c r="U20" s="151"/>
-      <c r="V20" s="151"/>
-      <c r="W20" s="151"/>
-      <c r="X20" s="151"/>
-      <c r="Y20" s="151">
+      <c r="U20" s="152"/>
+      <c r="V20" s="152"/>
+      <c r="W20" s="152"/>
+      <c r="X20" s="152"/>
+      <c r="Y20" s="152">
         <v>60</v>
       </c>
-      <c r="Z20" s="151"/>
-      <c r="AA20" s="151" t="s">
+      <c r="Z20" s="152"/>
+      <c r="AA20" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AB20" s="151"/>
-      <c r="AC20" s="151" t="s">
+      <c r="AB20" s="152"/>
+      <c r="AC20" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="AD20" s="151"/>
-      <c r="AE20" s="151"/>
-      <c r="AF20" s="151"/>
-      <c r="AG20" s="151"/>
-      <c r="AH20" s="151"/>
-      <c r="AI20" s="151"/>
-      <c r="AJ20" s="151"/>
-      <c r="AK20" s="155" t="s">
+      <c r="AD20" s="152"/>
+      <c r="AE20" s="152"/>
+      <c r="AF20" s="152"/>
+      <c r="AG20" s="152"/>
+      <c r="AH20" s="152"/>
+      <c r="AI20" s="152"/>
+      <c r="AJ20" s="152"/>
+      <c r="AK20" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="AL20" s="156"/>
-      <c r="AM20" s="156"/>
-      <c r="AN20" s="156"/>
-      <c r="AO20" s="156"/>
-      <c r="AP20" s="156"/>
-      <c r="AQ20" s="156"/>
-      <c r="AR20" s="157"/>
-      <c r="AS20" s="149" t="s">
+      <c r="AL20" s="161"/>
+      <c r="AM20" s="161"/>
+      <c r="AN20" s="161"/>
+      <c r="AO20" s="161"/>
+      <c r="AP20" s="161"/>
+      <c r="AQ20" s="161"/>
+      <c r="AR20" s="162"/>
+      <c r="AS20" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AT20" s="149"/>
-      <c r="AU20" s="149"/>
-      <c r="AV20" s="149"/>
-      <c r="AW20" s="149"/>
-      <c r="AX20" s="149"/>
-      <c r="AY20" s="149"/>
-      <c r="AZ20" s="149"/>
-      <c r="BA20" s="149"/>
-      <c r="BB20" s="149"/>
-      <c r="BC20" s="149"/>
-      <c r="BD20" s="149"/>
-      <c r="BE20" s="149"/>
-      <c r="BF20" s="149"/>
-      <c r="BG20" s="149"/>
-      <c r="BH20" s="149"/>
+      <c r="AT20" s="176"/>
+      <c r="AU20" s="176"/>
+      <c r="AV20" s="176"/>
+      <c r="AW20" s="176"/>
+      <c r="AX20" s="176"/>
+      <c r="AY20" s="176"/>
+      <c r="AZ20" s="176"/>
+      <c r="BA20" s="176"/>
+      <c r="BB20" s="176"/>
+      <c r="BC20" s="176"/>
+      <c r="BD20" s="176"/>
+      <c r="BE20" s="176"/>
+      <c r="BF20" s="176"/>
+      <c r="BG20" s="176"/>
+      <c r="BH20" s="176"/>
       <c r="BJ20" s="18"/>
       <c r="BK20" s="18"/>
       <c r="BL20" s="18"/>
@@ -14171,82 +14171,82 @@
         <v>15</v>
       </c>
       <c r="B21" s="142"/>
-      <c r="C21" s="150" t="s">
+      <c r="C21" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="150"/>
-      <c r="L21" s="150"/>
-      <c r="M21" s="150" t="s">
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151" t="s">
         <v>148</v>
       </c>
-      <c r="N21" s="150"/>
-      <c r="O21" s="150"/>
-      <c r="P21" s="150"/>
-      <c r="Q21" s="151" t="s">
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="R21" s="151"/>
+      <c r="R21" s="152"/>
       <c r="S21" s="58"/>
-      <c r="T21" s="151" t="s">
+      <c r="T21" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="U21" s="151"/>
-      <c r="V21" s="151"/>
-      <c r="W21" s="151"/>
-      <c r="X21" s="151"/>
-      <c r="Y21" s="151" t="s">
+      <c r="U21" s="152"/>
+      <c r="V21" s="152"/>
+      <c r="W21" s="152"/>
+      <c r="X21" s="152"/>
+      <c r="Y21" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="Z21" s="151"/>
-      <c r="AA21" s="151" t="s">
+      <c r="Z21" s="152"/>
+      <c r="AA21" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AB21" s="151"/>
-      <c r="AC21" s="151" t="s">
+      <c r="AB21" s="152"/>
+      <c r="AC21" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AD21" s="151"/>
-      <c r="AE21" s="151"/>
-      <c r="AF21" s="151"/>
-      <c r="AG21" s="151"/>
-      <c r="AH21" s="151"/>
-      <c r="AI21" s="151"/>
-      <c r="AJ21" s="151"/>
-      <c r="AK21" s="155" t="s">
+      <c r="AD21" s="152"/>
+      <c r="AE21" s="152"/>
+      <c r="AF21" s="152"/>
+      <c r="AG21" s="152"/>
+      <c r="AH21" s="152"/>
+      <c r="AI21" s="152"/>
+      <c r="AJ21" s="152"/>
+      <c r="AK21" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="AL21" s="156"/>
-      <c r="AM21" s="156"/>
-      <c r="AN21" s="156"/>
-      <c r="AO21" s="156"/>
-      <c r="AP21" s="156"/>
-      <c r="AQ21" s="156"/>
-      <c r="AR21" s="157"/>
-      <c r="AS21" s="149" t="s">
+      <c r="AL21" s="161"/>
+      <c r="AM21" s="161"/>
+      <c r="AN21" s="161"/>
+      <c r="AO21" s="161"/>
+      <c r="AP21" s="161"/>
+      <c r="AQ21" s="161"/>
+      <c r="AR21" s="162"/>
+      <c r="AS21" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="AT21" s="149"/>
-      <c r="AU21" s="149"/>
-      <c r="AV21" s="149"/>
-      <c r="AW21" s="149"/>
-      <c r="AX21" s="149"/>
-      <c r="AY21" s="149"/>
-      <c r="AZ21" s="149"/>
-      <c r="BA21" s="149"/>
-      <c r="BB21" s="149"/>
-      <c r="BC21" s="149"/>
-      <c r="BD21" s="149"/>
-      <c r="BE21" s="149"/>
-      <c r="BF21" s="149"/>
-      <c r="BG21" s="149"/>
-      <c r="BH21" s="149"/>
+      <c r="AT21" s="176"/>
+      <c r="AU21" s="176"/>
+      <c r="AV21" s="176"/>
+      <c r="AW21" s="176"/>
+      <c r="AX21" s="176"/>
+      <c r="AY21" s="176"/>
+      <c r="AZ21" s="176"/>
+      <c r="BA21" s="176"/>
+      <c r="BB21" s="176"/>
+      <c r="BC21" s="176"/>
+      <c r="BD21" s="176"/>
+      <c r="BE21" s="176"/>
+      <c r="BF21" s="176"/>
+      <c r="BG21" s="176"/>
+      <c r="BH21" s="176"/>
       <c r="BJ21" s="18"/>
       <c r="BK21" s="18"/>
       <c r="BL21" s="18"/>
@@ -14285,84 +14285,84 @@
         <v>16</v>
       </c>
       <c r="B22" s="142"/>
-      <c r="C22" s="150" t="s">
+      <c r="C22" s="151" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="150"/>
-      <c r="M22" s="150" t="s">
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="N22" s="150"/>
-      <c r="O22" s="150"/>
-      <c r="P22" s="150"/>
-      <c r="Q22" s="151" t="s">
+      <c r="N22" s="151"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="151"/>
+      <c r="Q22" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="R22" s="151"/>
+      <c r="R22" s="152"/>
       <c r="S22" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="T22" s="151" t="s">
+      <c r="T22" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="U22" s="151"/>
-      <c r="V22" s="151"/>
-      <c r="W22" s="151"/>
-      <c r="X22" s="151"/>
-      <c r="Y22" s="151">
+      <c r="U22" s="152"/>
+      <c r="V22" s="152"/>
+      <c r="W22" s="152"/>
+      <c r="X22" s="152"/>
+      <c r="Y22" s="152">
         <v>10</v>
       </c>
-      <c r="Z22" s="151"/>
-      <c r="AA22" s="151" t="s">
+      <c r="Z22" s="152"/>
+      <c r="AA22" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AB22" s="151"/>
-      <c r="AC22" s="151" t="s">
+      <c r="AB22" s="152"/>
+      <c r="AC22" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="AD22" s="151"/>
-      <c r="AE22" s="151"/>
-      <c r="AF22" s="151"/>
-      <c r="AG22" s="151"/>
-      <c r="AH22" s="151"/>
-      <c r="AI22" s="151"/>
-      <c r="AJ22" s="151"/>
-      <c r="AK22" s="162" t="s">
+      <c r="AD22" s="152"/>
+      <c r="AE22" s="152"/>
+      <c r="AF22" s="152"/>
+      <c r="AG22" s="152"/>
+      <c r="AH22" s="152"/>
+      <c r="AI22" s="152"/>
+      <c r="AJ22" s="152"/>
+      <c r="AK22" s="169" t="s">
         <v>79</v>
       </c>
-      <c r="AL22" s="162"/>
-      <c r="AM22" s="162"/>
-      <c r="AN22" s="162"/>
-      <c r="AO22" s="162"/>
-      <c r="AP22" s="162"/>
-      <c r="AQ22" s="162"/>
-      <c r="AR22" s="162"/>
-      <c r="AS22" s="149" t="s">
+      <c r="AL22" s="169"/>
+      <c r="AM22" s="169"/>
+      <c r="AN22" s="169"/>
+      <c r="AO22" s="169"/>
+      <c r="AP22" s="169"/>
+      <c r="AQ22" s="169"/>
+      <c r="AR22" s="169"/>
+      <c r="AS22" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="AT22" s="149"/>
-      <c r="AU22" s="149"/>
-      <c r="AV22" s="149"/>
-      <c r="AW22" s="149"/>
-      <c r="AX22" s="149"/>
-      <c r="AY22" s="149"/>
-      <c r="AZ22" s="149"/>
-      <c r="BA22" s="149"/>
-      <c r="BB22" s="149"/>
-      <c r="BC22" s="149"/>
-      <c r="BD22" s="149"/>
-      <c r="BE22" s="149"/>
-      <c r="BF22" s="149"/>
-      <c r="BG22" s="149"/>
-      <c r="BH22" s="149"/>
+      <c r="AT22" s="176"/>
+      <c r="AU22" s="176"/>
+      <c r="AV22" s="176"/>
+      <c r="AW22" s="176"/>
+      <c r="AX22" s="176"/>
+      <c r="AY22" s="176"/>
+      <c r="AZ22" s="176"/>
+      <c r="BA22" s="176"/>
+      <c r="BB22" s="176"/>
+      <c r="BC22" s="176"/>
+      <c r="BD22" s="176"/>
+      <c r="BE22" s="176"/>
+      <c r="BF22" s="176"/>
+      <c r="BG22" s="176"/>
+      <c r="BH22" s="176"/>
       <c r="BJ22" s="18"/>
       <c r="BK22" s="18"/>
       <c r="BL22" s="18"/>
@@ -14401,84 +14401,84 @@
         <v>17</v>
       </c>
       <c r="B23" s="142"/>
-      <c r="C23" s="150" t="s">
+      <c r="C23" s="151" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="150" t="s">
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="N23" s="150"/>
-      <c r="O23" s="150"/>
-      <c r="P23" s="150"/>
-      <c r="Q23" s="151" t="s">
+      <c r="N23" s="151"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="R23" s="151"/>
+      <c r="R23" s="152"/>
       <c r="S23" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="T23" s="151" t="s">
+      <c r="T23" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="U23" s="151"/>
-      <c r="V23" s="151"/>
-      <c r="W23" s="151"/>
-      <c r="X23" s="151"/>
-      <c r="Y23" s="151">
+      <c r="U23" s="152"/>
+      <c r="V23" s="152"/>
+      <c r="W23" s="152"/>
+      <c r="X23" s="152"/>
+      <c r="Y23" s="152">
         <v>10</v>
       </c>
-      <c r="Z23" s="151"/>
-      <c r="AA23" s="151" t="s">
+      <c r="Z23" s="152"/>
+      <c r="AA23" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AB23" s="151"/>
-      <c r="AC23" s="151" t="s">
+      <c r="AB23" s="152"/>
+      <c r="AC23" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AD23" s="151"/>
-      <c r="AE23" s="151"/>
-      <c r="AF23" s="151"/>
-      <c r="AG23" s="151"/>
-      <c r="AH23" s="151"/>
-      <c r="AI23" s="151"/>
-      <c r="AJ23" s="151"/>
-      <c r="AK23" s="151" t="s">
+      <c r="AD23" s="152"/>
+      <c r="AE23" s="152"/>
+      <c r="AF23" s="152"/>
+      <c r="AG23" s="152"/>
+      <c r="AH23" s="152"/>
+      <c r="AI23" s="152"/>
+      <c r="AJ23" s="152"/>
+      <c r="AK23" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AL23" s="151"/>
-      <c r="AM23" s="151"/>
-      <c r="AN23" s="151"/>
-      <c r="AO23" s="151"/>
-      <c r="AP23" s="151"/>
-      <c r="AQ23" s="151"/>
-      <c r="AR23" s="151"/>
-      <c r="AS23" s="149" t="s">
+      <c r="AL23" s="152"/>
+      <c r="AM23" s="152"/>
+      <c r="AN23" s="152"/>
+      <c r="AO23" s="152"/>
+      <c r="AP23" s="152"/>
+      <c r="AQ23" s="152"/>
+      <c r="AR23" s="152"/>
+      <c r="AS23" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AT23" s="149"/>
-      <c r="AU23" s="149"/>
-      <c r="AV23" s="149"/>
-      <c r="AW23" s="149"/>
-      <c r="AX23" s="149"/>
-      <c r="AY23" s="149"/>
-      <c r="AZ23" s="149"/>
-      <c r="BA23" s="149"/>
-      <c r="BB23" s="149"/>
-      <c r="BC23" s="149"/>
-      <c r="BD23" s="149"/>
-      <c r="BE23" s="149"/>
-      <c r="BF23" s="149"/>
-      <c r="BG23" s="149"/>
-      <c r="BH23" s="149"/>
+      <c r="AT23" s="176"/>
+      <c r="AU23" s="176"/>
+      <c r="AV23" s="176"/>
+      <c r="AW23" s="176"/>
+      <c r="AX23" s="176"/>
+      <c r="AY23" s="176"/>
+      <c r="AZ23" s="176"/>
+      <c r="BA23" s="176"/>
+      <c r="BB23" s="176"/>
+      <c r="BC23" s="176"/>
+      <c r="BD23" s="176"/>
+      <c r="BE23" s="176"/>
+      <c r="BF23" s="176"/>
+      <c r="BG23" s="176"/>
+      <c r="BH23" s="176"/>
       <c r="BJ23" s="18"/>
       <c r="BK23" s="18"/>
       <c r="BL23" s="18"/>
@@ -14517,84 +14517,84 @@
         <v>18</v>
       </c>
       <c r="B24" s="142"/>
-      <c r="C24" s="150" t="s">
+      <c r="C24" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="150" t="s">
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="150"/>
-      <c r="O24" s="150"/>
-      <c r="P24" s="150"/>
-      <c r="Q24" s="151" t="s">
+      <c r="N24" s="151"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="R24" s="151"/>
+      <c r="R24" s="152"/>
       <c r="S24" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="T24" s="151" t="s">
+      <c r="T24" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="U24" s="151"/>
-      <c r="V24" s="151"/>
-      <c r="W24" s="151"/>
-      <c r="X24" s="151"/>
-      <c r="Y24" s="151" t="s">
+      <c r="U24" s="152"/>
+      <c r="V24" s="152"/>
+      <c r="W24" s="152"/>
+      <c r="X24" s="152"/>
+      <c r="Y24" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="Z24" s="151"/>
-      <c r="AA24" s="151" t="s">
+      <c r="Z24" s="152"/>
+      <c r="AA24" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AB24" s="151"/>
-      <c r="AC24" s="151" t="s">
+      <c r="AB24" s="152"/>
+      <c r="AC24" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AD24" s="151"/>
-      <c r="AE24" s="151"/>
-      <c r="AF24" s="151"/>
-      <c r="AG24" s="151"/>
-      <c r="AH24" s="151"/>
-      <c r="AI24" s="151"/>
-      <c r="AJ24" s="151"/>
-      <c r="AK24" s="151" t="s">
+      <c r="AD24" s="152"/>
+      <c r="AE24" s="152"/>
+      <c r="AF24" s="152"/>
+      <c r="AG24" s="152"/>
+      <c r="AH24" s="152"/>
+      <c r="AI24" s="152"/>
+      <c r="AJ24" s="152"/>
+      <c r="AK24" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AL24" s="151"/>
-      <c r="AM24" s="151"/>
-      <c r="AN24" s="151"/>
-      <c r="AO24" s="151"/>
-      <c r="AP24" s="151"/>
-      <c r="AQ24" s="151"/>
-      <c r="AR24" s="151"/>
-      <c r="AS24" s="149" t="s">
+      <c r="AL24" s="152"/>
+      <c r="AM24" s="152"/>
+      <c r="AN24" s="152"/>
+      <c r="AO24" s="152"/>
+      <c r="AP24" s="152"/>
+      <c r="AQ24" s="152"/>
+      <c r="AR24" s="152"/>
+      <c r="AS24" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AT24" s="149"/>
-      <c r="AU24" s="149"/>
-      <c r="AV24" s="149"/>
-      <c r="AW24" s="149"/>
-      <c r="AX24" s="149"/>
-      <c r="AY24" s="149"/>
-      <c r="AZ24" s="149"/>
-      <c r="BA24" s="149"/>
-      <c r="BB24" s="149"/>
-      <c r="BC24" s="149"/>
-      <c r="BD24" s="149"/>
-      <c r="BE24" s="149"/>
-      <c r="BF24" s="149"/>
-      <c r="BG24" s="149"/>
-      <c r="BH24" s="149"/>
+      <c r="AT24" s="176"/>
+      <c r="AU24" s="176"/>
+      <c r="AV24" s="176"/>
+      <c r="AW24" s="176"/>
+      <c r="AX24" s="176"/>
+      <c r="AY24" s="176"/>
+      <c r="AZ24" s="176"/>
+      <c r="BA24" s="176"/>
+      <c r="BB24" s="176"/>
+      <c r="BC24" s="176"/>
+      <c r="BD24" s="176"/>
+      <c r="BE24" s="176"/>
+      <c r="BF24" s="176"/>
+      <c r="BG24" s="176"/>
+      <c r="BH24" s="176"/>
       <c r="BJ24" s="18"/>
       <c r="BK24" s="18"/>
       <c r="BL24" s="18"/>
@@ -14633,84 +14633,84 @@
         <v>19</v>
       </c>
       <c r="B25" s="142"/>
-      <c r="C25" s="150" t="s">
+      <c r="C25" s="151" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150" t="s">
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="150"/>
-      <c r="O25" s="150"/>
-      <c r="P25" s="150"/>
-      <c r="Q25" s="151" t="s">
+      <c r="N25" s="151"/>
+      <c r="O25" s="151"/>
+      <c r="P25" s="151"/>
+      <c r="Q25" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="151"/>
+      <c r="R25" s="152"/>
       <c r="S25" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="T25" s="151" t="s">
+      <c r="T25" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="U25" s="151"/>
-      <c r="V25" s="151"/>
-      <c r="W25" s="151"/>
-      <c r="X25" s="151"/>
-      <c r="Y25" s="151" t="s">
+      <c r="U25" s="152"/>
+      <c r="V25" s="152"/>
+      <c r="W25" s="152"/>
+      <c r="X25" s="152"/>
+      <c r="Y25" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="Z25" s="151"/>
-      <c r="AA25" s="151" t="s">
+      <c r="Z25" s="152"/>
+      <c r="AA25" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AB25" s="151"/>
-      <c r="AC25" s="151" t="s">
+      <c r="AB25" s="152"/>
+      <c r="AC25" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AD25" s="151"/>
-      <c r="AE25" s="151"/>
-      <c r="AF25" s="151"/>
-      <c r="AG25" s="151"/>
-      <c r="AH25" s="151"/>
-      <c r="AI25" s="151"/>
-      <c r="AJ25" s="151"/>
-      <c r="AK25" s="151" t="s">
+      <c r="AD25" s="152"/>
+      <c r="AE25" s="152"/>
+      <c r="AF25" s="152"/>
+      <c r="AG25" s="152"/>
+      <c r="AH25" s="152"/>
+      <c r="AI25" s="152"/>
+      <c r="AJ25" s="152"/>
+      <c r="AK25" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AL25" s="151"/>
-      <c r="AM25" s="151"/>
-      <c r="AN25" s="151"/>
-      <c r="AO25" s="151"/>
-      <c r="AP25" s="151"/>
-      <c r="AQ25" s="151"/>
-      <c r="AR25" s="151"/>
-      <c r="AS25" s="149" t="s">
+      <c r="AL25" s="152"/>
+      <c r="AM25" s="152"/>
+      <c r="AN25" s="152"/>
+      <c r="AO25" s="152"/>
+      <c r="AP25" s="152"/>
+      <c r="AQ25" s="152"/>
+      <c r="AR25" s="152"/>
+      <c r="AS25" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AT25" s="149"/>
-      <c r="AU25" s="149"/>
-      <c r="AV25" s="149"/>
-      <c r="AW25" s="149"/>
-      <c r="AX25" s="149"/>
-      <c r="AY25" s="149"/>
-      <c r="AZ25" s="149"/>
-      <c r="BA25" s="149"/>
-      <c r="BB25" s="149"/>
-      <c r="BC25" s="149"/>
-      <c r="BD25" s="149"/>
-      <c r="BE25" s="149"/>
-      <c r="BF25" s="149"/>
-      <c r="BG25" s="149"/>
-      <c r="BH25" s="149"/>
+      <c r="AT25" s="176"/>
+      <c r="AU25" s="176"/>
+      <c r="AV25" s="176"/>
+      <c r="AW25" s="176"/>
+      <c r="AX25" s="176"/>
+      <c r="AY25" s="176"/>
+      <c r="AZ25" s="176"/>
+      <c r="BA25" s="176"/>
+      <c r="BB25" s="176"/>
+      <c r="BC25" s="176"/>
+      <c r="BD25" s="176"/>
+      <c r="BE25" s="176"/>
+      <c r="BF25" s="176"/>
+      <c r="BG25" s="176"/>
+      <c r="BH25" s="176"/>
       <c r="BJ25" s="18"/>
       <c r="BK25" s="18"/>
       <c r="BL25" s="18"/>
@@ -14749,28 +14749,28 @@
         <v>20</v>
       </c>
       <c r="B26" s="142"/>
-      <c r="C26" s="150" t="s">
+      <c r="C26" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150" t="s">
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="150"/>
-      <c r="O26" s="150"/>
-      <c r="P26" s="150"/>
-      <c r="Q26" s="151" t="s">
+      <c r="N26" s="151"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="R26" s="151"/>
+      <c r="R26" s="152"/>
       <c r="S26" s="57" t="s">
         <v>46</v>
       </c>
@@ -14781,52 +14781,52 @@
       <c r="V26" s="148"/>
       <c r="W26" s="148"/>
       <c r="X26" s="147"/>
-      <c r="Y26" s="151" t="s">
+      <c r="Y26" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="Z26" s="151"/>
-      <c r="AA26" s="151" t="s">
+      <c r="Z26" s="152"/>
+      <c r="AA26" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AB26" s="151"/>
-      <c r="AC26" s="151" t="s">
+      <c r="AB26" s="152"/>
+      <c r="AC26" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AD26" s="151"/>
-      <c r="AE26" s="151"/>
-      <c r="AF26" s="151"/>
-      <c r="AG26" s="151"/>
-      <c r="AH26" s="151"/>
-      <c r="AI26" s="151"/>
-      <c r="AJ26" s="151"/>
-      <c r="AK26" s="151" t="s">
+      <c r="AD26" s="152"/>
+      <c r="AE26" s="152"/>
+      <c r="AF26" s="152"/>
+      <c r="AG26" s="152"/>
+      <c r="AH26" s="152"/>
+      <c r="AI26" s="152"/>
+      <c r="AJ26" s="152"/>
+      <c r="AK26" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AL26" s="151"/>
-      <c r="AM26" s="151"/>
-      <c r="AN26" s="151"/>
-      <c r="AO26" s="151"/>
-      <c r="AP26" s="151"/>
-      <c r="AQ26" s="151"/>
-      <c r="AR26" s="151"/>
-      <c r="AS26" s="149" t="s">
+      <c r="AL26" s="152"/>
+      <c r="AM26" s="152"/>
+      <c r="AN26" s="152"/>
+      <c r="AO26" s="152"/>
+      <c r="AP26" s="152"/>
+      <c r="AQ26" s="152"/>
+      <c r="AR26" s="152"/>
+      <c r="AS26" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="AT26" s="149"/>
-      <c r="AU26" s="149"/>
-      <c r="AV26" s="149"/>
-      <c r="AW26" s="149"/>
-      <c r="AX26" s="149"/>
-      <c r="AY26" s="149"/>
-      <c r="AZ26" s="149"/>
-      <c r="BA26" s="149"/>
-      <c r="BB26" s="149"/>
-      <c r="BC26" s="149"/>
-      <c r="BD26" s="149"/>
-      <c r="BE26" s="149"/>
-      <c r="BF26" s="149"/>
-      <c r="BG26" s="149"/>
-      <c r="BH26" s="149"/>
+      <c r="AT26" s="176"/>
+      <c r="AU26" s="176"/>
+      <c r="AV26" s="176"/>
+      <c r="AW26" s="176"/>
+      <c r="AX26" s="176"/>
+      <c r="AY26" s="176"/>
+      <c r="AZ26" s="176"/>
+      <c r="BA26" s="176"/>
+      <c r="BB26" s="176"/>
+      <c r="BC26" s="176"/>
+      <c r="BD26" s="176"/>
+      <c r="BE26" s="176"/>
+      <c r="BF26" s="176"/>
+      <c r="BG26" s="176"/>
+      <c r="BH26" s="176"/>
       <c r="BJ26" s="18"/>
       <c r="BK26" s="18"/>
       <c r="BL26" s="18"/>
@@ -14865,20 +14865,20 @@
         <v>21</v>
       </c>
       <c r="B27" s="142"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="144"/>
-      <c r="P27" s="145"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="140"/>
+      <c r="P27" s="141"/>
       <c r="Q27" s="146"/>
       <c r="R27" s="147"/>
       <c r="S27" s="73"/>
@@ -14907,22 +14907,22 @@
       <c r="AP27" s="148"/>
       <c r="AQ27" s="148"/>
       <c r="AR27" s="147"/>
-      <c r="AS27" s="139"/>
-      <c r="AT27" s="140"/>
-      <c r="AU27" s="140"/>
-      <c r="AV27" s="140"/>
-      <c r="AW27" s="140"/>
-      <c r="AX27" s="140"/>
-      <c r="AY27" s="140"/>
-      <c r="AZ27" s="140"/>
-      <c r="BA27" s="140"/>
-      <c r="BB27" s="140"/>
-      <c r="BC27" s="140"/>
-      <c r="BD27" s="140"/>
-      <c r="BE27" s="140"/>
-      <c r="BF27" s="140"/>
-      <c r="BG27" s="140"/>
-      <c r="BH27" s="141"/>
+      <c r="AS27" s="163"/>
+      <c r="AT27" s="164"/>
+      <c r="AU27" s="164"/>
+      <c r="AV27" s="164"/>
+      <c r="AW27" s="164"/>
+      <c r="AX27" s="164"/>
+      <c r="AY27" s="164"/>
+      <c r="AZ27" s="164"/>
+      <c r="BA27" s="164"/>
+      <c r="BB27" s="164"/>
+      <c r="BC27" s="164"/>
+      <c r="BD27" s="164"/>
+      <c r="BE27" s="164"/>
+      <c r="BF27" s="164"/>
+      <c r="BG27" s="164"/>
+      <c r="BH27" s="165"/>
       <c r="BJ27" s="18"/>
       <c r="BK27" s="18"/>
       <c r="BL27" s="18"/>
@@ -15115,114 +15115,114 @@
       <c r="BH29" s="2"/>
     </row>
     <row r="30" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="161" t="s">
+      <c r="A30" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="161"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="161" t="s">
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="M30" s="161"/>
-      <c r="N30" s="161"/>
-      <c r="O30" s="161"/>
-      <c r="P30" s="161"/>
-      <c r="Q30" s="161"/>
-      <c r="R30" s="161"/>
-      <c r="S30" s="161"/>
-      <c r="T30" s="161"/>
-      <c r="U30" s="161"/>
-      <c r="V30" s="161"/>
-      <c r="W30" s="161"/>
-      <c r="X30" s="161"/>
-      <c r="Y30" s="161"/>
-      <c r="Z30" s="161"/>
-      <c r="AA30" s="161"/>
-      <c r="AB30" s="161"/>
-      <c r="AC30" s="161"/>
-      <c r="AD30" s="161"/>
-      <c r="AE30" s="161"/>
-      <c r="AF30" s="161"/>
-      <c r="AG30" s="161"/>
-      <c r="AH30" s="161"/>
-      <c r="AI30" s="161" t="s">
+      <c r="M30" s="149"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="149"/>
+      <c r="P30" s="149"/>
+      <c r="Q30" s="149"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="149"/>
+      <c r="T30" s="149"/>
+      <c r="U30" s="149"/>
+      <c r="V30" s="149"/>
+      <c r="W30" s="149"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="149"/>
+      <c r="Z30" s="149"/>
+      <c r="AA30" s="149"/>
+      <c r="AB30" s="149"/>
+      <c r="AC30" s="149"/>
+      <c r="AD30" s="149"/>
+      <c r="AE30" s="149"/>
+      <c r="AF30" s="149"/>
+      <c r="AG30" s="149"/>
+      <c r="AH30" s="149"/>
+      <c r="AI30" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="AJ30" s="161"/>
-      <c r="AK30" s="161"/>
-      <c r="AL30" s="161"/>
-      <c r="AM30" s="161"/>
-      <c r="AN30" s="161"/>
-      <c r="AO30" s="161"/>
-      <c r="AP30" s="161"/>
-      <c r="AQ30" s="161"/>
-      <c r="AR30" s="161"/>
-      <c r="AS30" s="161"/>
-      <c r="AT30" s="161"/>
-      <c r="AU30" s="161"/>
-      <c r="AV30" s="161" t="s">
+      <c r="AJ30" s="149"/>
+      <c r="AK30" s="149"/>
+      <c r="AL30" s="149"/>
+      <c r="AM30" s="149"/>
+      <c r="AN30" s="149"/>
+      <c r="AO30" s="149"/>
+      <c r="AP30" s="149"/>
+      <c r="AQ30" s="149"/>
+      <c r="AR30" s="149"/>
+      <c r="AS30" s="149"/>
+      <c r="AT30" s="149"/>
+      <c r="AU30" s="149"/>
+      <c r="AV30" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="AW30" s="161"/>
-      <c r="AX30" s="161"/>
-      <c r="AY30" s="161"/>
-      <c r="AZ30" s="161"/>
-      <c r="BA30" s="161"/>
-      <c r="BB30" s="161"/>
-      <c r="BC30" s="161"/>
-      <c r="BD30" s="161"/>
-      <c r="BE30" s="161"/>
-      <c r="BF30" s="161"/>
-      <c r="BG30" s="161"/>
-      <c r="BH30" s="161"/>
+      <c r="AW30" s="149"/>
+      <c r="AX30" s="149"/>
+      <c r="AY30" s="149"/>
+      <c r="AZ30" s="149"/>
+      <c r="BA30" s="149"/>
+      <c r="BB30" s="149"/>
+      <c r="BC30" s="149"/>
+      <c r="BD30" s="149"/>
+      <c r="BE30" s="149"/>
+      <c r="BF30" s="149"/>
+      <c r="BG30" s="149"/>
+      <c r="BH30" s="149"/>
     </row>
     <row r="31" spans="1:93" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="162" t="s">
+      <c r="A31" s="169" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="162"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="162"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="162"/>
-      <c r="L31" s="163" t="s">
+      <c r="B31" s="169"/>
+      <c r="C31" s="169"/>
+      <c r="D31" s="169"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="169"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="169"/>
+      <c r="K31" s="169"/>
+      <c r="L31" s="177" t="s">
         <v>105</v>
       </c>
-      <c r="M31" s="162"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="162"/>
-      <c r="P31" s="162"/>
-      <c r="Q31" s="162"/>
-      <c r="R31" s="162"/>
-      <c r="S31" s="162"/>
-      <c r="T31" s="162"/>
-      <c r="U31" s="162"/>
-      <c r="V31" s="162"/>
-      <c r="W31" s="162"/>
-      <c r="X31" s="162"/>
-      <c r="Y31" s="162"/>
-      <c r="Z31" s="162"/>
-      <c r="AA31" s="162"/>
-      <c r="AB31" s="162"/>
-      <c r="AC31" s="162"/>
-      <c r="AD31" s="162"/>
-      <c r="AE31" s="162"/>
-      <c r="AF31" s="162"/>
-      <c r="AG31" s="162"/>
-      <c r="AH31" s="162"/>
+      <c r="M31" s="169"/>
+      <c r="N31" s="169"/>
+      <c r="O31" s="169"/>
+      <c r="P31" s="169"/>
+      <c r="Q31" s="169"/>
+      <c r="R31" s="169"/>
+      <c r="S31" s="169"/>
+      <c r="T31" s="169"/>
+      <c r="U31" s="169"/>
+      <c r="V31" s="169"/>
+      <c r="W31" s="169"/>
+      <c r="X31" s="169"/>
+      <c r="Y31" s="169"/>
+      <c r="Z31" s="169"/>
+      <c r="AA31" s="169"/>
+      <c r="AB31" s="169"/>
+      <c r="AC31" s="169"/>
+      <c r="AD31" s="169"/>
+      <c r="AE31" s="169"/>
+      <c r="AF31" s="169"/>
+      <c r="AG31" s="169"/>
+      <c r="AH31" s="169"/>
       <c r="AI31" s="142" t="s">
         <v>107</v>
       </c>
@@ -15238,61 +15238,61 @@
       <c r="AS31" s="142"/>
       <c r="AT31" s="142"/>
       <c r="AU31" s="142"/>
-      <c r="AV31" s="164" t="s">
+      <c r="AV31" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="AW31" s="164"/>
-      <c r="AX31" s="164"/>
-      <c r="AY31" s="164"/>
-      <c r="AZ31" s="164"/>
-      <c r="BA31" s="164"/>
-      <c r="BB31" s="164"/>
-      <c r="BC31" s="164"/>
-      <c r="BD31" s="164"/>
-      <c r="BE31" s="164"/>
-      <c r="BF31" s="164"/>
-      <c r="BG31" s="164"/>
-      <c r="BH31" s="164"/>
+      <c r="AW31" s="178"/>
+      <c r="AX31" s="178"/>
+      <c r="AY31" s="178"/>
+      <c r="AZ31" s="178"/>
+      <c r="BA31" s="178"/>
+      <c r="BB31" s="178"/>
+      <c r="BC31" s="178"/>
+      <c r="BD31" s="178"/>
+      <c r="BE31" s="178"/>
+      <c r="BF31" s="178"/>
+      <c r="BG31" s="178"/>
+      <c r="BH31" s="178"/>
     </row>
     <row r="32" spans="1:93" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="162" t="s">
+      <c r="A32" s="169" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="162"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="162"/>
-      <c r="L32" s="163" t="s">
+      <c r="B32" s="169"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="169"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="169"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="169"/>
+      <c r="L32" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="M32" s="162"/>
-      <c r="N32" s="162"/>
-      <c r="O32" s="162"/>
-      <c r="P32" s="162"/>
-      <c r="Q32" s="162"/>
-      <c r="R32" s="162"/>
-      <c r="S32" s="162"/>
-      <c r="T32" s="162"/>
-      <c r="U32" s="162"/>
-      <c r="V32" s="162"/>
-      <c r="W32" s="162"/>
-      <c r="X32" s="162"/>
-      <c r="Y32" s="162"/>
-      <c r="Z32" s="162"/>
-      <c r="AA32" s="162"/>
-      <c r="AB32" s="162"/>
-      <c r="AC32" s="162"/>
-      <c r="AD32" s="162"/>
-      <c r="AE32" s="162"/>
-      <c r="AF32" s="162"/>
-      <c r="AG32" s="162"/>
-      <c r="AH32" s="162"/>
+      <c r="M32" s="169"/>
+      <c r="N32" s="169"/>
+      <c r="O32" s="169"/>
+      <c r="P32" s="169"/>
+      <c r="Q32" s="169"/>
+      <c r="R32" s="169"/>
+      <c r="S32" s="169"/>
+      <c r="T32" s="169"/>
+      <c r="U32" s="169"/>
+      <c r="V32" s="169"/>
+      <c r="W32" s="169"/>
+      <c r="X32" s="169"/>
+      <c r="Y32" s="169"/>
+      <c r="Z32" s="169"/>
+      <c r="AA32" s="169"/>
+      <c r="AB32" s="169"/>
+      <c r="AC32" s="169"/>
+      <c r="AD32" s="169"/>
+      <c r="AE32" s="169"/>
+      <c r="AF32" s="169"/>
+      <c r="AG32" s="169"/>
+      <c r="AH32" s="169"/>
       <c r="AI32" s="142" t="s">
         <v>95</v>
       </c>
@@ -15308,57 +15308,57 @@
       <c r="AS32" s="142"/>
       <c r="AT32" s="142"/>
       <c r="AU32" s="142"/>
-      <c r="AV32" s="151" t="s">
+      <c r="AV32" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AW32" s="151"/>
-      <c r="AX32" s="151"/>
-      <c r="AY32" s="151"/>
-      <c r="AZ32" s="151"/>
-      <c r="BA32" s="151"/>
-      <c r="BB32" s="151"/>
-      <c r="BC32" s="151"/>
-      <c r="BD32" s="151"/>
-      <c r="BE32" s="151"/>
-      <c r="BF32" s="151"/>
-      <c r="BG32" s="151"/>
-      <c r="BH32" s="151"/>
+      <c r="AW32" s="152"/>
+      <c r="AX32" s="152"/>
+      <c r="AY32" s="152"/>
+      <c r="AZ32" s="152"/>
+      <c r="BA32" s="152"/>
+      <c r="BB32" s="152"/>
+      <c r="BC32" s="152"/>
+      <c r="BD32" s="152"/>
+      <c r="BE32" s="152"/>
+      <c r="BF32" s="152"/>
+      <c r="BG32" s="152"/>
+      <c r="BH32" s="152"/>
     </row>
     <row r="33" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="151"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="151"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="151"/>
-      <c r="Q33" s="151"/>
-      <c r="R33" s="151"/>
-      <c r="S33" s="151"/>
-      <c r="T33" s="151"/>
-      <c r="U33" s="151"/>
-      <c r="V33" s="151"/>
-      <c r="W33" s="151"/>
-      <c r="X33" s="151"/>
-      <c r="Y33" s="151"/>
-      <c r="Z33" s="151"/>
-      <c r="AA33" s="151"/>
-      <c r="AB33" s="151"/>
-      <c r="AC33" s="151"/>
-      <c r="AD33" s="151"/>
-      <c r="AE33" s="151"/>
-      <c r="AF33" s="151"/>
-      <c r="AG33" s="151"/>
-      <c r="AH33" s="151"/>
+      <c r="A33" s="152"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="152"/>
+      <c r="R33" s="152"/>
+      <c r="S33" s="152"/>
+      <c r="T33" s="152"/>
+      <c r="U33" s="152"/>
+      <c r="V33" s="152"/>
+      <c r="W33" s="152"/>
+      <c r="X33" s="152"/>
+      <c r="Y33" s="152"/>
+      <c r="Z33" s="152"/>
+      <c r="AA33" s="152"/>
+      <c r="AB33" s="152"/>
+      <c r="AC33" s="152"/>
+      <c r="AD33" s="152"/>
+      <c r="AE33" s="152"/>
+      <c r="AF33" s="152"/>
+      <c r="AG33" s="152"/>
+      <c r="AH33" s="152"/>
       <c r="AI33" s="142"/>
       <c r="AJ33" s="142"/>
       <c r="AK33" s="142"/>
@@ -15372,55 +15372,55 @@
       <c r="AS33" s="142"/>
       <c r="AT33" s="142"/>
       <c r="AU33" s="142"/>
-      <c r="AV33" s="151"/>
-      <c r="AW33" s="151"/>
-      <c r="AX33" s="151"/>
-      <c r="AY33" s="151"/>
-      <c r="AZ33" s="151"/>
-      <c r="BA33" s="151"/>
-      <c r="BB33" s="151"/>
-      <c r="BC33" s="151"/>
-      <c r="BD33" s="151"/>
-      <c r="BE33" s="151"/>
-      <c r="BF33" s="151"/>
-      <c r="BG33" s="151"/>
-      <c r="BH33" s="151"/>
+      <c r="AV33" s="152"/>
+      <c r="AW33" s="152"/>
+      <c r="AX33" s="152"/>
+      <c r="AY33" s="152"/>
+      <c r="AZ33" s="152"/>
+      <c r="BA33" s="152"/>
+      <c r="BB33" s="152"/>
+      <c r="BC33" s="152"/>
+      <c r="BD33" s="152"/>
+      <c r="BE33" s="152"/>
+      <c r="BF33" s="152"/>
+      <c r="BG33" s="152"/>
+      <c r="BH33" s="152"/>
     </row>
     <row r="34" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="151"/>
-      <c r="B34" s="151"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
-      <c r="N34" s="151"/>
-      <c r="O34" s="151"/>
-      <c r="P34" s="151"/>
-      <c r="Q34" s="151"/>
-      <c r="R34" s="151"/>
-      <c r="S34" s="151"/>
-      <c r="T34" s="151"/>
-      <c r="U34" s="151"/>
-      <c r="V34" s="151"/>
-      <c r="W34" s="151"/>
-      <c r="X34" s="151"/>
-      <c r="Y34" s="151"/>
-      <c r="Z34" s="151"/>
-      <c r="AA34" s="151"/>
-      <c r="AB34" s="151"/>
-      <c r="AC34" s="151"/>
-      <c r="AD34" s="151"/>
-      <c r="AE34" s="151"/>
-      <c r="AF34" s="151"/>
-      <c r="AG34" s="151"/>
-      <c r="AH34" s="151"/>
+      <c r="A34" s="152"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="152"/>
+      <c r="M34" s="152"/>
+      <c r="N34" s="152"/>
+      <c r="O34" s="152"/>
+      <c r="P34" s="152"/>
+      <c r="Q34" s="152"/>
+      <c r="R34" s="152"/>
+      <c r="S34" s="152"/>
+      <c r="T34" s="152"/>
+      <c r="U34" s="152"/>
+      <c r="V34" s="152"/>
+      <c r="W34" s="152"/>
+      <c r="X34" s="152"/>
+      <c r="Y34" s="152"/>
+      <c r="Z34" s="152"/>
+      <c r="AA34" s="152"/>
+      <c r="AB34" s="152"/>
+      <c r="AC34" s="152"/>
+      <c r="AD34" s="152"/>
+      <c r="AE34" s="152"/>
+      <c r="AF34" s="152"/>
+      <c r="AG34" s="152"/>
+      <c r="AH34" s="152"/>
       <c r="AI34" s="142"/>
       <c r="AJ34" s="142"/>
       <c r="AK34" s="142"/>
@@ -15434,55 +15434,55 @@
       <c r="AS34" s="142"/>
       <c r="AT34" s="142"/>
       <c r="AU34" s="142"/>
-      <c r="AV34" s="151"/>
-      <c r="AW34" s="151"/>
-      <c r="AX34" s="151"/>
-      <c r="AY34" s="151"/>
-      <c r="AZ34" s="151"/>
-      <c r="BA34" s="151"/>
-      <c r="BB34" s="151"/>
-      <c r="BC34" s="151"/>
-      <c r="BD34" s="151"/>
-      <c r="BE34" s="151"/>
-      <c r="BF34" s="151"/>
-      <c r="BG34" s="151"/>
-      <c r="BH34" s="151"/>
+      <c r="AV34" s="152"/>
+      <c r="AW34" s="152"/>
+      <c r="AX34" s="152"/>
+      <c r="AY34" s="152"/>
+      <c r="AZ34" s="152"/>
+      <c r="BA34" s="152"/>
+      <c r="BB34" s="152"/>
+      <c r="BC34" s="152"/>
+      <c r="BD34" s="152"/>
+      <c r="BE34" s="152"/>
+      <c r="BF34" s="152"/>
+      <c r="BG34" s="152"/>
+      <c r="BH34" s="152"/>
     </row>
     <row r="35" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="151"/>
-      <c r="B35" s="151"/>
-      <c r="C35" s="151"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="151"/>
-      <c r="O35" s="151"/>
-      <c r="P35" s="151"/>
-      <c r="Q35" s="151"/>
-      <c r="R35" s="151"/>
-      <c r="S35" s="151"/>
-      <c r="T35" s="151"/>
-      <c r="U35" s="151"/>
-      <c r="V35" s="151"/>
-      <c r="W35" s="151"/>
-      <c r="X35" s="151"/>
-      <c r="Y35" s="151"/>
-      <c r="Z35" s="151"/>
-      <c r="AA35" s="151"/>
-      <c r="AB35" s="151"/>
-      <c r="AC35" s="151"/>
-      <c r="AD35" s="151"/>
-      <c r="AE35" s="151"/>
-      <c r="AF35" s="151"/>
-      <c r="AG35" s="151"/>
-      <c r="AH35" s="151"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="152"/>
+      <c r="P35" s="152"/>
+      <c r="Q35" s="152"/>
+      <c r="R35" s="152"/>
+      <c r="S35" s="152"/>
+      <c r="T35" s="152"/>
+      <c r="U35" s="152"/>
+      <c r="V35" s="152"/>
+      <c r="W35" s="152"/>
+      <c r="X35" s="152"/>
+      <c r="Y35" s="152"/>
+      <c r="Z35" s="152"/>
+      <c r="AA35" s="152"/>
+      <c r="AB35" s="152"/>
+      <c r="AC35" s="152"/>
+      <c r="AD35" s="152"/>
+      <c r="AE35" s="152"/>
+      <c r="AF35" s="152"/>
+      <c r="AG35" s="152"/>
+      <c r="AH35" s="152"/>
       <c r="AI35" s="142"/>
       <c r="AJ35" s="142"/>
       <c r="AK35" s="142"/>
@@ -15496,55 +15496,55 @@
       <c r="AS35" s="142"/>
       <c r="AT35" s="142"/>
       <c r="AU35" s="142"/>
-      <c r="AV35" s="151"/>
-      <c r="AW35" s="151"/>
-      <c r="AX35" s="151"/>
-      <c r="AY35" s="151"/>
-      <c r="AZ35" s="151"/>
-      <c r="BA35" s="151"/>
-      <c r="BB35" s="151"/>
-      <c r="BC35" s="151"/>
-      <c r="BD35" s="151"/>
-      <c r="BE35" s="151"/>
-      <c r="BF35" s="151"/>
-      <c r="BG35" s="151"/>
-      <c r="BH35" s="151"/>
+      <c r="AV35" s="152"/>
+      <c r="AW35" s="152"/>
+      <c r="AX35" s="152"/>
+      <c r="AY35" s="152"/>
+      <c r="AZ35" s="152"/>
+      <c r="BA35" s="152"/>
+      <c r="BB35" s="152"/>
+      <c r="BC35" s="152"/>
+      <c r="BD35" s="152"/>
+      <c r="BE35" s="152"/>
+      <c r="BF35" s="152"/>
+      <c r="BG35" s="152"/>
+      <c r="BH35" s="152"/>
     </row>
     <row r="36" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="151"/>
-      <c r="B36" s="151"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
-      <c r="N36" s="151"/>
-      <c r="O36" s="151"/>
-      <c r="P36" s="151"/>
-      <c r="Q36" s="151"/>
-      <c r="R36" s="151"/>
-      <c r="S36" s="151"/>
-      <c r="T36" s="151"/>
-      <c r="U36" s="151"/>
-      <c r="V36" s="151"/>
-      <c r="W36" s="151"/>
-      <c r="X36" s="151"/>
-      <c r="Y36" s="151"/>
-      <c r="Z36" s="151"/>
-      <c r="AA36" s="151"/>
-      <c r="AB36" s="151"/>
-      <c r="AC36" s="151"/>
-      <c r="AD36" s="151"/>
-      <c r="AE36" s="151"/>
-      <c r="AF36" s="151"/>
-      <c r="AG36" s="151"/>
-      <c r="AH36" s="151"/>
+      <c r="A36" s="152"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="152"/>
+      <c r="M36" s="152"/>
+      <c r="N36" s="152"/>
+      <c r="O36" s="152"/>
+      <c r="P36" s="152"/>
+      <c r="Q36" s="152"/>
+      <c r="R36" s="152"/>
+      <c r="S36" s="152"/>
+      <c r="T36" s="152"/>
+      <c r="U36" s="152"/>
+      <c r="V36" s="152"/>
+      <c r="W36" s="152"/>
+      <c r="X36" s="152"/>
+      <c r="Y36" s="152"/>
+      <c r="Z36" s="152"/>
+      <c r="AA36" s="152"/>
+      <c r="AB36" s="152"/>
+      <c r="AC36" s="152"/>
+      <c r="AD36" s="152"/>
+      <c r="AE36" s="152"/>
+      <c r="AF36" s="152"/>
+      <c r="AG36" s="152"/>
+      <c r="AH36" s="152"/>
       <c r="AI36" s="142"/>
       <c r="AJ36" s="142"/>
       <c r="AK36" s="142"/>
@@ -15558,55 +15558,55 @@
       <c r="AS36" s="142"/>
       <c r="AT36" s="142"/>
       <c r="AU36" s="142"/>
-      <c r="AV36" s="151"/>
-      <c r="AW36" s="151"/>
-      <c r="AX36" s="151"/>
-      <c r="AY36" s="151"/>
-      <c r="AZ36" s="151"/>
-      <c r="BA36" s="151"/>
-      <c r="BB36" s="151"/>
-      <c r="BC36" s="151"/>
-      <c r="BD36" s="151"/>
-      <c r="BE36" s="151"/>
-      <c r="BF36" s="151"/>
-      <c r="BG36" s="151"/>
-      <c r="BH36" s="151"/>
+      <c r="AV36" s="152"/>
+      <c r="AW36" s="152"/>
+      <c r="AX36" s="152"/>
+      <c r="AY36" s="152"/>
+      <c r="AZ36" s="152"/>
+      <c r="BA36" s="152"/>
+      <c r="BB36" s="152"/>
+      <c r="BC36" s="152"/>
+      <c r="BD36" s="152"/>
+      <c r="BE36" s="152"/>
+      <c r="BF36" s="152"/>
+      <c r="BG36" s="152"/>
+      <c r="BH36" s="152"/>
     </row>
     <row r="37" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="151"/>
-      <c r="B37" s="151"/>
-      <c r="C37" s="151"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
-      <c r="N37" s="151"/>
-      <c r="O37" s="151"/>
-      <c r="P37" s="151"/>
-      <c r="Q37" s="151"/>
-      <c r="R37" s="151"/>
-      <c r="S37" s="151"/>
-      <c r="T37" s="151"/>
-      <c r="U37" s="151"/>
-      <c r="V37" s="151"/>
-      <c r="W37" s="151"/>
-      <c r="X37" s="151"/>
-      <c r="Y37" s="151"/>
-      <c r="Z37" s="151"/>
-      <c r="AA37" s="151"/>
-      <c r="AB37" s="151"/>
-      <c r="AC37" s="151"/>
-      <c r="AD37" s="151"/>
-      <c r="AE37" s="151"/>
-      <c r="AF37" s="151"/>
-      <c r="AG37" s="151"/>
-      <c r="AH37" s="151"/>
+      <c r="A37" s="152"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="152"/>
+      <c r="M37" s="152"/>
+      <c r="N37" s="152"/>
+      <c r="O37" s="152"/>
+      <c r="P37" s="152"/>
+      <c r="Q37" s="152"/>
+      <c r="R37" s="152"/>
+      <c r="S37" s="152"/>
+      <c r="T37" s="152"/>
+      <c r="U37" s="152"/>
+      <c r="V37" s="152"/>
+      <c r="W37" s="152"/>
+      <c r="X37" s="152"/>
+      <c r="Y37" s="152"/>
+      <c r="Z37" s="152"/>
+      <c r="AA37" s="152"/>
+      <c r="AB37" s="152"/>
+      <c r="AC37" s="152"/>
+      <c r="AD37" s="152"/>
+      <c r="AE37" s="152"/>
+      <c r="AF37" s="152"/>
+      <c r="AG37" s="152"/>
+      <c r="AH37" s="152"/>
       <c r="AI37" s="142"/>
       <c r="AJ37" s="142"/>
       <c r="AK37" s="142"/>
@@ -15620,55 +15620,55 @@
       <c r="AS37" s="142"/>
       <c r="AT37" s="142"/>
       <c r="AU37" s="142"/>
-      <c r="AV37" s="151"/>
-      <c r="AW37" s="151"/>
-      <c r="AX37" s="151"/>
-      <c r="AY37" s="151"/>
-      <c r="AZ37" s="151"/>
-      <c r="BA37" s="151"/>
-      <c r="BB37" s="151"/>
-      <c r="BC37" s="151"/>
-      <c r="BD37" s="151"/>
-      <c r="BE37" s="151"/>
-      <c r="BF37" s="151"/>
-      <c r="BG37" s="151"/>
-      <c r="BH37" s="151"/>
+      <c r="AV37" s="152"/>
+      <c r="AW37" s="152"/>
+      <c r="AX37" s="152"/>
+      <c r="AY37" s="152"/>
+      <c r="AZ37" s="152"/>
+      <c r="BA37" s="152"/>
+      <c r="BB37" s="152"/>
+      <c r="BC37" s="152"/>
+      <c r="BD37" s="152"/>
+      <c r="BE37" s="152"/>
+      <c r="BF37" s="152"/>
+      <c r="BG37" s="152"/>
+      <c r="BH37" s="152"/>
     </row>
     <row r="38" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="151"/>
-      <c r="B38" s="151"/>
-      <c r="C38" s="151"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="151"/>
-      <c r="P38" s="151"/>
-      <c r="Q38" s="151"/>
-      <c r="R38" s="151"/>
-      <c r="S38" s="151"/>
-      <c r="T38" s="151"/>
-      <c r="U38" s="151"/>
-      <c r="V38" s="151"/>
-      <c r="W38" s="151"/>
-      <c r="X38" s="151"/>
-      <c r="Y38" s="151"/>
-      <c r="Z38" s="151"/>
-      <c r="AA38" s="151"/>
-      <c r="AB38" s="151"/>
-      <c r="AC38" s="151"/>
-      <c r="AD38" s="151"/>
-      <c r="AE38" s="151"/>
-      <c r="AF38" s="151"/>
-      <c r="AG38" s="151"/>
-      <c r="AH38" s="151"/>
+      <c r="A38" s="152"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="152"/>
+      <c r="M38" s="152"/>
+      <c r="N38" s="152"/>
+      <c r="O38" s="152"/>
+      <c r="P38" s="152"/>
+      <c r="Q38" s="152"/>
+      <c r="R38" s="152"/>
+      <c r="S38" s="152"/>
+      <c r="T38" s="152"/>
+      <c r="U38" s="152"/>
+      <c r="V38" s="152"/>
+      <c r="W38" s="152"/>
+      <c r="X38" s="152"/>
+      <c r="Y38" s="152"/>
+      <c r="Z38" s="152"/>
+      <c r="AA38" s="152"/>
+      <c r="AB38" s="152"/>
+      <c r="AC38" s="152"/>
+      <c r="AD38" s="152"/>
+      <c r="AE38" s="152"/>
+      <c r="AF38" s="152"/>
+      <c r="AG38" s="152"/>
+      <c r="AH38" s="152"/>
       <c r="AI38" s="142"/>
       <c r="AJ38" s="142"/>
       <c r="AK38" s="142"/>
@@ -15682,55 +15682,55 @@
       <c r="AS38" s="142"/>
       <c r="AT38" s="142"/>
       <c r="AU38" s="142"/>
-      <c r="AV38" s="151"/>
-      <c r="AW38" s="151"/>
-      <c r="AX38" s="151"/>
-      <c r="AY38" s="151"/>
-      <c r="AZ38" s="151"/>
-      <c r="BA38" s="151"/>
-      <c r="BB38" s="151"/>
-      <c r="BC38" s="151"/>
-      <c r="BD38" s="151"/>
-      <c r="BE38" s="151"/>
-      <c r="BF38" s="151"/>
-      <c r="BG38" s="151"/>
-      <c r="BH38" s="151"/>
+      <c r="AV38" s="152"/>
+      <c r="AW38" s="152"/>
+      <c r="AX38" s="152"/>
+      <c r="AY38" s="152"/>
+      <c r="AZ38" s="152"/>
+      <c r="BA38" s="152"/>
+      <c r="BB38" s="152"/>
+      <c r="BC38" s="152"/>
+      <c r="BD38" s="152"/>
+      <c r="BE38" s="152"/>
+      <c r="BF38" s="152"/>
+      <c r="BG38" s="152"/>
+      <c r="BH38" s="152"/>
     </row>
     <row r="39" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="151"/>
-      <c r="B39" s="151"/>
-      <c r="C39" s="151"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="151"/>
-      <c r="P39" s="151"/>
-      <c r="Q39" s="151"/>
-      <c r="R39" s="151"/>
-      <c r="S39" s="151"/>
-      <c r="T39" s="151"/>
-      <c r="U39" s="151"/>
-      <c r="V39" s="151"/>
-      <c r="W39" s="151"/>
-      <c r="X39" s="151"/>
-      <c r="Y39" s="151"/>
-      <c r="Z39" s="151"/>
-      <c r="AA39" s="151"/>
-      <c r="AB39" s="151"/>
-      <c r="AC39" s="151"/>
-      <c r="AD39" s="151"/>
-      <c r="AE39" s="151"/>
-      <c r="AF39" s="151"/>
-      <c r="AG39" s="151"/>
-      <c r="AH39" s="151"/>
+      <c r="A39" s="152"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="152"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="152"/>
+      <c r="O39" s="152"/>
+      <c r="P39" s="152"/>
+      <c r="Q39" s="152"/>
+      <c r="R39" s="152"/>
+      <c r="S39" s="152"/>
+      <c r="T39" s="152"/>
+      <c r="U39" s="152"/>
+      <c r="V39" s="152"/>
+      <c r="W39" s="152"/>
+      <c r="X39" s="152"/>
+      <c r="Y39" s="152"/>
+      <c r="Z39" s="152"/>
+      <c r="AA39" s="152"/>
+      <c r="AB39" s="152"/>
+      <c r="AC39" s="152"/>
+      <c r="AD39" s="152"/>
+      <c r="AE39" s="152"/>
+      <c r="AF39" s="152"/>
+      <c r="AG39" s="152"/>
+      <c r="AH39" s="152"/>
       <c r="AI39" s="142"/>
       <c r="AJ39" s="142"/>
       <c r="AK39" s="142"/>
@@ -15744,19 +15744,19 @@
       <c r="AS39" s="142"/>
       <c r="AT39" s="142"/>
       <c r="AU39" s="142"/>
-      <c r="AV39" s="151"/>
-      <c r="AW39" s="151"/>
-      <c r="AX39" s="151"/>
-      <c r="AY39" s="151"/>
-      <c r="AZ39" s="151"/>
-      <c r="BA39" s="151"/>
-      <c r="BB39" s="151"/>
-      <c r="BC39" s="151"/>
-      <c r="BD39" s="151"/>
-      <c r="BE39" s="151"/>
-      <c r="BF39" s="151"/>
-      <c r="BG39" s="151"/>
-      <c r="BH39" s="151"/>
+      <c r="AV39" s="152"/>
+      <c r="AW39" s="152"/>
+      <c r="AX39" s="152"/>
+      <c r="AY39" s="152"/>
+      <c r="AZ39" s="152"/>
+      <c r="BA39" s="152"/>
+      <c r="BB39" s="152"/>
+      <c r="BC39" s="152"/>
+      <c r="BD39" s="152"/>
+      <c r="BE39" s="152"/>
+      <c r="BF39" s="152"/>
+      <c r="BG39" s="152"/>
+      <c r="BH39" s="152"/>
     </row>
     <row r="40" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6"/>
@@ -15822,50 +15822,204 @@
     </row>
   </sheetData>
   <mergeCells count="277">
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AJ15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="AC4:AR4"/>
-    <mergeCell ref="AK5:AR6"/>
-    <mergeCell ref="AC5:AJ6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="AS27:BH27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AJ27"/>
+    <mergeCell ref="AK27:AR27"/>
+    <mergeCell ref="AS25:BH25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AJ26"/>
+    <mergeCell ref="AK26:AR26"/>
+    <mergeCell ref="AS26:BH26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AJ25"/>
+    <mergeCell ref="AK25:AR25"/>
+    <mergeCell ref="AK23:AR23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AJ24"/>
+    <mergeCell ref="AK24:AR24"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AV37:BH37"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="L34:AH34"/>
+    <mergeCell ref="AI34:AU34"/>
+    <mergeCell ref="AV34:BH34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="L35:AH35"/>
+    <mergeCell ref="AI35:AU35"/>
+    <mergeCell ref="AV35:BH35"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AJ17"/>
+    <mergeCell ref="AK17:AR17"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="L38:AH38"/>
+    <mergeCell ref="AI38:AU38"/>
+    <mergeCell ref="AV38:BH38"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="L39:AH39"/>
+    <mergeCell ref="AI39:AU39"/>
+    <mergeCell ref="AV39:BH39"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L36:AH36"/>
+    <mergeCell ref="AI36:AU36"/>
+    <mergeCell ref="AV36:BH36"/>
+    <mergeCell ref="AC20:AJ20"/>
+    <mergeCell ref="AK20:AR20"/>
+    <mergeCell ref="AC19:AJ19"/>
+    <mergeCell ref="AK19:AR19"/>
+    <mergeCell ref="AS19:BH19"/>
+    <mergeCell ref="AS20:BH20"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="L37:AH37"/>
+    <mergeCell ref="AI37:AU37"/>
+    <mergeCell ref="AS17:BH17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AJ18"/>
+    <mergeCell ref="AK18:AR18"/>
+    <mergeCell ref="AS18:BH18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AI32:AU32"/>
+    <mergeCell ref="AV32:BH32"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="L33:AH33"/>
+    <mergeCell ref="AI33:AU33"/>
+    <mergeCell ref="AV33:BH33"/>
+    <mergeCell ref="AV30:BH30"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="AI30:AU30"/>
+    <mergeCell ref="L30:AH30"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="L31:AH31"/>
+    <mergeCell ref="AI31:AU31"/>
+    <mergeCell ref="AV31:BH31"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="L32:AH32"/>
+    <mergeCell ref="AS22:BH22"/>
+    <mergeCell ref="AS23:BH23"/>
+    <mergeCell ref="AS24:BH24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AJ21"/>
+    <mergeCell ref="AK21:AR21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="AS21:BH21"/>
+    <mergeCell ref="AC22:AJ22"/>
+    <mergeCell ref="AK22:AR22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AJ23"/>
+    <mergeCell ref="AK15:AR15"/>
+    <mergeCell ref="AC16:AJ16"/>
+    <mergeCell ref="AK16:AR16"/>
+    <mergeCell ref="AS16:BH16"/>
+    <mergeCell ref="AS15:BH15"/>
+    <mergeCell ref="AK7:AR7"/>
+    <mergeCell ref="AK8:AR8"/>
+    <mergeCell ref="AK9:AR9"/>
+    <mergeCell ref="AK10:AR10"/>
+    <mergeCell ref="AK11:AR11"/>
+    <mergeCell ref="AK12:AR12"/>
+    <mergeCell ref="AK13:AR13"/>
+    <mergeCell ref="AC14:AJ14"/>
+    <mergeCell ref="AK14:AR14"/>
+    <mergeCell ref="AS7:BH7"/>
+    <mergeCell ref="AS8:BH8"/>
+    <mergeCell ref="AS9:BH9"/>
+    <mergeCell ref="AS10:BH10"/>
+    <mergeCell ref="AS11:BH11"/>
+    <mergeCell ref="AS12:BH12"/>
+    <mergeCell ref="AS13:BH13"/>
+    <mergeCell ref="AS14:BH14"/>
+    <mergeCell ref="AC13:AJ13"/>
+    <mergeCell ref="AC7:AJ7"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="S4:AB4"/>
+    <mergeCell ref="T5:X6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M10:P10"/>
     <mergeCell ref="AS4:BH6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:L7"/>
@@ -15890,30 +16044,15 @@
     <mergeCell ref="Q4:R6"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="S4:AB4"/>
-    <mergeCell ref="T5:X6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="AC4:AR4"/>
+    <mergeCell ref="AK5:AR6"/>
+    <mergeCell ref="AC5:AJ6"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
     <mergeCell ref="AC8:AJ8"/>
     <mergeCell ref="AC9:AJ9"/>
     <mergeCell ref="AC10:AJ10"/>
@@ -15925,180 +16064,41 @@
     <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="AA10:AB10"/>
     <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AK15:AR15"/>
-    <mergeCell ref="AC16:AJ16"/>
-    <mergeCell ref="AK16:AR16"/>
-    <mergeCell ref="AS16:BH16"/>
-    <mergeCell ref="AS15:BH15"/>
-    <mergeCell ref="AK7:AR7"/>
-    <mergeCell ref="AK8:AR8"/>
-    <mergeCell ref="AK9:AR9"/>
-    <mergeCell ref="AK10:AR10"/>
-    <mergeCell ref="AK11:AR11"/>
-    <mergeCell ref="AK12:AR12"/>
-    <mergeCell ref="AK13:AR13"/>
-    <mergeCell ref="AC14:AJ14"/>
-    <mergeCell ref="AK14:AR14"/>
-    <mergeCell ref="AS7:BH7"/>
-    <mergeCell ref="AS8:BH8"/>
-    <mergeCell ref="AS9:BH9"/>
-    <mergeCell ref="AS10:BH10"/>
-    <mergeCell ref="AS11:BH11"/>
-    <mergeCell ref="AS12:BH12"/>
-    <mergeCell ref="AS13:BH13"/>
-    <mergeCell ref="AS14:BH14"/>
-    <mergeCell ref="AC13:AJ13"/>
-    <mergeCell ref="AC7:AJ7"/>
-    <mergeCell ref="AS22:BH22"/>
-    <mergeCell ref="AS23:BH23"/>
-    <mergeCell ref="AS24:BH24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AJ21"/>
-    <mergeCell ref="AK21:AR21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="AS21:BH21"/>
-    <mergeCell ref="AC22:AJ22"/>
-    <mergeCell ref="AK22:AR22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AJ23"/>
-    <mergeCell ref="AI32:AU32"/>
-    <mergeCell ref="AV32:BH32"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="L33:AH33"/>
-    <mergeCell ref="AI33:AU33"/>
-    <mergeCell ref="AV33:BH33"/>
-    <mergeCell ref="AV30:BH30"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="AI30:AU30"/>
-    <mergeCell ref="L30:AH30"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="L31:AH31"/>
-    <mergeCell ref="AI31:AU31"/>
-    <mergeCell ref="AV31:BH31"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="L32:AH32"/>
-    <mergeCell ref="AS17:BH17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AJ18"/>
-    <mergeCell ref="AK18:AR18"/>
-    <mergeCell ref="AS18:BH18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AJ17"/>
-    <mergeCell ref="AK17:AR17"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="L38:AH38"/>
-    <mergeCell ref="AI38:AU38"/>
-    <mergeCell ref="AV38:BH38"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="L39:AH39"/>
-    <mergeCell ref="AI39:AU39"/>
-    <mergeCell ref="AV39:BH39"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="L36:AH36"/>
-    <mergeCell ref="AI36:AU36"/>
-    <mergeCell ref="AV36:BH36"/>
-    <mergeCell ref="AC20:AJ20"/>
-    <mergeCell ref="AK20:AR20"/>
-    <mergeCell ref="AC19:AJ19"/>
-    <mergeCell ref="AK19:AR19"/>
-    <mergeCell ref="AS19:BH19"/>
-    <mergeCell ref="AS20:BH20"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="L37:AH37"/>
-    <mergeCell ref="AI37:AU37"/>
-    <mergeCell ref="AV37:BH37"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="L34:AH34"/>
-    <mergeCell ref="AI34:AU34"/>
-    <mergeCell ref="AV34:BH34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="L35:AH35"/>
-    <mergeCell ref="AI35:AU35"/>
-    <mergeCell ref="AV35:BH35"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AK23:AR23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AJ24"/>
-    <mergeCell ref="AK24:AR24"/>
-    <mergeCell ref="AS25:BH25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AJ26"/>
-    <mergeCell ref="AK26:AR26"/>
-    <mergeCell ref="AS26:BH26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AJ25"/>
-    <mergeCell ref="AK25:AR25"/>
-    <mergeCell ref="AS27:BH27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AJ27"/>
-    <mergeCell ref="AK27:AR27"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AJ15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="C13:L13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16116,8 +16116,8 @@
   </sheetPr>
   <dimension ref="A1:AX200"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A82" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AS95" sqref="AS95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -16128,133 +16128,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="184" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="185" t="s">
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="186" t="str">
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="188"/>
+      <c r="P1" s="188"/>
+      <c r="Q1" s="188"/>
+      <c r="R1" s="188"/>
+      <c r="S1" s="189" t="str">
         <f>'0.表紙'!O25</f>
         <v>顧客情報更新画面</v>
       </c>
-      <c r="T1" s="186"/>
-      <c r="U1" s="186"/>
-      <c r="V1" s="186"/>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="186"/>
-      <c r="AA1" s="186"/>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="186"/>
-      <c r="AD1" s="186"/>
-      <c r="AE1" s="187" t="s">
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
+      <c r="AD1" s="189"/>
+      <c r="AE1" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="187"/>
-      <c r="AG1" s="187"/>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="182" t="s">
+      <c r="AF1" s="190"/>
+      <c r="AG1" s="190"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="AJ1" s="183"/>
-      <c r="AK1" s="183"/>
-      <c r="AL1" s="183"/>
-      <c r="AM1" s="183"/>
-      <c r="AN1" s="184"/>
-      <c r="AO1" s="190" t="s">
+      <c r="AJ1" s="193"/>
+      <c r="AK1" s="193"/>
+      <c r="AL1" s="193"/>
+      <c r="AM1" s="193"/>
+      <c r="AN1" s="194"/>
+      <c r="AO1" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" s="191"/>
-      <c r="AQ1" s="191"/>
-      <c r="AR1" s="192"/>
-      <c r="AS1" s="182" t="s">
+      <c r="AP1" s="197"/>
+      <c r="AQ1" s="197"/>
+      <c r="AR1" s="198"/>
+      <c r="AS1" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="AT1" s="183"/>
-      <c r="AU1" s="183"/>
-      <c r="AV1" s="183"/>
-      <c r="AW1" s="183"/>
-      <c r="AX1" s="184"/>
+      <c r="AT1" s="193"/>
+      <c r="AU1" s="193"/>
+      <c r="AV1" s="193"/>
+      <c r="AW1" s="193"/>
+      <c r="AX1" s="194"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="195"/>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="185" t="s">
+      <c r="A2" s="186"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="186"/>
-      <c r="AD2" s="186"/>
-      <c r="AE2" s="187" t="s">
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="189"/>
+      <c r="AB2" s="189"/>
+      <c r="AC2" s="189"/>
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="187"/>
-      <c r="AG2" s="187"/>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="189">
+      <c r="AF2" s="190"/>
+      <c r="AG2" s="190"/>
+      <c r="AH2" s="191"/>
+      <c r="AI2" s="195">
         <v>44537</v>
       </c>
-      <c r="AJ2" s="183"/>
-      <c r="AK2" s="183"/>
-      <c r="AL2" s="183"/>
-      <c r="AM2" s="183"/>
-      <c r="AN2" s="184"/>
-      <c r="AO2" s="190" t="s">
+      <c r="AJ2" s="193"/>
+      <c r="AK2" s="193"/>
+      <c r="AL2" s="193"/>
+      <c r="AM2" s="193"/>
+      <c r="AN2" s="194"/>
+      <c r="AO2" s="196" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="191"/>
-      <c r="AQ2" s="191"/>
-      <c r="AR2" s="192"/>
-      <c r="AS2" s="189">
+      <c r="AP2" s="197"/>
+      <c r="AQ2" s="197"/>
+      <c r="AR2" s="198"/>
+      <c r="AS2" s="195">
         <v>44539</v>
       </c>
-      <c r="AT2" s="183"/>
-      <c r="AU2" s="183"/>
-      <c r="AV2" s="183"/>
-      <c r="AW2" s="183"/>
-      <c r="AX2" s="184"/>
+      <c r="AT2" s="193"/>
+      <c r="AU2" s="193"/>
+      <c r="AV2" s="193"/>
+      <c r="AW2" s="193"/>
+      <c r="AX2" s="194"/>
     </row>
     <row r="3" spans="1:50" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="21"/>
@@ -16364,22 +16364,22 @@
     </row>
     <row r="5" spans="1:50" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="24"/>
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="198"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="177" t="s">
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="177"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
       <c r="N5" s="19" t="s">
         <v>52</v>
       </c>
@@ -16428,22 +16428,22 @@
     </row>
     <row r="6" spans="1:50" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="24"/>
-      <c r="B6" s="197" t="s">
+      <c r="B6" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="163" t="s">
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="177"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20" t="s">
         <v>45</v>
@@ -16488,22 +16488,22 @@
     </row>
     <row r="7" spans="1:50" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24"/>
-      <c r="B7" s="197" t="s">
+      <c r="B7" s="182" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="163" t="s">
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20" t="s">
         <v>45</v>
@@ -16546,18 +16546,18 @@
     </row>
     <row r="8" spans="1:50" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="24"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
@@ -16598,18 +16598,18 @@
     </row>
     <row r="9" spans="1:50" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="24"/>
-      <c r="B9" s="197"/>
-      <c r="C9" s="197"/>
-      <c r="D9" s="197"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
@@ -17400,7 +17400,7 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
@@ -19814,7 +19814,7 @@
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F69" s="43"/>
       <c r="G69" s="43"/>
@@ -20358,7 +20358,7 @@
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
       <c r="E79" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
@@ -20750,7 +20750,7 @@
       <c r="U86" s="33"/>
       <c r="V86" s="33"/>
       <c r="W86" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X86" s="33"/>
       <c r="Y86" s="33"/>
@@ -20804,7 +20804,7 @@
       <c r="U87" s="33"/>
       <c r="V87" s="33"/>
       <c r="W87" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X87" s="33"/>
       <c r="Y87" s="33"/>
@@ -20946,7 +20946,7 @@
       <c r="C90" s="33"/>
       <c r="D90" s="33"/>
       <c r="E90" s="33" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
@@ -21160,7 +21160,7 @@
       <c r="C94" s="33"/>
       <c r="D94" s="34"/>
       <c r="E94" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
@@ -21266,7 +21266,7 @@
       <c r="C96" s="33"/>
       <c r="D96" s="34"/>
       <c r="E96" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
@@ -21333,7 +21333,7 @@
       <c r="P97" s="33"/>
       <c r="Q97" s="33"/>
       <c r="R97" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S97" s="33"/>
       <c r="T97" s="33"/>
@@ -21479,7 +21479,7 @@
       <c r="B100" s="33"/>
       <c r="C100" s="33"/>
       <c r="D100" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E100" s="33"/>
       <c r="F100" s="33"/>
@@ -21694,7 +21694,7 @@
       <c r="C104" s="33"/>
       <c r="D104" s="34"/>
       <c r="E104" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -21799,7 +21799,7 @@
       <c r="C106" s="33"/>
       <c r="D106" s="34"/>
       <c r="E106" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -21863,7 +21863,7 @@
       <c r="M107" s="33"/>
       <c r="N107" s="33"/>
       <c r="O107" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P107" s="33"/>
       <c r="Q107" s="33"/>
@@ -22012,7 +22012,7 @@
       <c r="B110" s="33"/>
       <c r="C110" s="33"/>
       <c r="D110" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E110" s="33"/>
       <c r="F110" s="33"/>
@@ -22067,7 +22067,7 @@
       <c r="C111" s="33"/>
       <c r="D111" s="34"/>
       <c r="E111" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
@@ -22173,7 +22173,7 @@
       <c r="C113" s="33"/>
       <c r="D113" s="33"/>
       <c r="E113" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
@@ -22278,7 +22278,7 @@
       <c r="B115" s="33"/>
       <c r="C115" s="33"/>
       <c r="D115" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E115" s="33"/>
       <c r="F115" s="33"/>
@@ -22493,7 +22493,7 @@
       <c r="C119" s="33"/>
       <c r="D119" s="34"/>
       <c r="E119" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
@@ -22599,7 +22599,7 @@
       <c r="C121" s="33"/>
       <c r="D121" s="34"/>
       <c r="E121" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
@@ -22665,7 +22665,7 @@
       <c r="O122" s="33"/>
       <c r="P122" s="33"/>
       <c r="Q122" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R122" s="33"/>
       <c r="S122" s="33"/>
@@ -22812,7 +22812,7 @@
       <c r="B125" s="33"/>
       <c r="C125" s="33"/>
       <c r="D125" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E125" s="33"/>
       <c r="F125" s="33"/>
@@ -22973,7 +22973,7 @@
       <c r="C128" s="33"/>
       <c r="D128" s="33"/>
       <c r="E128" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
@@ -23084,7 +23084,7 @@
       <c r="D130" s="33"/>
       <c r="E130" s="33"/>
       <c r="F130" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G130" s="33"/>
       <c r="H130" s="33"/>
@@ -23243,7 +23243,7 @@
       <c r="C133" s="33"/>
       <c r="D133" s="33"/>
       <c r="E133" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -23402,7 +23402,7 @@
       <c r="B136" s="33"/>
       <c r="C136" s="33"/>
       <c r="D136" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E136" s="33"/>
       <c r="F136" s="33"/>
@@ -23509,7 +23509,7 @@
       <c r="C138" s="33"/>
       <c r="D138" s="33"/>
       <c r="E138" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G138" s="33"/>
       <c r="H138" s="33"/>
@@ -23614,7 +23614,7 @@
       <c r="C140" s="33"/>
       <c r="D140" s="33"/>
       <c r="E140" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
@@ -23827,7 +23827,7 @@
       <c r="B144" s="33"/>
       <c r="C144" s="33"/>
       <c r="D144" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E144" s="33"/>
       <c r="F144" s="33"/>
@@ -24538,7 +24538,7 @@
       <c r="I157" s="51"/>
       <c r="J157" s="74"/>
       <c r="K157" s="50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L157" s="50"/>
       <c r="M157" s="50"/>
@@ -25074,7 +25074,7 @@
       <c r="C167" s="33"/>
       <c r="D167" s="33"/>
       <c r="E167" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
@@ -25180,7 +25180,7 @@
       <c r="C169" s="33"/>
       <c r="D169" s="33"/>
       <c r="E169" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
@@ -25247,7 +25247,7 @@
       <c r="P170" s="33"/>
       <c r="Q170" s="33"/>
       <c r="R170" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S170" s="33"/>
       <c r="T170" s="33"/>
@@ -25447,7 +25447,7 @@
       <c r="B174" s="33"/>
       <c r="C174" s="33"/>
       <c r="D174" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E174" s="33"/>
       <c r="F174" s="33"/>
@@ -26852,6 +26852,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AS1:AX1"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AS2:AX2"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="B9:H9"/>
@@ -26862,19 +26875,6 @@
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="AS1:AX1"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AS2:AX2"/>
-    <mergeCell ref="AO1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.詳細設計/2-4_詳細設計_顧客情報更新画面.xlsx
+++ b/2.詳細設計/2-4_詳細設計_顧客情報更新画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\2.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3382058D-FBAD-4DDB-A77D-D2DE1D75012B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4054B022-B9C5-48C5-A52F-9DF7D6FC7737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="270" windowWidth="16050" windowHeight="15105" tabRatio="747" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11595" yWindow="330" windowWidth="15600" windowHeight="15555" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.表紙" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="233">
   <si>
     <t>詳細設計書</t>
   </si>
@@ -2806,6 +2806,29 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3.入出力定義</t>
+    <rPh sb="2" eb="7">
+      <t>ニュウシュツリョクテイギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>苗字・名前の画面桁数の変更</t>
+    <rPh sb="0" eb="2">
+      <t>ミョウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ガメンケタスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3736,15 +3759,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3756,6 +3770,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7231,8 +7254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8282,7 +8305,7 @@
       <c r="M29" s="100"/>
       <c r="N29" s="101"/>
       <c r="O29" s="105">
-        <v>44539</v>
+        <v>44565</v>
       </c>
       <c r="P29" s="100"/>
       <c r="Q29" s="100"/>
@@ -8736,7 +8759,7 @@
   <dimension ref="A1:AX40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7:AX7"/>
+      <selection activeCell="K11" sqref="K11:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9080,15 +9103,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="111"/>
-      <c r="C7" s="117"/>
+      <c r="C7" s="117">
+        <v>44565</v>
+      </c>
       <c r="D7" s="108"/>
       <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
+      <c r="F7" s="108" t="s">
+        <v>5</v>
+      </c>
       <c r="G7" s="108"/>
       <c r="H7" s="108"/>
       <c r="I7" s="108"/>
       <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
+      <c r="K7" s="120" t="s">
+        <v>231</v>
+      </c>
       <c r="L7" s="108"/>
       <c r="M7" s="108"/>
       <c r="N7" s="108"/>
@@ -9098,7 +9127,9 @@
       <c r="R7" s="108"/>
       <c r="S7" s="108"/>
       <c r="T7" s="108"/>
-      <c r="U7" s="119"/>
+      <c r="U7" s="119" t="s">
+        <v>232</v>
+      </c>
       <c r="V7" s="119"/>
       <c r="W7" s="119"/>
       <c r="X7" s="119"/>
@@ -12005,7 +12036,7 @@
   <dimension ref="A1:CO40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:L23"/>
+      <selection activeCell="BB3" sqref="BB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12153,7 +12184,7 @@
       <c r="AZ2" s="155"/>
       <c r="BA2" s="155"/>
       <c r="BB2" s="153">
-        <v>44538</v>
+        <v>44565</v>
       </c>
       <c r="BC2" s="153"/>
       <c r="BD2" s="153"/>
@@ -12535,10 +12566,10 @@
       <c r="CO6" s="18"/>
     </row>
     <row r="7" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="142">
+      <c r="A7" s="139">
         <v>1</v>
       </c>
-      <c r="B7" s="142"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="151" t="s">
         <v>62</v>
       </c>
@@ -12652,28 +12683,28 @@
       <c r="CO7" s="18"/>
     </row>
     <row r="8" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="142">
+      <c r="A8" s="139">
         <v>2</v>
       </c>
-      <c r="B8" s="142"/>
-      <c r="C8" s="143" t="s">
+      <c r="B8" s="139"/>
+      <c r="C8" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="139" t="s">
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="140"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="141"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="145"/>
       <c r="Q8" s="146" t="s">
         <v>26</v>
       </c>
@@ -12689,7 +12720,7 @@
       <c r="W8" s="148"/>
       <c r="X8" s="147"/>
       <c r="Y8" s="146">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z8" s="147"/>
       <c r="AA8" s="146" t="s">
@@ -12769,28 +12800,28 @@
       <c r="CO8" s="18"/>
     </row>
     <row r="9" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="142">
+      <c r="A9" s="139">
         <v>3</v>
       </c>
-      <c r="B9" s="142"/>
-      <c r="C9" s="143" t="s">
+      <c r="B9" s="139"/>
+      <c r="C9" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="139" t="s">
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="140"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="141"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="145"/>
       <c r="Q9" s="146" t="s">
         <v>26</v>
       </c>
@@ -12806,7 +12837,7 @@
       <c r="W9" s="148"/>
       <c r="X9" s="147"/>
       <c r="Y9" s="146">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Z9" s="147"/>
       <c r="AA9" s="146" t="s">
@@ -12886,28 +12917,28 @@
       <c r="CO9" s="18"/>
     </row>
     <row r="10" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="142">
+      <c r="A10" s="139">
         <v>4</v>
       </c>
-      <c r="B10" s="142"/>
-      <c r="C10" s="143" t="s">
+      <c r="B10" s="139"/>
+      <c r="C10" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="139" t="s">
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="140"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="141"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="145"/>
       <c r="Q10" s="146" t="s">
         <v>26</v>
       </c>
@@ -12923,7 +12954,7 @@
       <c r="W10" s="148"/>
       <c r="X10" s="147"/>
       <c r="Y10" s="146">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Z10" s="147"/>
       <c r="AA10" s="146" t="s">
@@ -13003,28 +13034,28 @@
       <c r="CO10" s="18"/>
     </row>
     <row r="11" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="142">
+      <c r="A11" s="139">
         <v>5</v>
       </c>
-      <c r="B11" s="142"/>
-      <c r="C11" s="143" t="s">
+      <c r="B11" s="139"/>
+      <c r="C11" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="139" t="s">
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="142"/>
+      <c r="M11" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="140"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="141"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="145"/>
       <c r="Q11" s="146" t="s">
         <v>26</v>
       </c>
@@ -13040,7 +13071,7 @@
       <c r="W11" s="148"/>
       <c r="X11" s="147"/>
       <c r="Y11" s="146">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Z11" s="147"/>
       <c r="AA11" s="146" t="s">
@@ -13120,28 +13151,28 @@
       <c r="CO11" s="18"/>
     </row>
     <row r="12" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="142">
+      <c r="A12" s="139">
         <v>6</v>
       </c>
-      <c r="B12" s="142"/>
-      <c r="C12" s="139" t="s">
+      <c r="B12" s="139"/>
+      <c r="C12" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="139" t="s">
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="140"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="141"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="145"/>
       <c r="Q12" s="146" t="s">
         <v>26</v>
       </c>
@@ -13237,28 +13268,28 @@
       <c r="CO12" s="18"/>
     </row>
     <row r="13" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="142">
+      <c r="A13" s="139">
         <v>7</v>
       </c>
-      <c r="B13" s="142"/>
-      <c r="C13" s="139" t="s">
+      <c r="B13" s="139"/>
+      <c r="C13" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="139" t="s">
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="140"/>
-      <c r="O13" s="140"/>
-      <c r="P13" s="141"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="145"/>
       <c r="Q13" s="146" t="s">
         <v>26</v>
       </c>
@@ -13354,28 +13385,28 @@
       <c r="CO13" s="18"/>
     </row>
     <row r="14" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="142">
+      <c r="A14" s="139">
         <v>8</v>
       </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="139" t="s">
+      <c r="B14" s="139"/>
+      <c r="C14" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="139" t="s">
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="141"/>
+      <c r="N14" s="144"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="145"/>
       <c r="Q14" s="146" t="s">
         <v>26</v>
       </c>
@@ -13471,28 +13502,28 @@
       <c r="CO14" s="18"/>
     </row>
     <row r="15" spans="1:93" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="142">
+      <c r="A15" s="139">
         <v>9</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="139" t="s">
+      <c r="B15" s="139"/>
+      <c r="C15" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="139" t="s">
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="N15" s="140"/>
-      <c r="O15" s="140"/>
-      <c r="P15" s="141"/>
+      <c r="N15" s="144"/>
+      <c r="O15" s="144"/>
+      <c r="P15" s="145"/>
       <c r="Q15" s="146" t="s">
         <v>26</v>
       </c>
@@ -13587,28 +13618,28 @@
       <c r="CO15" s="18"/>
     </row>
     <row r="16" spans="1:93" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="142">
+      <c r="A16" s="139">
         <v>10</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="139" t="s">
+      <c r="B16" s="139"/>
+      <c r="C16" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="139" t="s">
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="145"/>
+      <c r="M16" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="140"/>
-      <c r="O16" s="140"/>
-      <c r="P16" s="141"/>
+      <c r="N16" s="144"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="145"/>
       <c r="Q16" s="146" t="s">
         <v>26</v>
       </c>
@@ -13703,28 +13734,28 @@
       <c r="CO16" s="18"/>
     </row>
     <row r="17" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="142">
+      <c r="A17" s="139">
         <v>11</v>
       </c>
-      <c r="B17" s="142"/>
-      <c r="C17" s="139" t="s">
+      <c r="B17" s="139"/>
+      <c r="C17" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="140"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="139" t="s">
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="N17" s="140"/>
-      <c r="O17" s="140"/>
-      <c r="P17" s="141"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="145"/>
       <c r="Q17" s="146" t="s">
         <v>26</v>
       </c>
@@ -13819,28 +13850,28 @@
       <c r="CO17" s="18"/>
     </row>
     <row r="18" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="142">
+      <c r="A18" s="139">
         <v>12</v>
       </c>
-      <c r="B18" s="142"/>
-      <c r="C18" s="139" t="s">
+      <c r="B18" s="139"/>
+      <c r="C18" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="139" t="s">
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="140"/>
-      <c r="O18" s="140"/>
-      <c r="P18" s="141"/>
+      <c r="N18" s="144"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="145"/>
       <c r="Q18" s="146" t="s">
         <v>26</v>
       </c>
@@ -13935,10 +13966,10 @@
       <c r="CO18" s="18"/>
     </row>
     <row r="19" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="142">
+      <c r="A19" s="139">
         <v>13</v>
       </c>
-      <c r="B19" s="142"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="151" t="s">
         <v>91</v>
       </c>
@@ -14051,10 +14082,10 @@
       <c r="CO19" s="18"/>
     </row>
     <row r="20" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="142">
+      <c r="A20" s="139">
         <v>14</v>
       </c>
-      <c r="B20" s="142"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="151" t="s">
         <v>92</v>
       </c>
@@ -14167,10 +14198,10 @@
       <c r="CO20" s="18"/>
     </row>
     <row r="21" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="142">
+      <c r="A21" s="139">
         <v>15</v>
       </c>
-      <c r="B21" s="142"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="151" t="s">
         <v>147</v>
       </c>
@@ -14281,10 +14312,10 @@
       <c r="CO21" s="18"/>
     </row>
     <row r="22" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="142">
+      <c r="A22" s="139">
         <v>16</v>
       </c>
-      <c r="B22" s="142"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="151" t="s">
         <v>150</v>
       </c>
@@ -14397,10 +14428,10 @@
       <c r="CO22" s="18"/>
     </row>
     <row r="23" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="142">
+      <c r="A23" s="139">
         <v>17</v>
       </c>
-      <c r="B23" s="142"/>
+      <c r="B23" s="139"/>
       <c r="C23" s="151" t="s">
         <v>151</v>
       </c>
@@ -14513,10 +14544,10 @@
       <c r="CO23" s="18"/>
     </row>
     <row r="24" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="142">
+      <c r="A24" s="139">
         <v>18</v>
       </c>
-      <c r="B24" s="142"/>
+      <c r="B24" s="139"/>
       <c r="C24" s="151" t="s">
         <v>70</v>
       </c>
@@ -14629,10 +14660,10 @@
       <c r="CO24" s="18"/>
     </row>
     <row r="25" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="142">
+      <c r="A25" s="139">
         <v>19</v>
       </c>
-      <c r="B25" s="142"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="151" t="s">
         <v>149</v>
       </c>
@@ -14745,10 +14776,10 @@
       <c r="CO25" s="18"/>
     </row>
     <row r="26" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="142">
+      <c r="A26" s="139">
         <v>20</v>
       </c>
-      <c r="B26" s="142"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="151" t="s">
         <v>93</v>
       </c>
@@ -14861,24 +14892,24 @@
       <c r="CO26" s="18"/>
     </row>
     <row r="27" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="142">
+      <c r="A27" s="139">
         <v>21</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="140"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="140"/>
-      <c r="O27" s="140"/>
-      <c r="P27" s="141"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="145"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="144"/>
+      <c r="O27" s="144"/>
+      <c r="P27" s="145"/>
       <c r="Q27" s="146"/>
       <c r="R27" s="147"/>
       <c r="S27" s="73"/>
@@ -15223,21 +15254,21 @@
       <c r="AF31" s="169"/>
       <c r="AG31" s="169"/>
       <c r="AH31" s="169"/>
-      <c r="AI31" s="142" t="s">
+      <c r="AI31" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="AJ31" s="142"/>
-      <c r="AK31" s="142"/>
-      <c r="AL31" s="142"/>
-      <c r="AM31" s="142"/>
-      <c r="AN31" s="142"/>
-      <c r="AO31" s="142"/>
-      <c r="AP31" s="142"/>
-      <c r="AQ31" s="142"/>
-      <c r="AR31" s="142"/>
-      <c r="AS31" s="142"/>
-      <c r="AT31" s="142"/>
-      <c r="AU31" s="142"/>
+      <c r="AJ31" s="139"/>
+      <c r="AK31" s="139"/>
+      <c r="AL31" s="139"/>
+      <c r="AM31" s="139"/>
+      <c r="AN31" s="139"/>
+      <c r="AO31" s="139"/>
+      <c r="AP31" s="139"/>
+      <c r="AQ31" s="139"/>
+      <c r="AR31" s="139"/>
+      <c r="AS31" s="139"/>
+      <c r="AT31" s="139"/>
+      <c r="AU31" s="139"/>
       <c r="AV31" s="178" t="s">
         <v>46</v>
       </c>
@@ -15293,21 +15324,21 @@
       <c r="AF32" s="169"/>
       <c r="AG32" s="169"/>
       <c r="AH32" s="169"/>
-      <c r="AI32" s="142" t="s">
+      <c r="AI32" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="AJ32" s="142"/>
-      <c r="AK32" s="142"/>
-      <c r="AL32" s="142"/>
-      <c r="AM32" s="142"/>
-      <c r="AN32" s="142"/>
-      <c r="AO32" s="142"/>
-      <c r="AP32" s="142"/>
-      <c r="AQ32" s="142"/>
-      <c r="AR32" s="142"/>
-      <c r="AS32" s="142"/>
-      <c r="AT32" s="142"/>
-      <c r="AU32" s="142"/>
+      <c r="AJ32" s="139"/>
+      <c r="AK32" s="139"/>
+      <c r="AL32" s="139"/>
+      <c r="AM32" s="139"/>
+      <c r="AN32" s="139"/>
+      <c r="AO32" s="139"/>
+      <c r="AP32" s="139"/>
+      <c r="AQ32" s="139"/>
+      <c r="AR32" s="139"/>
+      <c r="AS32" s="139"/>
+      <c r="AT32" s="139"/>
+      <c r="AU32" s="139"/>
       <c r="AV32" s="152" t="s">
         <v>46</v>
       </c>
@@ -15359,19 +15390,19 @@
       <c r="AF33" s="152"/>
       <c r="AG33" s="152"/>
       <c r="AH33" s="152"/>
-      <c r="AI33" s="142"/>
-      <c r="AJ33" s="142"/>
-      <c r="AK33" s="142"/>
-      <c r="AL33" s="142"/>
-      <c r="AM33" s="142"/>
-      <c r="AN33" s="142"/>
-      <c r="AO33" s="142"/>
-      <c r="AP33" s="142"/>
-      <c r="AQ33" s="142"/>
-      <c r="AR33" s="142"/>
-      <c r="AS33" s="142"/>
-      <c r="AT33" s="142"/>
-      <c r="AU33" s="142"/>
+      <c r="AI33" s="139"/>
+      <c r="AJ33" s="139"/>
+      <c r="AK33" s="139"/>
+      <c r="AL33" s="139"/>
+      <c r="AM33" s="139"/>
+      <c r="AN33" s="139"/>
+      <c r="AO33" s="139"/>
+      <c r="AP33" s="139"/>
+      <c r="AQ33" s="139"/>
+      <c r="AR33" s="139"/>
+      <c r="AS33" s="139"/>
+      <c r="AT33" s="139"/>
+      <c r="AU33" s="139"/>
       <c r="AV33" s="152"/>
       <c r="AW33" s="152"/>
       <c r="AX33" s="152"/>
@@ -15421,19 +15452,19 @@
       <c r="AF34" s="152"/>
       <c r="AG34" s="152"/>
       <c r="AH34" s="152"/>
-      <c r="AI34" s="142"/>
-      <c r="AJ34" s="142"/>
-      <c r="AK34" s="142"/>
-      <c r="AL34" s="142"/>
-      <c r="AM34" s="142"/>
-      <c r="AN34" s="142"/>
-      <c r="AO34" s="142"/>
-      <c r="AP34" s="142"/>
-      <c r="AQ34" s="142"/>
-      <c r="AR34" s="142"/>
-      <c r="AS34" s="142"/>
-      <c r="AT34" s="142"/>
-      <c r="AU34" s="142"/>
+      <c r="AI34" s="139"/>
+      <c r="AJ34" s="139"/>
+      <c r="AK34" s="139"/>
+      <c r="AL34" s="139"/>
+      <c r="AM34" s="139"/>
+      <c r="AN34" s="139"/>
+      <c r="AO34" s="139"/>
+      <c r="AP34" s="139"/>
+      <c r="AQ34" s="139"/>
+      <c r="AR34" s="139"/>
+      <c r="AS34" s="139"/>
+      <c r="AT34" s="139"/>
+      <c r="AU34" s="139"/>
       <c r="AV34" s="152"/>
       <c r="AW34" s="152"/>
       <c r="AX34" s="152"/>
@@ -15483,19 +15514,19 @@
       <c r="AF35" s="152"/>
       <c r="AG35" s="152"/>
       <c r="AH35" s="152"/>
-      <c r="AI35" s="142"/>
-      <c r="AJ35" s="142"/>
-      <c r="AK35" s="142"/>
-      <c r="AL35" s="142"/>
-      <c r="AM35" s="142"/>
-      <c r="AN35" s="142"/>
-      <c r="AO35" s="142"/>
-      <c r="AP35" s="142"/>
-      <c r="AQ35" s="142"/>
-      <c r="AR35" s="142"/>
-      <c r="AS35" s="142"/>
-      <c r="AT35" s="142"/>
-      <c r="AU35" s="142"/>
+      <c r="AI35" s="139"/>
+      <c r="AJ35" s="139"/>
+      <c r="AK35" s="139"/>
+      <c r="AL35" s="139"/>
+      <c r="AM35" s="139"/>
+      <c r="AN35" s="139"/>
+      <c r="AO35" s="139"/>
+      <c r="AP35" s="139"/>
+      <c r="AQ35" s="139"/>
+      <c r="AR35" s="139"/>
+      <c r="AS35" s="139"/>
+      <c r="AT35" s="139"/>
+      <c r="AU35" s="139"/>
       <c r="AV35" s="152"/>
       <c r="AW35" s="152"/>
       <c r="AX35" s="152"/>
@@ -15545,19 +15576,19 @@
       <c r="AF36" s="152"/>
       <c r="AG36" s="152"/>
       <c r="AH36" s="152"/>
-      <c r="AI36" s="142"/>
-      <c r="AJ36" s="142"/>
-      <c r="AK36" s="142"/>
-      <c r="AL36" s="142"/>
-      <c r="AM36" s="142"/>
-      <c r="AN36" s="142"/>
-      <c r="AO36" s="142"/>
-      <c r="AP36" s="142"/>
-      <c r="AQ36" s="142"/>
-      <c r="AR36" s="142"/>
-      <c r="AS36" s="142"/>
-      <c r="AT36" s="142"/>
-      <c r="AU36" s="142"/>
+      <c r="AI36" s="139"/>
+      <c r="AJ36" s="139"/>
+      <c r="AK36" s="139"/>
+      <c r="AL36" s="139"/>
+      <c r="AM36" s="139"/>
+      <c r="AN36" s="139"/>
+      <c r="AO36" s="139"/>
+      <c r="AP36" s="139"/>
+      <c r="AQ36" s="139"/>
+      <c r="AR36" s="139"/>
+      <c r="AS36" s="139"/>
+      <c r="AT36" s="139"/>
+      <c r="AU36" s="139"/>
       <c r="AV36" s="152"/>
       <c r="AW36" s="152"/>
       <c r="AX36" s="152"/>
@@ -15607,19 +15638,19 @@
       <c r="AF37" s="152"/>
       <c r="AG37" s="152"/>
       <c r="AH37" s="152"/>
-      <c r="AI37" s="142"/>
-      <c r="AJ37" s="142"/>
-      <c r="AK37" s="142"/>
-      <c r="AL37" s="142"/>
-      <c r="AM37" s="142"/>
-      <c r="AN37" s="142"/>
-      <c r="AO37" s="142"/>
-      <c r="AP37" s="142"/>
-      <c r="AQ37" s="142"/>
-      <c r="AR37" s="142"/>
-      <c r="AS37" s="142"/>
-      <c r="AT37" s="142"/>
-      <c r="AU37" s="142"/>
+      <c r="AI37" s="139"/>
+      <c r="AJ37" s="139"/>
+      <c r="AK37" s="139"/>
+      <c r="AL37" s="139"/>
+      <c r="AM37" s="139"/>
+      <c r="AN37" s="139"/>
+      <c r="AO37" s="139"/>
+      <c r="AP37" s="139"/>
+      <c r="AQ37" s="139"/>
+      <c r="AR37" s="139"/>
+      <c r="AS37" s="139"/>
+      <c r="AT37" s="139"/>
+      <c r="AU37" s="139"/>
       <c r="AV37" s="152"/>
       <c r="AW37" s="152"/>
       <c r="AX37" s="152"/>
@@ -15669,19 +15700,19 @@
       <c r="AF38" s="152"/>
       <c r="AG38" s="152"/>
       <c r="AH38" s="152"/>
-      <c r="AI38" s="142"/>
-      <c r="AJ38" s="142"/>
-      <c r="AK38" s="142"/>
-      <c r="AL38" s="142"/>
-      <c r="AM38" s="142"/>
-      <c r="AN38" s="142"/>
-      <c r="AO38" s="142"/>
-      <c r="AP38" s="142"/>
-      <c r="AQ38" s="142"/>
-      <c r="AR38" s="142"/>
-      <c r="AS38" s="142"/>
-      <c r="AT38" s="142"/>
-      <c r="AU38" s="142"/>
+      <c r="AI38" s="139"/>
+      <c r="AJ38" s="139"/>
+      <c r="AK38" s="139"/>
+      <c r="AL38" s="139"/>
+      <c r="AM38" s="139"/>
+      <c r="AN38" s="139"/>
+      <c r="AO38" s="139"/>
+      <c r="AP38" s="139"/>
+      <c r="AQ38" s="139"/>
+      <c r="AR38" s="139"/>
+      <c r="AS38" s="139"/>
+      <c r="AT38" s="139"/>
+      <c r="AU38" s="139"/>
       <c r="AV38" s="152"/>
       <c r="AW38" s="152"/>
       <c r="AX38" s="152"/>
@@ -15731,19 +15762,19 @@
       <c r="AF39" s="152"/>
       <c r="AG39" s="152"/>
       <c r="AH39" s="152"/>
-      <c r="AI39" s="142"/>
-      <c r="AJ39" s="142"/>
-      <c r="AK39" s="142"/>
-      <c r="AL39" s="142"/>
-      <c r="AM39" s="142"/>
-      <c r="AN39" s="142"/>
-      <c r="AO39" s="142"/>
-      <c r="AP39" s="142"/>
-      <c r="AQ39" s="142"/>
-      <c r="AR39" s="142"/>
-      <c r="AS39" s="142"/>
-      <c r="AT39" s="142"/>
-      <c r="AU39" s="142"/>
+      <c r="AI39" s="139"/>
+      <c r="AJ39" s="139"/>
+      <c r="AK39" s="139"/>
+      <c r="AL39" s="139"/>
+      <c r="AM39" s="139"/>
+      <c r="AN39" s="139"/>
+      <c r="AO39" s="139"/>
+      <c r="AP39" s="139"/>
+      <c r="AQ39" s="139"/>
+      <c r="AR39" s="139"/>
+      <c r="AS39" s="139"/>
+      <c r="AT39" s="139"/>
+      <c r="AU39" s="139"/>
       <c r="AV39" s="152"/>
       <c r="AW39" s="152"/>
       <c r="AX39" s="152"/>
@@ -15972,6 +16003,7 @@
     <mergeCell ref="Y23:Z23"/>
     <mergeCell ref="AA23:AB23"/>
     <mergeCell ref="AC23:AJ23"/>
+    <mergeCell ref="M10:P10"/>
     <mergeCell ref="AK15:AR15"/>
     <mergeCell ref="AC16:AJ16"/>
     <mergeCell ref="AK16:AR16"/>
@@ -15995,7 +16027,8 @@
     <mergeCell ref="AS13:BH13"/>
     <mergeCell ref="AS14:BH14"/>
     <mergeCell ref="AC13:AJ13"/>
-    <mergeCell ref="AC7:AJ7"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="A1:K2"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="S4:AB4"/>
@@ -16018,16 +16051,6 @@
     <mergeCell ref="T8:X8"/>
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="AS4:BH6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="BB1:BH1"/>
     <mergeCell ref="BB2:BH2"/>
     <mergeCell ref="AU1:BA1"/>
@@ -16038,14 +16061,22 @@
     <mergeCell ref="S1:AF1"/>
     <mergeCell ref="S2:AF2"/>
     <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="AS4:BH6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="A4:B6"/>
     <mergeCell ref="C4:L6"/>
     <mergeCell ref="M4:P6"/>
     <mergeCell ref="Q4:R6"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="AC7:AJ7"/>
     <mergeCell ref="AC4:AR4"/>
     <mergeCell ref="AK5:AR6"/>
     <mergeCell ref="AC5:AJ6"/>
@@ -16075,17 +16106,6 @@
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="M11:P11"/>
@@ -16099,6 +16119,17 @@
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="C13:L13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C12:L12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16116,8 +16147,8 @@
   </sheetPr>
   <dimension ref="A1:AX200"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A82" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AS95" sqref="AS95"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A142" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K170" sqref="K170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
